--- a/Code/Results/Cases/Case_1_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_17/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8689365253911537</v>
+        <v>0.8689365253911543</v>
       </c>
       <c r="D2">
         <v>1.02106152142235</v>
       </c>
       <c r="E2">
-        <v>0.8896872979729594</v>
+        <v>0.88968729797296</v>
       </c>
       <c r="F2">
-        <v>0.8672784390528963</v>
+        <v>0.8672784390528967</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.034155547610648</v>
       </c>
       <c r="J2">
-        <v>0.8958943863377867</v>
+        <v>0.8958943863377872</v>
       </c>
       <c r="K2">
         <v>1.032235031133364</v>
       </c>
       <c r="L2">
-        <v>0.9029322215883019</v>
+        <v>0.9029322215883021</v>
       </c>
       <c r="M2">
-        <v>0.880959161395279</v>
+        <v>0.8809591613952795</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.896653441771759</v>
+        <v>0.8966534417717571</v>
       </c>
       <c r="D3">
-        <v>1.027328683609316</v>
+        <v>1.027328683609315</v>
       </c>
       <c r="E3">
-        <v>0.9140142089223491</v>
+        <v>0.914014208922347</v>
       </c>
       <c r="F3">
-        <v>0.8959942172740998</v>
+        <v>0.8959942172740972</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.03888959435729</v>
       </c>
       <c r="J3">
-        <v>0.9204213121565696</v>
+        <v>0.9204213121565679</v>
       </c>
       <c r="K3">
         <v>1.037623433672089</v>
       </c>
       <c r="L3">
-        <v>0.9258798894367359</v>
+        <v>0.9258798894367339</v>
       </c>
       <c r="M3">
-        <v>0.9081569279179355</v>
+        <v>0.9081569279179331</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9124804413531098</v>
+        <v>0.912480441353109</v>
       </c>
       <c r="D4">
         <v>1.031011730305942</v>
       </c>
       <c r="E4">
-        <v>0.9279276724027518</v>
+        <v>0.9279276724027508</v>
       </c>
       <c r="F4">
-        <v>0.9124058957359021</v>
+        <v>0.9124058957359016</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.041603817256033</v>
       </c>
       <c r="J4">
-        <v>0.934422749598927</v>
+        <v>0.9344227495989263</v>
       </c>
       <c r="K4">
         <v>1.040749741673066</v>
       </c>
       <c r="L4">
-        <v>0.9389815111710961</v>
+        <v>0.9389815111710952</v>
       </c>
       <c r="M4">
-        <v>0.9236906526083184</v>
+        <v>0.9236906526083177</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9187398916533228</v>
+        <v>0.918739891653325</v>
       </c>
       <c r="D5">
         <v>1.032488144412428</v>
       </c>
       <c r="E5">
-        <v>0.9334343055769571</v>
+        <v>0.9334343055769588</v>
       </c>
       <c r="F5">
-        <v>0.9189001278939115</v>
+        <v>0.9189001278939137</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.042677596452286</v>
       </c>
       <c r="J5">
-        <v>0.9399584011816775</v>
+        <v>0.9399584011816795</v>
       </c>
       <c r="K5">
         <v>1.0419944827504</v>
       </c>
       <c r="L5">
-        <v>0.9441617544610529</v>
+        <v>0.9441617544610547</v>
       </c>
       <c r="M5">
-        <v>0.9298348016043217</v>
+        <v>0.9298348016043236</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.91977017904727</v>
+        <v>0.9197701790472712</v>
       </c>
       <c r="D6">
-        <v>1.032732201818115</v>
+        <v>1.032732201818116</v>
       </c>
       <c r="E6">
-        <v>0.9343408850253223</v>
+        <v>0.9343408850253235</v>
       </c>
       <c r="F6">
-        <v>0.9199692708976281</v>
+        <v>0.9199692708976295</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.042854302180522</v>
       </c>
       <c r="J6">
-        <v>0.9408694282624497</v>
+        <v>0.9408694282624508</v>
       </c>
       <c r="K6">
-        <v>1.042199770041058</v>
+        <v>1.042199770041059</v>
       </c>
       <c r="L6">
-        <v>0.9450143094314295</v>
+        <v>0.9450143094314308</v>
       </c>
       <c r="M6">
-        <v>0.9308461494540753</v>
+        <v>0.9308461494540766</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9125655157948235</v>
+        <v>0.9125655157948209</v>
       </c>
       <c r="D7">
         <v>1.0310317230572</v>
       </c>
       <c r="E7">
-        <v>0.9280025005344409</v>
+        <v>0.9280025005344384</v>
       </c>
       <c r="F7">
-        <v>0.9124941468277533</v>
+        <v>0.9124941468277505</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.041618412641853</v>
       </c>
       <c r="J7">
-        <v>0.9344979947769048</v>
+        <v>0.9344979947769022</v>
       </c>
       <c r="K7">
         <v>1.040766629948886</v>
       </c>
       <c r="L7">
-        <v>0.9390519240202895</v>
+        <v>0.9390519240202867</v>
       </c>
       <c r="M7">
-        <v>0.9237741572729056</v>
+        <v>0.9237741572729032</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8788236625751866</v>
+        <v>0.8788236625751876</v>
       </c>
       <c r="D8">
         <v>1.023269538851792</v>
       </c>
       <c r="E8">
-        <v>0.8983590410520137</v>
+        <v>0.8983590410520148</v>
       </c>
       <c r="F8">
-        <v>0.8775187781112211</v>
+        <v>0.8775187781112221</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.035839982377341</v>
       </c>
       <c r="J8">
-        <v>0.9046438011085151</v>
+        <v>0.9046438011085161</v>
       </c>
       <c r="K8">
-        <v>1.034143271185825</v>
+        <v>1.034143271185826</v>
       </c>
       <c r="L8">
-        <v>0.9111178275115027</v>
+        <v>0.9111178275115037</v>
       </c>
       <c r="M8">
-        <v>0.8906603370238333</v>
+        <v>0.8906603370238342</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7925388282248776</v>
+        <v>0.792538828224882</v>
       </c>
       <c r="D9">
-        <v>1.005116161387505</v>
+        <v>1.005116161387506</v>
       </c>
       <c r="E9">
-        <v>0.8229633029458086</v>
+        <v>0.8229633029458125</v>
       </c>
       <c r="F9">
-        <v>0.788211401900909</v>
+        <v>0.7882114019009134</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02143666458201</v>
+        <v>1.021436664582011</v>
       </c>
       <c r="J9">
-        <v>0.8283651778920346</v>
+        <v>0.8283651778920387</v>
       </c>
       <c r="K9">
-        <v>1.018126774240111</v>
+        <v>1.018126774240112</v>
       </c>
       <c r="L9">
-        <v>0.8397734781671465</v>
+        <v>0.8397734781671504</v>
       </c>
       <c r="M9">
-        <v>0.8060229804034802</v>
+        <v>0.8060229804034843</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7925388282248776</v>
+        <v>0.792538828224882</v>
       </c>
       <c r="D10">
-        <v>1.005116161387505</v>
+        <v>1.005116161387506</v>
       </c>
       <c r="E10">
-        <v>0.8229633029458086</v>
+        <v>0.8229633029458125</v>
       </c>
       <c r="F10">
-        <v>0.788211401900909</v>
+        <v>0.7882114019009134</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02143666458201</v>
+        <v>1.021436664582011</v>
       </c>
       <c r="J10">
-        <v>0.8283651778920346</v>
+        <v>0.8283651778920387</v>
       </c>
       <c r="K10">
-        <v>1.018126774240111</v>
+        <v>1.018126774240112</v>
       </c>
       <c r="L10">
-        <v>0.8397734781671465</v>
+        <v>0.8397734781671504</v>
       </c>
       <c r="M10">
-        <v>0.8060229804034802</v>
+        <v>0.8060229804034843</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7925388282248776</v>
+        <v>0.792538828224882</v>
       </c>
       <c r="D11">
-        <v>1.005116161387505</v>
+        <v>1.005116161387506</v>
       </c>
       <c r="E11">
-        <v>0.8229633029458086</v>
+        <v>0.8229633029458125</v>
       </c>
       <c r="F11">
-        <v>0.788211401900909</v>
+        <v>0.7882114019009134</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02143666458201</v>
+        <v>1.021436664582011</v>
       </c>
       <c r="J11">
-        <v>0.8283651778920346</v>
+        <v>0.8283651778920387</v>
       </c>
       <c r="K11">
-        <v>1.018126774240111</v>
+        <v>1.018126774240112</v>
       </c>
       <c r="L11">
-        <v>0.8397734781671465</v>
+        <v>0.8397734781671504</v>
       </c>
       <c r="M11">
-        <v>0.8060229804034802</v>
+        <v>0.8060229804034843</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7925388282248776</v>
+        <v>0.792538828224882</v>
       </c>
       <c r="D12">
-        <v>1.005116161387505</v>
+        <v>1.005116161387506</v>
       </c>
       <c r="E12">
-        <v>0.8229633029458086</v>
+        <v>0.8229633029458125</v>
       </c>
       <c r="F12">
-        <v>0.788211401900909</v>
+        <v>0.7882114019009134</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02143666458201</v>
+        <v>1.021436664582011</v>
       </c>
       <c r="J12">
-        <v>0.8283651778920346</v>
+        <v>0.8283651778920387</v>
       </c>
       <c r="K12">
-        <v>1.018126774240111</v>
+        <v>1.018126774240112</v>
       </c>
       <c r="L12">
-        <v>0.8397734781671465</v>
+        <v>0.8397734781671504</v>
       </c>
       <c r="M12">
-        <v>0.8060229804034802</v>
+        <v>0.8060229804034843</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7925388282248776</v>
+        <v>0.792538828224882</v>
       </c>
       <c r="D13">
-        <v>1.005116161387505</v>
+        <v>1.005116161387506</v>
       </c>
       <c r="E13">
-        <v>0.8229633029458086</v>
+        <v>0.8229633029458125</v>
       </c>
       <c r="F13">
-        <v>0.788211401900909</v>
+        <v>0.7882114019009134</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02143666458201</v>
+        <v>1.021436664582011</v>
       </c>
       <c r="J13">
-        <v>0.8283651778920346</v>
+        <v>0.8283651778920387</v>
       </c>
       <c r="K13">
-        <v>1.018126774240111</v>
+        <v>1.018126774240112</v>
       </c>
       <c r="L13">
-        <v>0.8397734781671465</v>
+        <v>0.8397734781671504</v>
       </c>
       <c r="M13">
-        <v>0.8060229804034802</v>
+        <v>0.8060229804034843</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7925388282248776</v>
+        <v>0.792538828224882</v>
       </c>
       <c r="D14">
-        <v>1.005116161387505</v>
+        <v>1.005116161387506</v>
       </c>
       <c r="E14">
-        <v>0.8229633029458086</v>
+        <v>0.8229633029458125</v>
       </c>
       <c r="F14">
-        <v>0.788211401900909</v>
+        <v>0.7882114019009134</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02143666458201</v>
+        <v>1.021436664582011</v>
       </c>
       <c r="J14">
-        <v>0.8283651778920346</v>
+        <v>0.8283651778920387</v>
       </c>
       <c r="K14">
-        <v>1.018126774240111</v>
+        <v>1.018126774240112</v>
       </c>
       <c r="L14">
-        <v>0.8397734781671465</v>
+        <v>0.8397734781671504</v>
       </c>
       <c r="M14">
-        <v>0.8060229804034802</v>
+        <v>0.8060229804034843</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7925388282248776</v>
+        <v>0.792538828224882</v>
       </c>
       <c r="D15">
-        <v>1.005116161387505</v>
+        <v>1.005116161387506</v>
       </c>
       <c r="E15">
-        <v>0.8229633029458086</v>
+        <v>0.8229633029458125</v>
       </c>
       <c r="F15">
-        <v>0.788211401900909</v>
+        <v>0.7882114019009134</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02143666458201</v>
+        <v>1.021436664582011</v>
       </c>
       <c r="J15">
-        <v>0.8283651778920346</v>
+        <v>0.8283651778920387</v>
       </c>
       <c r="K15">
-        <v>1.018126774240111</v>
+        <v>1.018126774240112</v>
       </c>
       <c r="L15">
-        <v>0.8397734781671465</v>
+        <v>0.8397734781671504</v>
       </c>
       <c r="M15">
-        <v>0.8060229804034802</v>
+        <v>0.8060229804034843</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7925388282248776</v>
+        <v>0.792538828224882</v>
       </c>
       <c r="D16">
-        <v>1.005116161387505</v>
+        <v>1.005116161387506</v>
       </c>
       <c r="E16">
-        <v>0.8229633029458086</v>
+        <v>0.8229633029458125</v>
       </c>
       <c r="F16">
-        <v>0.788211401900909</v>
+        <v>0.7882114019009134</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02143666458201</v>
+        <v>1.021436664582011</v>
       </c>
       <c r="J16">
-        <v>0.8283651778920346</v>
+        <v>0.8283651778920387</v>
       </c>
       <c r="K16">
-        <v>1.018126774240111</v>
+        <v>1.018126774240112</v>
       </c>
       <c r="L16">
-        <v>0.8397734781671465</v>
+        <v>0.8397734781671504</v>
       </c>
       <c r="M16">
-        <v>0.8060229804034802</v>
+        <v>0.8060229804034843</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7925388282248776</v>
+        <v>0.792538828224882</v>
       </c>
       <c r="D17">
-        <v>1.005116161387505</v>
+        <v>1.005116161387506</v>
       </c>
       <c r="E17">
-        <v>0.8229633029458086</v>
+        <v>0.8229633029458125</v>
       </c>
       <c r="F17">
-        <v>0.788211401900909</v>
+        <v>0.7882114019009134</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02143666458201</v>
+        <v>1.021436664582011</v>
       </c>
       <c r="J17">
-        <v>0.8283651778920346</v>
+        <v>0.8283651778920387</v>
       </c>
       <c r="K17">
-        <v>1.018126774240111</v>
+        <v>1.018126774240112</v>
       </c>
       <c r="L17">
-        <v>0.8397734781671465</v>
+        <v>0.8397734781671504</v>
       </c>
       <c r="M17">
-        <v>0.8060229804034802</v>
+        <v>0.8060229804034843</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7925388282248776</v>
+        <v>0.792538828224882</v>
       </c>
       <c r="D18">
-        <v>1.005116161387505</v>
+        <v>1.005116161387506</v>
       </c>
       <c r="E18">
-        <v>0.8229633029458086</v>
+        <v>0.8229633029458125</v>
       </c>
       <c r="F18">
-        <v>0.788211401900909</v>
+        <v>0.7882114019009134</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02143666458201</v>
+        <v>1.021436664582011</v>
       </c>
       <c r="J18">
-        <v>0.8283651778920346</v>
+        <v>0.8283651778920387</v>
       </c>
       <c r="K18">
-        <v>1.018126774240111</v>
+        <v>1.018126774240112</v>
       </c>
       <c r="L18">
-        <v>0.8397734781671465</v>
+        <v>0.8397734781671504</v>
       </c>
       <c r="M18">
-        <v>0.8060229804034802</v>
+        <v>0.8060229804034843</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7925388282248776</v>
+        <v>0.792538828224882</v>
       </c>
       <c r="D19">
-        <v>1.005116161387505</v>
+        <v>1.005116161387506</v>
       </c>
       <c r="E19">
-        <v>0.8229633029458086</v>
+        <v>0.8229633029458125</v>
       </c>
       <c r="F19">
-        <v>0.788211401900909</v>
+        <v>0.7882114019009134</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02143666458201</v>
+        <v>1.021436664582011</v>
       </c>
       <c r="J19">
-        <v>0.8283651778920346</v>
+        <v>0.8283651778920387</v>
       </c>
       <c r="K19">
-        <v>1.018126774240111</v>
+        <v>1.018126774240112</v>
       </c>
       <c r="L19">
-        <v>0.8397734781671465</v>
+        <v>0.8397734781671504</v>
       </c>
       <c r="M19">
-        <v>0.8060229804034802</v>
+        <v>0.8060229804034843</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7925388282248776</v>
+        <v>0.792538828224882</v>
       </c>
       <c r="D20">
-        <v>1.005116161387505</v>
+        <v>1.005116161387506</v>
       </c>
       <c r="E20">
-        <v>0.8229633029458086</v>
+        <v>0.8229633029458125</v>
       </c>
       <c r="F20">
-        <v>0.788211401900909</v>
+        <v>0.7882114019009134</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02143666458201</v>
+        <v>1.021436664582011</v>
       </c>
       <c r="J20">
-        <v>0.8283651778920346</v>
+        <v>0.8283651778920387</v>
       </c>
       <c r="K20">
-        <v>1.018126774240111</v>
+        <v>1.018126774240112</v>
       </c>
       <c r="L20">
-        <v>0.8397734781671465</v>
+        <v>0.8397734781671504</v>
       </c>
       <c r="M20">
-        <v>0.8060229804034802</v>
+        <v>0.8060229804034843</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7925388282248776</v>
+        <v>0.792538828224882</v>
       </c>
       <c r="D21">
-        <v>1.005116161387505</v>
+        <v>1.005116161387506</v>
       </c>
       <c r="E21">
-        <v>0.8229633029458086</v>
+        <v>0.8229633029458125</v>
       </c>
       <c r="F21">
-        <v>0.788211401900909</v>
+        <v>0.7882114019009134</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02143666458201</v>
+        <v>1.021436664582011</v>
       </c>
       <c r="J21">
-        <v>0.8283651778920346</v>
+        <v>0.8283651778920387</v>
       </c>
       <c r="K21">
-        <v>1.018126774240111</v>
+        <v>1.018126774240112</v>
       </c>
       <c r="L21">
-        <v>0.8397734781671465</v>
+        <v>0.8397734781671504</v>
       </c>
       <c r="M21">
-        <v>0.8060229804034802</v>
+        <v>0.8060229804034843</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7925388282248776</v>
+        <v>0.792538828224882</v>
       </c>
       <c r="D22">
-        <v>1.005116161387505</v>
+        <v>1.005116161387506</v>
       </c>
       <c r="E22">
-        <v>0.8229633029458086</v>
+        <v>0.8229633029458125</v>
       </c>
       <c r="F22">
-        <v>0.788211401900909</v>
+        <v>0.7882114019009134</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02143666458201</v>
+        <v>1.021436664582011</v>
       </c>
       <c r="J22">
-        <v>0.8283651778920346</v>
+        <v>0.8283651778920387</v>
       </c>
       <c r="K22">
-        <v>1.018126774240111</v>
+        <v>1.018126774240112</v>
       </c>
       <c r="L22">
-        <v>0.8397734781671465</v>
+        <v>0.8397734781671504</v>
       </c>
       <c r="M22">
-        <v>0.8060229804034802</v>
+        <v>0.8060229804034843</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7925388282248776</v>
+        <v>0.792538828224882</v>
       </c>
       <c r="D23">
-        <v>1.005116161387505</v>
+        <v>1.005116161387506</v>
       </c>
       <c r="E23">
-        <v>0.8229633029458086</v>
+        <v>0.8229633029458125</v>
       </c>
       <c r="F23">
-        <v>0.788211401900909</v>
+        <v>0.7882114019009134</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02143666458201</v>
+        <v>1.021436664582011</v>
       </c>
       <c r="J23">
-        <v>0.8283651778920346</v>
+        <v>0.8283651778920387</v>
       </c>
       <c r="K23">
-        <v>1.018126774240111</v>
+        <v>1.018126774240112</v>
       </c>
       <c r="L23">
-        <v>0.8397734781671465</v>
+        <v>0.8397734781671504</v>
       </c>
       <c r="M23">
-        <v>0.8060229804034802</v>
+        <v>0.8060229804034843</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7925388282248776</v>
+        <v>0.792538828224882</v>
       </c>
       <c r="D24">
-        <v>1.005116161387505</v>
+        <v>1.005116161387506</v>
       </c>
       <c r="E24">
-        <v>0.8229633029458086</v>
+        <v>0.8229633029458125</v>
       </c>
       <c r="F24">
-        <v>0.788211401900909</v>
+        <v>0.7882114019009134</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02143666458201</v>
+        <v>1.021436664582011</v>
       </c>
       <c r="J24">
-        <v>0.8283651778920346</v>
+        <v>0.8283651778920387</v>
       </c>
       <c r="K24">
-        <v>1.018126774240111</v>
+        <v>1.018126774240112</v>
       </c>
       <c r="L24">
-        <v>0.8397734781671465</v>
+        <v>0.8397734781671504</v>
       </c>
       <c r="M24">
-        <v>0.8060229804034802</v>
+        <v>0.8060229804034843</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7925388282248776</v>
+        <v>0.792538828224882</v>
       </c>
       <c r="D25">
-        <v>1.005116161387505</v>
+        <v>1.005116161387506</v>
       </c>
       <c r="E25">
-        <v>0.8229633029458086</v>
+        <v>0.8229633029458125</v>
       </c>
       <c r="F25">
-        <v>0.788211401900909</v>
+        <v>0.7882114019009134</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02143666458201</v>
+        <v>1.021436664582011</v>
       </c>
       <c r="J25">
-        <v>0.8283651778920346</v>
+        <v>0.8283651778920387</v>
       </c>
       <c r="K25">
-        <v>1.018126774240111</v>
+        <v>1.018126774240112</v>
       </c>
       <c r="L25">
-        <v>0.8397734781671465</v>
+        <v>0.8397734781671504</v>
       </c>
       <c r="M25">
-        <v>0.8060229804034802</v>
+        <v>0.8060229804034843</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_17/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8689365253911543</v>
+        <v>0.8689365253911537</v>
       </c>
       <c r="D2">
         <v>1.02106152142235</v>
       </c>
       <c r="E2">
-        <v>0.88968729797296</v>
+        <v>0.8896872979729594</v>
       </c>
       <c r="F2">
-        <v>0.8672784390528967</v>
+        <v>0.8672784390528963</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.034155547610648</v>
       </c>
       <c r="J2">
-        <v>0.8958943863377872</v>
+        <v>0.8958943863377867</v>
       </c>
       <c r="K2">
         <v>1.032235031133364</v>
       </c>
       <c r="L2">
-        <v>0.9029322215883021</v>
+        <v>0.9029322215883019</v>
       </c>
       <c r="M2">
-        <v>0.8809591613952795</v>
+        <v>0.880959161395279</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8966534417717571</v>
+        <v>0.896653441771759</v>
       </c>
       <c r="D3">
-        <v>1.027328683609315</v>
+        <v>1.027328683609316</v>
       </c>
       <c r="E3">
-        <v>0.914014208922347</v>
+        <v>0.9140142089223491</v>
       </c>
       <c r="F3">
-        <v>0.8959942172740972</v>
+        <v>0.8959942172740998</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.03888959435729</v>
       </c>
       <c r="J3">
-        <v>0.9204213121565679</v>
+        <v>0.9204213121565696</v>
       </c>
       <c r="K3">
         <v>1.037623433672089</v>
       </c>
       <c r="L3">
-        <v>0.9258798894367339</v>
+        <v>0.9258798894367359</v>
       </c>
       <c r="M3">
-        <v>0.9081569279179331</v>
+        <v>0.9081569279179355</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.912480441353109</v>
+        <v>0.9124804413531098</v>
       </c>
       <c r="D4">
         <v>1.031011730305942</v>
       </c>
       <c r="E4">
-        <v>0.9279276724027508</v>
+        <v>0.9279276724027518</v>
       </c>
       <c r="F4">
-        <v>0.9124058957359016</v>
+        <v>0.9124058957359021</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.041603817256033</v>
       </c>
       <c r="J4">
-        <v>0.9344227495989263</v>
+        <v>0.934422749598927</v>
       </c>
       <c r="K4">
         <v>1.040749741673066</v>
       </c>
       <c r="L4">
-        <v>0.9389815111710952</v>
+        <v>0.9389815111710961</v>
       </c>
       <c r="M4">
-        <v>0.9236906526083177</v>
+        <v>0.9236906526083184</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.918739891653325</v>
+        <v>0.9187398916533228</v>
       </c>
       <c r="D5">
         <v>1.032488144412428</v>
       </c>
       <c r="E5">
-        <v>0.9334343055769588</v>
+        <v>0.9334343055769571</v>
       </c>
       <c r="F5">
-        <v>0.9189001278939137</v>
+        <v>0.9189001278939115</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.042677596452286</v>
       </c>
       <c r="J5">
-        <v>0.9399584011816795</v>
+        <v>0.9399584011816775</v>
       </c>
       <c r="K5">
         <v>1.0419944827504</v>
       </c>
       <c r="L5">
-        <v>0.9441617544610547</v>
+        <v>0.9441617544610529</v>
       </c>
       <c r="M5">
-        <v>0.9298348016043236</v>
+        <v>0.9298348016043217</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9197701790472712</v>
+        <v>0.91977017904727</v>
       </c>
       <c r="D6">
-        <v>1.032732201818116</v>
+        <v>1.032732201818115</v>
       </c>
       <c r="E6">
-        <v>0.9343408850253235</v>
+        <v>0.9343408850253223</v>
       </c>
       <c r="F6">
-        <v>0.9199692708976295</v>
+        <v>0.9199692708976281</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.042854302180522</v>
       </c>
       <c r="J6">
-        <v>0.9408694282624508</v>
+        <v>0.9408694282624497</v>
       </c>
       <c r="K6">
-        <v>1.042199770041059</v>
+        <v>1.042199770041058</v>
       </c>
       <c r="L6">
-        <v>0.9450143094314308</v>
+        <v>0.9450143094314295</v>
       </c>
       <c r="M6">
-        <v>0.9308461494540766</v>
+        <v>0.9308461494540753</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9125655157948209</v>
+        <v>0.9125655157948235</v>
       </c>
       <c r="D7">
         <v>1.0310317230572</v>
       </c>
       <c r="E7">
-        <v>0.9280025005344384</v>
+        <v>0.9280025005344409</v>
       </c>
       <c r="F7">
-        <v>0.9124941468277505</v>
+        <v>0.9124941468277533</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.041618412641853</v>
       </c>
       <c r="J7">
-        <v>0.9344979947769022</v>
+        <v>0.9344979947769048</v>
       </c>
       <c r="K7">
         <v>1.040766629948886</v>
       </c>
       <c r="L7">
-        <v>0.9390519240202867</v>
+        <v>0.9390519240202895</v>
       </c>
       <c r="M7">
-        <v>0.9237741572729032</v>
+        <v>0.9237741572729056</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8788236625751876</v>
+        <v>0.8788236625751866</v>
       </c>
       <c r="D8">
         <v>1.023269538851792</v>
       </c>
       <c r="E8">
-        <v>0.8983590410520148</v>
+        <v>0.8983590410520137</v>
       </c>
       <c r="F8">
-        <v>0.8775187781112221</v>
+        <v>0.8775187781112211</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.035839982377341</v>
       </c>
       <c r="J8">
-        <v>0.9046438011085161</v>
+        <v>0.9046438011085151</v>
       </c>
       <c r="K8">
-        <v>1.034143271185826</v>
+        <v>1.034143271185825</v>
       </c>
       <c r="L8">
-        <v>0.9111178275115037</v>
+        <v>0.9111178275115027</v>
       </c>
       <c r="M8">
-        <v>0.8906603370238342</v>
+        <v>0.8906603370238333</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.792538828224882</v>
+        <v>0.7925388282248776</v>
       </c>
       <c r="D9">
-        <v>1.005116161387506</v>
+        <v>1.005116161387505</v>
       </c>
       <c r="E9">
-        <v>0.8229633029458125</v>
+        <v>0.8229633029458086</v>
       </c>
       <c r="F9">
-        <v>0.7882114019009134</v>
+        <v>0.788211401900909</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.021436664582011</v>
+        <v>1.02143666458201</v>
       </c>
       <c r="J9">
-        <v>0.8283651778920387</v>
+        <v>0.8283651778920346</v>
       </c>
       <c r="K9">
-        <v>1.018126774240112</v>
+        <v>1.018126774240111</v>
       </c>
       <c r="L9">
-        <v>0.8397734781671504</v>
+        <v>0.8397734781671465</v>
       </c>
       <c r="M9">
-        <v>0.8060229804034843</v>
+        <v>0.8060229804034802</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.792538828224882</v>
+        <v>0.7925388282248776</v>
       </c>
       <c r="D10">
-        <v>1.005116161387506</v>
+        <v>1.005116161387505</v>
       </c>
       <c r="E10">
-        <v>0.8229633029458125</v>
+        <v>0.8229633029458086</v>
       </c>
       <c r="F10">
-        <v>0.7882114019009134</v>
+        <v>0.788211401900909</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021436664582011</v>
+        <v>1.02143666458201</v>
       </c>
       <c r="J10">
-        <v>0.8283651778920387</v>
+        <v>0.8283651778920346</v>
       </c>
       <c r="K10">
-        <v>1.018126774240112</v>
+        <v>1.018126774240111</v>
       </c>
       <c r="L10">
-        <v>0.8397734781671504</v>
+        <v>0.8397734781671465</v>
       </c>
       <c r="M10">
-        <v>0.8060229804034843</v>
+        <v>0.8060229804034802</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.792538828224882</v>
+        <v>0.7925388282248776</v>
       </c>
       <c r="D11">
-        <v>1.005116161387506</v>
+        <v>1.005116161387505</v>
       </c>
       <c r="E11">
-        <v>0.8229633029458125</v>
+        <v>0.8229633029458086</v>
       </c>
       <c r="F11">
-        <v>0.7882114019009134</v>
+        <v>0.788211401900909</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021436664582011</v>
+        <v>1.02143666458201</v>
       </c>
       <c r="J11">
-        <v>0.8283651778920387</v>
+        <v>0.8283651778920346</v>
       </c>
       <c r="K11">
-        <v>1.018126774240112</v>
+        <v>1.018126774240111</v>
       </c>
       <c r="L11">
-        <v>0.8397734781671504</v>
+        <v>0.8397734781671465</v>
       </c>
       <c r="M11">
-        <v>0.8060229804034843</v>
+        <v>0.8060229804034802</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.792538828224882</v>
+        <v>0.7925388282248776</v>
       </c>
       <c r="D12">
-        <v>1.005116161387506</v>
+        <v>1.005116161387505</v>
       </c>
       <c r="E12">
-        <v>0.8229633029458125</v>
+        <v>0.8229633029458086</v>
       </c>
       <c r="F12">
-        <v>0.7882114019009134</v>
+        <v>0.788211401900909</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021436664582011</v>
+        <v>1.02143666458201</v>
       </c>
       <c r="J12">
-        <v>0.8283651778920387</v>
+        <v>0.8283651778920346</v>
       </c>
       <c r="K12">
-        <v>1.018126774240112</v>
+        <v>1.018126774240111</v>
       </c>
       <c r="L12">
-        <v>0.8397734781671504</v>
+        <v>0.8397734781671465</v>
       </c>
       <c r="M12">
-        <v>0.8060229804034843</v>
+        <v>0.8060229804034802</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.792538828224882</v>
+        <v>0.7925388282248776</v>
       </c>
       <c r="D13">
-        <v>1.005116161387506</v>
+        <v>1.005116161387505</v>
       </c>
       <c r="E13">
-        <v>0.8229633029458125</v>
+        <v>0.8229633029458086</v>
       </c>
       <c r="F13">
-        <v>0.7882114019009134</v>
+        <v>0.788211401900909</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021436664582011</v>
+        <v>1.02143666458201</v>
       </c>
       <c r="J13">
-        <v>0.8283651778920387</v>
+        <v>0.8283651778920346</v>
       </c>
       <c r="K13">
-        <v>1.018126774240112</v>
+        <v>1.018126774240111</v>
       </c>
       <c r="L13">
-        <v>0.8397734781671504</v>
+        <v>0.8397734781671465</v>
       </c>
       <c r="M13">
-        <v>0.8060229804034843</v>
+        <v>0.8060229804034802</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.792538828224882</v>
+        <v>0.7925388282248776</v>
       </c>
       <c r="D14">
-        <v>1.005116161387506</v>
+        <v>1.005116161387505</v>
       </c>
       <c r="E14">
-        <v>0.8229633029458125</v>
+        <v>0.8229633029458086</v>
       </c>
       <c r="F14">
-        <v>0.7882114019009134</v>
+        <v>0.788211401900909</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021436664582011</v>
+        <v>1.02143666458201</v>
       </c>
       <c r="J14">
-        <v>0.8283651778920387</v>
+        <v>0.8283651778920346</v>
       </c>
       <c r="K14">
-        <v>1.018126774240112</v>
+        <v>1.018126774240111</v>
       </c>
       <c r="L14">
-        <v>0.8397734781671504</v>
+        <v>0.8397734781671465</v>
       </c>
       <c r="M14">
-        <v>0.8060229804034843</v>
+        <v>0.8060229804034802</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.792538828224882</v>
+        <v>0.7925388282248776</v>
       </c>
       <c r="D15">
-        <v>1.005116161387506</v>
+        <v>1.005116161387505</v>
       </c>
       <c r="E15">
-        <v>0.8229633029458125</v>
+        <v>0.8229633029458086</v>
       </c>
       <c r="F15">
-        <v>0.7882114019009134</v>
+        <v>0.788211401900909</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021436664582011</v>
+        <v>1.02143666458201</v>
       </c>
       <c r="J15">
-        <v>0.8283651778920387</v>
+        <v>0.8283651778920346</v>
       </c>
       <c r="K15">
-        <v>1.018126774240112</v>
+        <v>1.018126774240111</v>
       </c>
       <c r="L15">
-        <v>0.8397734781671504</v>
+        <v>0.8397734781671465</v>
       </c>
       <c r="M15">
-        <v>0.8060229804034843</v>
+        <v>0.8060229804034802</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.792538828224882</v>
+        <v>0.7925388282248776</v>
       </c>
       <c r="D16">
-        <v>1.005116161387506</v>
+        <v>1.005116161387505</v>
       </c>
       <c r="E16">
-        <v>0.8229633029458125</v>
+        <v>0.8229633029458086</v>
       </c>
       <c r="F16">
-        <v>0.7882114019009134</v>
+        <v>0.788211401900909</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021436664582011</v>
+        <v>1.02143666458201</v>
       </c>
       <c r="J16">
-        <v>0.8283651778920387</v>
+        <v>0.8283651778920346</v>
       </c>
       <c r="K16">
-        <v>1.018126774240112</v>
+        <v>1.018126774240111</v>
       </c>
       <c r="L16">
-        <v>0.8397734781671504</v>
+        <v>0.8397734781671465</v>
       </c>
       <c r="M16">
-        <v>0.8060229804034843</v>
+        <v>0.8060229804034802</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.792538828224882</v>
+        <v>0.7925388282248776</v>
       </c>
       <c r="D17">
-        <v>1.005116161387506</v>
+        <v>1.005116161387505</v>
       </c>
       <c r="E17">
-        <v>0.8229633029458125</v>
+        <v>0.8229633029458086</v>
       </c>
       <c r="F17">
-        <v>0.7882114019009134</v>
+        <v>0.788211401900909</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021436664582011</v>
+        <v>1.02143666458201</v>
       </c>
       <c r="J17">
-        <v>0.8283651778920387</v>
+        <v>0.8283651778920346</v>
       </c>
       <c r="K17">
-        <v>1.018126774240112</v>
+        <v>1.018126774240111</v>
       </c>
       <c r="L17">
-        <v>0.8397734781671504</v>
+        <v>0.8397734781671465</v>
       </c>
       <c r="M17">
-        <v>0.8060229804034843</v>
+        <v>0.8060229804034802</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.792538828224882</v>
+        <v>0.7925388282248776</v>
       </c>
       <c r="D18">
-        <v>1.005116161387506</v>
+        <v>1.005116161387505</v>
       </c>
       <c r="E18">
-        <v>0.8229633029458125</v>
+        <v>0.8229633029458086</v>
       </c>
       <c r="F18">
-        <v>0.7882114019009134</v>
+        <v>0.788211401900909</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.021436664582011</v>
+        <v>1.02143666458201</v>
       </c>
       <c r="J18">
-        <v>0.8283651778920387</v>
+        <v>0.8283651778920346</v>
       </c>
       <c r="K18">
-        <v>1.018126774240112</v>
+        <v>1.018126774240111</v>
       </c>
       <c r="L18">
-        <v>0.8397734781671504</v>
+        <v>0.8397734781671465</v>
       </c>
       <c r="M18">
-        <v>0.8060229804034843</v>
+        <v>0.8060229804034802</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.792538828224882</v>
+        <v>0.7925388282248776</v>
       </c>
       <c r="D19">
-        <v>1.005116161387506</v>
+        <v>1.005116161387505</v>
       </c>
       <c r="E19">
-        <v>0.8229633029458125</v>
+        <v>0.8229633029458086</v>
       </c>
       <c r="F19">
-        <v>0.7882114019009134</v>
+        <v>0.788211401900909</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.021436664582011</v>
+        <v>1.02143666458201</v>
       </c>
       <c r="J19">
-        <v>0.8283651778920387</v>
+        <v>0.8283651778920346</v>
       </c>
       <c r="K19">
-        <v>1.018126774240112</v>
+        <v>1.018126774240111</v>
       </c>
       <c r="L19">
-        <v>0.8397734781671504</v>
+        <v>0.8397734781671465</v>
       </c>
       <c r="M19">
-        <v>0.8060229804034843</v>
+        <v>0.8060229804034802</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.792538828224882</v>
+        <v>0.7925388282248776</v>
       </c>
       <c r="D20">
-        <v>1.005116161387506</v>
+        <v>1.005116161387505</v>
       </c>
       <c r="E20">
-        <v>0.8229633029458125</v>
+        <v>0.8229633029458086</v>
       </c>
       <c r="F20">
-        <v>0.7882114019009134</v>
+        <v>0.788211401900909</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021436664582011</v>
+        <v>1.02143666458201</v>
       </c>
       <c r="J20">
-        <v>0.8283651778920387</v>
+        <v>0.8283651778920346</v>
       </c>
       <c r="K20">
-        <v>1.018126774240112</v>
+        <v>1.018126774240111</v>
       </c>
       <c r="L20">
-        <v>0.8397734781671504</v>
+        <v>0.8397734781671465</v>
       </c>
       <c r="M20">
-        <v>0.8060229804034843</v>
+        <v>0.8060229804034802</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.792538828224882</v>
+        <v>0.7925388282248776</v>
       </c>
       <c r="D21">
-        <v>1.005116161387506</v>
+        <v>1.005116161387505</v>
       </c>
       <c r="E21">
-        <v>0.8229633029458125</v>
+        <v>0.8229633029458086</v>
       </c>
       <c r="F21">
-        <v>0.7882114019009134</v>
+        <v>0.788211401900909</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021436664582011</v>
+        <v>1.02143666458201</v>
       </c>
       <c r="J21">
-        <v>0.8283651778920387</v>
+        <v>0.8283651778920346</v>
       </c>
       <c r="K21">
-        <v>1.018126774240112</v>
+        <v>1.018126774240111</v>
       </c>
       <c r="L21">
-        <v>0.8397734781671504</v>
+        <v>0.8397734781671465</v>
       </c>
       <c r="M21">
-        <v>0.8060229804034843</v>
+        <v>0.8060229804034802</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.792538828224882</v>
+        <v>0.7925388282248776</v>
       </c>
       <c r="D22">
-        <v>1.005116161387506</v>
+        <v>1.005116161387505</v>
       </c>
       <c r="E22">
-        <v>0.8229633029458125</v>
+        <v>0.8229633029458086</v>
       </c>
       <c r="F22">
-        <v>0.7882114019009134</v>
+        <v>0.788211401900909</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021436664582011</v>
+        <v>1.02143666458201</v>
       </c>
       <c r="J22">
-        <v>0.8283651778920387</v>
+        <v>0.8283651778920346</v>
       </c>
       <c r="K22">
-        <v>1.018126774240112</v>
+        <v>1.018126774240111</v>
       </c>
       <c r="L22">
-        <v>0.8397734781671504</v>
+        <v>0.8397734781671465</v>
       </c>
       <c r="M22">
-        <v>0.8060229804034843</v>
+        <v>0.8060229804034802</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.792538828224882</v>
+        <v>0.7925388282248776</v>
       </c>
       <c r="D23">
-        <v>1.005116161387506</v>
+        <v>1.005116161387505</v>
       </c>
       <c r="E23">
-        <v>0.8229633029458125</v>
+        <v>0.8229633029458086</v>
       </c>
       <c r="F23">
-        <v>0.7882114019009134</v>
+        <v>0.788211401900909</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021436664582011</v>
+        <v>1.02143666458201</v>
       </c>
       <c r="J23">
-        <v>0.8283651778920387</v>
+        <v>0.8283651778920346</v>
       </c>
       <c r="K23">
-        <v>1.018126774240112</v>
+        <v>1.018126774240111</v>
       </c>
       <c r="L23">
-        <v>0.8397734781671504</v>
+        <v>0.8397734781671465</v>
       </c>
       <c r="M23">
-        <v>0.8060229804034843</v>
+        <v>0.8060229804034802</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.792538828224882</v>
+        <v>0.7925388282248776</v>
       </c>
       <c r="D24">
-        <v>1.005116161387506</v>
+        <v>1.005116161387505</v>
       </c>
       <c r="E24">
-        <v>0.8229633029458125</v>
+        <v>0.8229633029458086</v>
       </c>
       <c r="F24">
-        <v>0.7882114019009134</v>
+        <v>0.788211401900909</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021436664582011</v>
+        <v>1.02143666458201</v>
       </c>
       <c r="J24">
-        <v>0.8283651778920387</v>
+        <v>0.8283651778920346</v>
       </c>
       <c r="K24">
-        <v>1.018126774240112</v>
+        <v>1.018126774240111</v>
       </c>
       <c r="L24">
-        <v>0.8397734781671504</v>
+        <v>0.8397734781671465</v>
       </c>
       <c r="M24">
-        <v>0.8060229804034843</v>
+        <v>0.8060229804034802</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.792538828224882</v>
+        <v>0.7925388282248776</v>
       </c>
       <c r="D25">
-        <v>1.005116161387506</v>
+        <v>1.005116161387505</v>
       </c>
       <c r="E25">
-        <v>0.8229633029458125</v>
+        <v>0.8229633029458086</v>
       </c>
       <c r="F25">
-        <v>0.7882114019009134</v>
+        <v>0.788211401900909</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.021436664582011</v>
+        <v>1.02143666458201</v>
       </c>
       <c r="J25">
-        <v>0.8283651778920387</v>
+        <v>0.8283651778920346</v>
       </c>
       <c r="K25">
-        <v>1.018126774240112</v>
+        <v>1.018126774240111</v>
       </c>
       <c r="L25">
-        <v>0.8397734781671504</v>
+        <v>0.8397734781671465</v>
       </c>
       <c r="M25">
-        <v>0.8060229804034843</v>
+        <v>0.8060229804034802</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_17/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8689365253911537</v>
+        <v>0.8748727246093773</v>
       </c>
       <c r="D2">
-        <v>1.02106152142235</v>
+        <v>1.021942179921013</v>
       </c>
       <c r="E2">
-        <v>0.8896872979729594</v>
+        <v>0.8948611880479607</v>
       </c>
       <c r="F2">
-        <v>0.8672784390528963</v>
+        <v>0.8731117124247262</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034155547610648</v>
+        <v>1.035011262222486</v>
       </c>
       <c r="J2">
-        <v>0.8958943863377867</v>
+        <v>0.9015697556475905</v>
       </c>
       <c r="K2">
-        <v>1.032235031133364</v>
+        <v>1.033104060135969</v>
       </c>
       <c r="L2">
-        <v>0.9029322215883019</v>
+        <v>0.9080095354895121</v>
       </c>
       <c r="M2">
-        <v>0.880959161395279</v>
+        <v>0.8866761624797642</v>
+      </c>
+      <c r="N2">
+        <v>0.9028500881121063</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.896653441771759</v>
+        <v>0.9022466710770087</v>
       </c>
       <c r="D3">
-        <v>1.027328683609316</v>
+        <v>1.028156817685912</v>
       </c>
       <c r="E3">
-        <v>0.9140142089223491</v>
+        <v>0.9188964469275701</v>
       </c>
       <c r="F3">
-        <v>0.8959942172740998</v>
+        <v>0.9014662254115524</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03888959435729</v>
+        <v>1.039696070711739</v>
       </c>
       <c r="J3">
-        <v>0.9204213121565696</v>
+        <v>0.9258101220001453</v>
       </c>
       <c r="K3">
-        <v>1.037623433672089</v>
+        <v>1.038441669533934</v>
       </c>
       <c r="L3">
-        <v>0.9258798894367359</v>
+        <v>0.9306842208962127</v>
       </c>
       <c r="M3">
-        <v>0.9081569279179355</v>
+        <v>0.9135371218732927</v>
+      </c>
+      <c r="N3">
+        <v>0.9271248785652909</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9124804413531098</v>
+        <v>0.9179188566062396</v>
       </c>
       <c r="D4">
-        <v>1.031011730305942</v>
+        <v>1.031815863746403</v>
       </c>
       <c r="E4">
-        <v>0.9279276724027518</v>
+        <v>0.9326783983299454</v>
       </c>
       <c r="F4">
-        <v>0.9124058957359021</v>
+        <v>0.9177140302675501</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041603817256033</v>
+        <v>1.042387995440791</v>
       </c>
       <c r="J4">
-        <v>0.934422749598927</v>
+        <v>0.9396838109262794</v>
       </c>
       <c r="K4">
-        <v>1.040749741673066</v>
+        <v>1.041544884418082</v>
       </c>
       <c r="L4">
-        <v>0.9389815111710961</v>
+        <v>0.9436635063252884</v>
       </c>
       <c r="M4">
-        <v>0.9236906526083184</v>
+        <v>0.9289186995057167</v>
+      </c>
+      <c r="N4">
+        <v>0.9410182697210344</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9187398916533228</v>
+        <v>0.9241238392989639</v>
       </c>
       <c r="D5">
-        <v>1.032488144412428</v>
+        <v>1.033283781843296</v>
       </c>
       <c r="E5">
-        <v>0.9334343055769571</v>
+        <v>0.9381388007932954</v>
       </c>
       <c r="F5">
-        <v>0.9189001278939115</v>
+        <v>0.9241504304913268</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042677596452286</v>
+        <v>1.043453925205249</v>
       </c>
       <c r="J5">
-        <v>0.9399584011816775</v>
+        <v>0.9451748644430622</v>
       </c>
       <c r="K5">
-        <v>1.0419944827504</v>
+        <v>1.042781476231035</v>
       </c>
       <c r="L5">
-        <v>0.9441617544610529</v>
+        <v>0.9488009084942602</v>
       </c>
       <c r="M5">
-        <v>0.9298348016043217</v>
+        <v>0.935009294574856</v>
+      </c>
+      <c r="N5">
+        <v>0.9465171211636437</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.91977017904727</v>
+        <v>0.9251454990045057</v>
       </c>
       <c r="D6">
-        <v>1.032732201818115</v>
+        <v>1.033526490825672</v>
       </c>
       <c r="E6">
-        <v>0.9343408850253223</v>
+        <v>0.9390380597147958</v>
       </c>
       <c r="F6">
-        <v>0.9199692708976281</v>
+        <v>0.9252104027022319</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042854302180522</v>
+        <v>1.043629387650683</v>
       </c>
       <c r="J6">
-        <v>0.9408694282624497</v>
+        <v>0.9460788470239226</v>
       </c>
       <c r="K6">
-        <v>1.042199770041058</v>
+        <v>1.042985471595209</v>
       </c>
       <c r="L6">
-        <v>0.9450143094314295</v>
+        <v>0.9496466890559467</v>
       </c>
       <c r="M6">
-        <v>0.9308461494540753</v>
+        <v>0.9360121580674482</v>
+      </c>
+      <c r="N6">
+        <v>0.947422387503457</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9125655157948235</v>
+        <v>0.9180031665479054</v>
       </c>
       <c r="D7">
-        <v>1.0310317230572</v>
+        <v>1.031835737445293</v>
       </c>
       <c r="E7">
-        <v>0.9280025005344409</v>
+        <v>0.9327525774049535</v>
       </c>
       <c r="F7">
-        <v>0.9124941468277533</v>
+        <v>0.9178014703633596</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041618412641853</v>
+        <v>1.042402480655386</v>
       </c>
       <c r="J7">
-        <v>0.9344979947769048</v>
+        <v>0.9397584287162836</v>
       </c>
       <c r="K7">
-        <v>1.040766629948886</v>
+        <v>1.041561658396332</v>
       </c>
       <c r="L7">
-        <v>0.9390519240202895</v>
+        <v>0.9437333170368114</v>
       </c>
       <c r="M7">
-        <v>0.9237741572729056</v>
+        <v>0.9290014525944312</v>
+      </c>
+      <c r="N7">
+        <v>0.9410929934768593</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8788236625751866</v>
+        <v>0.8846255237990996</v>
       </c>
       <c r="D8">
-        <v>1.023269538851792</v>
+        <v>1.024129716885487</v>
       </c>
       <c r="E8">
-        <v>0.8983590410520137</v>
+        <v>0.903418663333116</v>
       </c>
       <c r="F8">
-        <v>0.8775187781112211</v>
+        <v>0.883210771912592</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035839982377341</v>
+        <v>1.036676441526364</v>
       </c>
       <c r="J8">
-        <v>0.9046438011085151</v>
+        <v>0.9102064718614276</v>
       </c>
       <c r="K8">
-        <v>1.034143271185825</v>
+        <v>1.034992462162321</v>
       </c>
       <c r="L8">
-        <v>0.9111178275115027</v>
+        <v>0.9160879723562931</v>
       </c>
       <c r="M8">
-        <v>0.8906603370238333</v>
+        <v>0.8962454467344116</v>
+      </c>
+      <c r="N8">
+        <v>0.9114990694536124</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>0.7925388282248776</v>
+        <v>0.8002858756794603</v>
       </c>
       <c r="D9">
-        <v>1.005116161387505</v>
+        <v>1.006266548156297</v>
       </c>
       <c r="E9">
-        <v>0.8229633029458086</v>
+        <v>0.8296776395738655</v>
       </c>
       <c r="F9">
-        <v>0.788211401900909</v>
+        <v>0.7959376530175188</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02143666458201</v>
+        <v>1.022548909270475</v>
       </c>
       <c r="J9">
-        <v>0.8283651778920346</v>
+        <v>0.835584528239429</v>
       </c>
       <c r="K9">
-        <v>1.018126774240111</v>
+        <v>1.019258766634314</v>
       </c>
       <c r="L9">
-        <v>0.8397734781671465</v>
+        <v>0.8463074493207041</v>
       </c>
       <c r="M9">
-        <v>0.8060229804034802</v>
+        <v>0.8135161953772386</v>
+      </c>
+      <c r="N9">
+        <v>0.8367711541124141</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C10">
-        <v>0.7925388282248776</v>
+        <v>0.8002858756794603</v>
       </c>
       <c r="D10">
-        <v>1.005116161387505</v>
+        <v>1.006266548156297</v>
       </c>
       <c r="E10">
-        <v>0.8229633029458086</v>
+        <v>0.8296776395738655</v>
       </c>
       <c r="F10">
-        <v>0.788211401900909</v>
+        <v>0.7959376530175188</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02143666458201</v>
+        <v>1.022548909270475</v>
       </c>
       <c r="J10">
-        <v>0.8283651778920346</v>
+        <v>0.835584528239429</v>
       </c>
       <c r="K10">
-        <v>1.018126774240111</v>
+        <v>1.019258766634314</v>
       </c>
       <c r="L10">
-        <v>0.8397734781671465</v>
+        <v>0.8463074493207041</v>
       </c>
       <c r="M10">
-        <v>0.8060229804034802</v>
+        <v>0.8135161953772386</v>
+      </c>
+      <c r="N10">
+        <v>0.8367711541124141</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C11">
-        <v>0.7925388282248776</v>
+        <v>0.8002858756794603</v>
       </c>
       <c r="D11">
-        <v>1.005116161387505</v>
+        <v>1.006266548156297</v>
       </c>
       <c r="E11">
-        <v>0.8229633029458086</v>
+        <v>0.8296776395738655</v>
       </c>
       <c r="F11">
-        <v>0.788211401900909</v>
+        <v>0.7959376530175188</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02143666458201</v>
+        <v>1.022548909270475</v>
       </c>
       <c r="J11">
-        <v>0.8283651778920346</v>
+        <v>0.835584528239429</v>
       </c>
       <c r="K11">
-        <v>1.018126774240111</v>
+        <v>1.019258766634314</v>
       </c>
       <c r="L11">
-        <v>0.8397734781671465</v>
+        <v>0.8463074493207041</v>
       </c>
       <c r="M11">
-        <v>0.8060229804034802</v>
+        <v>0.8135161953772386</v>
+      </c>
+      <c r="N11">
+        <v>0.8367711541124141</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C12">
-        <v>0.7925388282248776</v>
+        <v>0.8002858756794603</v>
       </c>
       <c r="D12">
-        <v>1.005116161387505</v>
+        <v>1.006266548156297</v>
       </c>
       <c r="E12">
-        <v>0.8229633029458086</v>
+        <v>0.8296776395738655</v>
       </c>
       <c r="F12">
-        <v>0.788211401900909</v>
+        <v>0.7959376530175188</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02143666458201</v>
+        <v>1.022548909270475</v>
       </c>
       <c r="J12">
-        <v>0.8283651778920346</v>
+        <v>0.835584528239429</v>
       </c>
       <c r="K12">
-        <v>1.018126774240111</v>
+        <v>1.019258766634314</v>
       </c>
       <c r="L12">
-        <v>0.8397734781671465</v>
+        <v>0.8463074493207041</v>
       </c>
       <c r="M12">
-        <v>0.8060229804034802</v>
+        <v>0.8135161953772386</v>
+      </c>
+      <c r="N12">
+        <v>0.8367711541124141</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C13">
-        <v>0.7925388282248776</v>
+        <v>0.8002858756794603</v>
       </c>
       <c r="D13">
-        <v>1.005116161387505</v>
+        <v>1.006266548156297</v>
       </c>
       <c r="E13">
-        <v>0.8229633029458086</v>
+        <v>0.8296776395738655</v>
       </c>
       <c r="F13">
-        <v>0.788211401900909</v>
+        <v>0.7959376530175188</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02143666458201</v>
+        <v>1.022548909270475</v>
       </c>
       <c r="J13">
-        <v>0.8283651778920346</v>
+        <v>0.835584528239429</v>
       </c>
       <c r="K13">
-        <v>1.018126774240111</v>
+        <v>1.019258766634314</v>
       </c>
       <c r="L13">
-        <v>0.8397734781671465</v>
+        <v>0.8463074493207041</v>
       </c>
       <c r="M13">
-        <v>0.8060229804034802</v>
+        <v>0.8135161953772386</v>
+      </c>
+      <c r="N13">
+        <v>0.8367711541124141</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C14">
-        <v>0.7925388282248776</v>
+        <v>0.8002858756794603</v>
       </c>
       <c r="D14">
-        <v>1.005116161387505</v>
+        <v>1.006266548156297</v>
       </c>
       <c r="E14">
-        <v>0.8229633029458086</v>
+        <v>0.8296776395738655</v>
       </c>
       <c r="F14">
-        <v>0.788211401900909</v>
+        <v>0.7959376530175188</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02143666458201</v>
+        <v>1.022548909270475</v>
       </c>
       <c r="J14">
-        <v>0.8283651778920346</v>
+        <v>0.835584528239429</v>
       </c>
       <c r="K14">
-        <v>1.018126774240111</v>
+        <v>1.019258766634314</v>
       </c>
       <c r="L14">
-        <v>0.8397734781671465</v>
+        <v>0.8463074493207041</v>
       </c>
       <c r="M14">
-        <v>0.8060229804034802</v>
+        <v>0.8135161953772386</v>
+      </c>
+      <c r="N14">
+        <v>0.8367711541124141</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C15">
-        <v>0.7925388282248776</v>
+        <v>0.8002858756794603</v>
       </c>
       <c r="D15">
-        <v>1.005116161387505</v>
+        <v>1.006266548156297</v>
       </c>
       <c r="E15">
-        <v>0.8229633029458086</v>
+        <v>0.8296776395738655</v>
       </c>
       <c r="F15">
-        <v>0.788211401900909</v>
+        <v>0.7959376530175188</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02143666458201</v>
+        <v>1.022548909270475</v>
       </c>
       <c r="J15">
-        <v>0.8283651778920346</v>
+        <v>0.835584528239429</v>
       </c>
       <c r="K15">
-        <v>1.018126774240111</v>
+        <v>1.019258766634314</v>
       </c>
       <c r="L15">
-        <v>0.8397734781671465</v>
+        <v>0.8463074493207041</v>
       </c>
       <c r="M15">
-        <v>0.8060229804034802</v>
+        <v>0.8135161953772386</v>
+      </c>
+      <c r="N15">
+        <v>0.8367711541124141</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,379 +992,409 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C16">
-        <v>0.7925388282248776</v>
+        <v>0.8002858756794603</v>
       </c>
       <c r="D16">
-        <v>1.005116161387505</v>
+        <v>1.006266548156297</v>
       </c>
       <c r="E16">
-        <v>0.8229633029458086</v>
+        <v>0.8296776395738655</v>
       </c>
       <c r="F16">
-        <v>0.788211401900909</v>
+        <v>0.7959376530175188</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02143666458201</v>
+        <v>1.022548909270475</v>
       </c>
       <c r="J16">
-        <v>0.8283651778920346</v>
+        <v>0.835584528239429</v>
       </c>
       <c r="K16">
-        <v>1.018126774240111</v>
+        <v>1.019258766634314</v>
       </c>
       <c r="L16">
-        <v>0.8397734781671465</v>
+        <v>0.8463074493207041</v>
       </c>
       <c r="M16">
-        <v>0.8060229804034802</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8135161953772386</v>
+      </c>
+      <c r="N16">
+        <v>0.8367711541124141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>0.7925388282248776</v>
+        <v>0.8002858756794603</v>
       </c>
       <c r="D17">
-        <v>1.005116161387505</v>
+        <v>1.006266548156297</v>
       </c>
       <c r="E17">
-        <v>0.8229633029458086</v>
+        <v>0.8296776395738655</v>
       </c>
       <c r="F17">
-        <v>0.788211401900909</v>
+        <v>0.7959376530175188</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02143666458201</v>
+        <v>1.022548909270475</v>
       </c>
       <c r="J17">
-        <v>0.8283651778920346</v>
+        <v>0.835584528239429</v>
       </c>
       <c r="K17">
-        <v>1.018126774240111</v>
+        <v>1.019258766634314</v>
       </c>
       <c r="L17">
-        <v>0.8397734781671465</v>
+        <v>0.8463074493207041</v>
       </c>
       <c r="M17">
-        <v>0.8060229804034802</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8135161953772386</v>
+      </c>
+      <c r="N17">
+        <v>0.8367711541124141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C18">
-        <v>0.7925388282248776</v>
+        <v>0.8002858756794603</v>
       </c>
       <c r="D18">
-        <v>1.005116161387505</v>
+        <v>1.006266548156297</v>
       </c>
       <c r="E18">
-        <v>0.8229633029458086</v>
+        <v>0.8296776395738655</v>
       </c>
       <c r="F18">
-        <v>0.788211401900909</v>
+        <v>0.7959376530175188</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02143666458201</v>
+        <v>1.022548909270475</v>
       </c>
       <c r="J18">
-        <v>0.8283651778920346</v>
+        <v>0.835584528239429</v>
       </c>
       <c r="K18">
-        <v>1.018126774240111</v>
+        <v>1.019258766634314</v>
       </c>
       <c r="L18">
-        <v>0.8397734781671465</v>
+        <v>0.8463074493207041</v>
       </c>
       <c r="M18">
-        <v>0.8060229804034802</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8135161953772386</v>
+      </c>
+      <c r="N18">
+        <v>0.8367711541124141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C19">
-        <v>0.7925388282248776</v>
+        <v>0.8002858756794603</v>
       </c>
       <c r="D19">
-        <v>1.005116161387505</v>
+        <v>1.006266548156297</v>
       </c>
       <c r="E19">
-        <v>0.8229633029458086</v>
+        <v>0.8296776395738655</v>
       </c>
       <c r="F19">
-        <v>0.788211401900909</v>
+        <v>0.7959376530175188</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02143666458201</v>
+        <v>1.022548909270475</v>
       </c>
       <c r="J19">
-        <v>0.8283651778920346</v>
+        <v>0.835584528239429</v>
       </c>
       <c r="K19">
-        <v>1.018126774240111</v>
+        <v>1.019258766634314</v>
       </c>
       <c r="L19">
-        <v>0.8397734781671465</v>
+        <v>0.8463074493207041</v>
       </c>
       <c r="M19">
-        <v>0.8060229804034802</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8135161953772386</v>
+      </c>
+      <c r="N19">
+        <v>0.8367711541124141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C20">
-        <v>0.7925388282248776</v>
+        <v>0.8002858756794603</v>
       </c>
       <c r="D20">
-        <v>1.005116161387505</v>
+        <v>1.006266548156297</v>
       </c>
       <c r="E20">
-        <v>0.8229633029458086</v>
+        <v>0.8296776395738655</v>
       </c>
       <c r="F20">
-        <v>0.788211401900909</v>
+        <v>0.7959376530175188</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02143666458201</v>
+        <v>1.022548909270475</v>
       </c>
       <c r="J20">
-        <v>0.8283651778920346</v>
+        <v>0.835584528239429</v>
       </c>
       <c r="K20">
-        <v>1.018126774240111</v>
+        <v>1.019258766634314</v>
       </c>
       <c r="L20">
-        <v>0.8397734781671465</v>
+        <v>0.8463074493207041</v>
       </c>
       <c r="M20">
-        <v>0.8060229804034802</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8135161953772386</v>
+      </c>
+      <c r="N20">
+        <v>0.8367711541124141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>0.7925388282248776</v>
+        <v>0.8002858756794603</v>
       </c>
       <c r="D21">
-        <v>1.005116161387505</v>
+        <v>1.006266548156297</v>
       </c>
       <c r="E21">
-        <v>0.8229633029458086</v>
+        <v>0.8296776395738655</v>
       </c>
       <c r="F21">
-        <v>0.788211401900909</v>
+        <v>0.7959376530175188</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02143666458201</v>
+        <v>1.022548909270475</v>
       </c>
       <c r="J21">
-        <v>0.8283651778920346</v>
+        <v>0.835584528239429</v>
       </c>
       <c r="K21">
-        <v>1.018126774240111</v>
+        <v>1.019258766634314</v>
       </c>
       <c r="L21">
-        <v>0.8397734781671465</v>
+        <v>0.8463074493207041</v>
       </c>
       <c r="M21">
-        <v>0.8060229804034802</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8135161953772386</v>
+      </c>
+      <c r="N21">
+        <v>0.8367711541124141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C22">
-        <v>0.7925388282248776</v>
+        <v>0.8002858756794603</v>
       </c>
       <c r="D22">
-        <v>1.005116161387505</v>
+        <v>1.006266548156297</v>
       </c>
       <c r="E22">
-        <v>0.8229633029458086</v>
+        <v>0.8296776395738655</v>
       </c>
       <c r="F22">
-        <v>0.788211401900909</v>
+        <v>0.7959376530175188</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02143666458201</v>
+        <v>1.022548909270475</v>
       </c>
       <c r="J22">
-        <v>0.8283651778920346</v>
+        <v>0.835584528239429</v>
       </c>
       <c r="K22">
-        <v>1.018126774240111</v>
+        <v>1.019258766634314</v>
       </c>
       <c r="L22">
-        <v>0.8397734781671465</v>
+        <v>0.8463074493207041</v>
       </c>
       <c r="M22">
-        <v>0.8060229804034802</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8135161953772386</v>
+      </c>
+      <c r="N22">
+        <v>0.8367711541124141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C23">
-        <v>0.7925388282248776</v>
+        <v>0.8002858756794603</v>
       </c>
       <c r="D23">
-        <v>1.005116161387505</v>
+        <v>1.006266548156297</v>
       </c>
       <c r="E23">
-        <v>0.8229633029458086</v>
+        <v>0.8296776395738655</v>
       </c>
       <c r="F23">
-        <v>0.788211401900909</v>
+        <v>0.7959376530175188</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02143666458201</v>
+        <v>1.022548909270475</v>
       </c>
       <c r="J23">
-        <v>0.8283651778920346</v>
+        <v>0.835584528239429</v>
       </c>
       <c r="K23">
-        <v>1.018126774240111</v>
+        <v>1.019258766634314</v>
       </c>
       <c r="L23">
-        <v>0.8397734781671465</v>
+        <v>0.8463074493207041</v>
       </c>
       <c r="M23">
-        <v>0.8060229804034802</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8135161953772386</v>
+      </c>
+      <c r="N23">
+        <v>0.8367711541124141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>0.7925388282248776</v>
+        <v>0.8002858756794603</v>
       </c>
       <c r="D24">
-        <v>1.005116161387505</v>
+        <v>1.006266548156297</v>
       </c>
       <c r="E24">
-        <v>0.8229633029458086</v>
+        <v>0.8296776395738655</v>
       </c>
       <c r="F24">
-        <v>0.788211401900909</v>
+        <v>0.7959376530175188</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02143666458201</v>
+        <v>1.022548909270475</v>
       </c>
       <c r="J24">
-        <v>0.8283651778920346</v>
+        <v>0.835584528239429</v>
       </c>
       <c r="K24">
-        <v>1.018126774240111</v>
+        <v>1.019258766634314</v>
       </c>
       <c r="L24">
-        <v>0.8397734781671465</v>
+        <v>0.8463074493207041</v>
       </c>
       <c r="M24">
-        <v>0.8060229804034802</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8135161953772386</v>
+      </c>
+      <c r="N24">
+        <v>0.8367711541124141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>0.7925388282248776</v>
+        <v>0.8002858756794603</v>
       </c>
       <c r="D25">
-        <v>1.005116161387505</v>
+        <v>1.006266548156297</v>
       </c>
       <c r="E25">
-        <v>0.8229633029458086</v>
+        <v>0.8296776395738655</v>
       </c>
       <c r="F25">
-        <v>0.788211401900909</v>
+        <v>0.7959376530175188</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02143666458201</v>
+        <v>1.022548909270475</v>
       </c>
       <c r="J25">
-        <v>0.8283651778920346</v>
+        <v>0.835584528239429</v>
       </c>
       <c r="K25">
-        <v>1.018126774240111</v>
+        <v>1.019258766634314</v>
       </c>
       <c r="L25">
-        <v>0.8397734781671465</v>
+        <v>0.8463074493207041</v>
       </c>
       <c r="M25">
-        <v>0.8060229804034802</v>
+        <v>0.8135161953772386</v>
+      </c>
+      <c r="N25">
+        <v>0.8367711541124141</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_17/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8748727246093773</v>
+        <v>0.9231138489759388</v>
       </c>
       <c r="D2">
-        <v>1.021942179921013</v>
+        <v>1.03652730329292</v>
       </c>
       <c r="E2">
-        <v>0.8948611880479607</v>
+        <v>0.9376303621282095</v>
       </c>
       <c r="F2">
-        <v>0.8731117124247262</v>
+        <v>1.018520418972967</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035011262222486</v>
+        <v>1.055318625118205</v>
       </c>
       <c r="J2">
-        <v>0.9015697556475905</v>
+        <v>0.9478654093005028</v>
       </c>
       <c r="K2">
-        <v>1.033104060135969</v>
+        <v>1.047500170982717</v>
       </c>
       <c r="L2">
-        <v>0.9080095354895121</v>
+        <v>0.9500328766385953</v>
       </c>
       <c r="M2">
-        <v>0.8866761624797642</v>
+        <v>1.029727626604574</v>
       </c>
       <c r="N2">
-        <v>0.9028500881121063</v>
+        <v>0.9492114869033914</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9022466710770087</v>
+        <v>0.9414395084133037</v>
       </c>
       <c r="D3">
-        <v>1.028156817685912</v>
+        <v>1.043917079688461</v>
       </c>
       <c r="E3">
-        <v>0.9188964469275701</v>
+        <v>0.9534280685519666</v>
       </c>
       <c r="F3">
-        <v>0.9014662254115524</v>
+        <v>1.028749176852024</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039696070711739</v>
+        <v>1.058904847627991</v>
       </c>
       <c r="J3">
-        <v>0.9258101220001453</v>
+        <v>0.9636647076799143</v>
       </c>
       <c r="K3">
-        <v>1.038441669533934</v>
+        <v>1.054017255753628</v>
       </c>
       <c r="L3">
-        <v>0.9306842208962127</v>
+        <v>0.9646936924931756</v>
       </c>
       <c r="M3">
-        <v>0.9135371218732927</v>
+        <v>1.03902696068933</v>
       </c>
       <c r="N3">
-        <v>0.9271248785652909</v>
+        <v>0.9650332220987067</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9179188566062396</v>
+        <v>0.9524724535230975</v>
       </c>
       <c r="D4">
-        <v>1.031815863746403</v>
+        <v>1.04841950547536</v>
       </c>
       <c r="E4">
-        <v>0.9326783983299454</v>
+        <v>0.9629497014349401</v>
       </c>
       <c r="F4">
-        <v>0.9177140302675501</v>
+        <v>1.034963797037795</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042387995440791</v>
+        <v>1.061064571568746</v>
       </c>
       <c r="J4">
-        <v>0.9396838109262794</v>
+        <v>0.9731753351945363</v>
       </c>
       <c r="K4">
-        <v>1.041544884418082</v>
+        <v>1.057966666286033</v>
       </c>
       <c r="L4">
-        <v>0.9436635063252884</v>
+        <v>0.973516861972042</v>
       </c>
       <c r="M4">
-        <v>0.9289186995057167</v>
+        <v>1.044657787207417</v>
       </c>
       <c r="N4">
-        <v>0.9410182697210344</v>
+        <v>0.9745573557952835</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.050000000000001</v>
       </c>
       <c r="C5">
-        <v>0.9241238392989639</v>
+        <v>0.9569397733135986</v>
       </c>
       <c r="D5">
-        <v>1.033283781843296</v>
+        <v>1.050252996963473</v>
       </c>
       <c r="E5">
-        <v>0.9381388007932954</v>
+        <v>0.966807076491819</v>
       </c>
       <c r="F5">
-        <v>0.9241504304913268</v>
+        <v>1.037491141534222</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043453925205249</v>
+        <v>1.061938155658763</v>
       </c>
       <c r="J5">
-        <v>0.9451748644430622</v>
+        <v>0.9770255119442495</v>
       </c>
       <c r="K5">
-        <v>1.042781476231035</v>
+        <v>1.059570145405666</v>
       </c>
       <c r="L5">
-        <v>0.9488009084942602</v>
+        <v>0.9770881970140312</v>
       </c>
       <c r="M5">
-        <v>0.935009294574856</v>
+        <v>1.046943396546972</v>
       </c>
       <c r="N5">
-        <v>0.9465171211636437</v>
+        <v>0.9784130002376026</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9251454990045057</v>
+        <v>0.9576804924956679</v>
       </c>
       <c r="D6">
-        <v>1.033526490825672</v>
+        <v>1.050557557967998</v>
       </c>
       <c r="E6">
-        <v>0.9390380597147958</v>
+        <v>0.9674467654260488</v>
       </c>
       <c r="F6">
-        <v>0.9252104027022319</v>
+        <v>1.037910779535046</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043629387650683</v>
+        <v>1.062082922697508</v>
       </c>
       <c r="J6">
-        <v>0.9460788470239226</v>
+        <v>0.9776638489577679</v>
       </c>
       <c r="K6">
-        <v>1.042985471595209</v>
+        <v>1.059836223222685</v>
       </c>
       <c r="L6">
-        <v>0.9496466890559467</v>
+        <v>0.977680271347099</v>
       </c>
       <c r="M6">
-        <v>0.9360121580674482</v>
+        <v>1.047322649269296</v>
       </c>
       <c r="N6">
-        <v>0.947422387503457</v>
+        <v>0.9790522437628986</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9180031665479054</v>
+        <v>0.9525327871263329</v>
       </c>
       <c r="D7">
-        <v>1.031835737445293</v>
+        <v>1.048444229060821</v>
       </c>
       <c r="E7">
-        <v>0.9327525774049535</v>
+        <v>0.9630017900864783</v>
       </c>
       <c r="F7">
-        <v>0.9178014703633596</v>
+        <v>1.034997889364306</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042402480655386</v>
+        <v>1.061076374674971</v>
       </c>
       <c r="J7">
-        <v>0.9397584287162836</v>
+        <v>0.9732273374175407</v>
       </c>
       <c r="K7">
-        <v>1.041561658396332</v>
+        <v>1.057988307089385</v>
       </c>
       <c r="L7">
-        <v>0.9437333170368114</v>
+        <v>0.9735651002109468</v>
       </c>
       <c r="M7">
-        <v>0.9290014525944312</v>
+        <v>1.044688635568144</v>
       </c>
       <c r="N7">
-        <v>0.9410929934768593</v>
+        <v>0.9746094318674098</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8846255237990996</v>
+        <v>0.9294960870387952</v>
       </c>
       <c r="D8">
-        <v>1.024129716885487</v>
+        <v>1.03908764403866</v>
       </c>
       <c r="E8">
-        <v>0.903418663333116</v>
+        <v>0.9431294850727177</v>
       </c>
       <c r="F8">
-        <v>0.883210771912592</v>
+        <v>1.022068729495823</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036676441526364</v>
+        <v>1.056566709016985</v>
       </c>
       <c r="J8">
-        <v>0.9102064718614276</v>
+        <v>0.9533677779308377</v>
       </c>
       <c r="K8">
-        <v>1.034992462162321</v>
+        <v>1.049762951824625</v>
       </c>
       <c r="L8">
-        <v>0.9160879723562931</v>
+        <v>0.9551391908829703</v>
       </c>
       <c r="M8">
-        <v>0.8962454467344116</v>
+        <v>1.032957838433988</v>
       </c>
       <c r="N8">
-        <v>0.9114990694536124</v>
+        <v>0.9547216695283121</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8002858756794603</v>
+        <v>0.8808907496905615</v>
       </c>
       <c r="D9">
-        <v>1.006266548156297</v>
+        <v>1.019991930728176</v>
       </c>
       <c r="E9">
-        <v>0.8296776395738655</v>
+        <v>0.9013374012029931</v>
       </c>
       <c r="F9">
-        <v>0.7959376530175188</v>
+        <v>0.995473708504325</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.022548909270475</v>
+        <v>1.047130214779596</v>
       </c>
       <c r="J9">
-        <v>0.835584528239429</v>
+        <v>0.9114851975319258</v>
       </c>
       <c r="K9">
-        <v>1.019258766634314</v>
+        <v>1.032768771133297</v>
       </c>
       <c r="L9">
-        <v>0.8463074493207041</v>
+        <v>0.9162634807203047</v>
       </c>
       <c r="M9">
-        <v>0.8135161953772386</v>
+        <v>1.008640650993659</v>
       </c>
       <c r="N9">
-        <v>0.8367711541124141</v>
+        <v>0.9127796110612346</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8002858756794603</v>
+        <v>0.8392075325885993</v>
       </c>
       <c r="D10">
-        <v>1.006266548156297</v>
+        <v>1.004457716641688</v>
       </c>
       <c r="E10">
-        <v>0.8296776395738655</v>
+        <v>0.8656968661413728</v>
       </c>
       <c r="F10">
-        <v>0.7959376530175188</v>
+        <v>0.97356733593942</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.022548909270475</v>
+        <v>1.039258211190346</v>
       </c>
       <c r="J10">
-        <v>0.835584528239429</v>
+        <v>0.8756572151502875</v>
       </c>
       <c r="K10">
-        <v>1.019258766634314</v>
+        <v>1.018746949394182</v>
       </c>
       <c r="L10">
-        <v>0.8463074493207041</v>
+        <v>0.883003514891324</v>
       </c>
       <c r="M10">
-        <v>0.8135161953772386</v>
+        <v>0.9884308237265549</v>
       </c>
       <c r="N10">
-        <v>0.8367711541124141</v>
+        <v>0.8769007488350873</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8002858756794603</v>
+        <v>0.8171013152045004</v>
       </c>
       <c r="D11">
-        <v>1.006266548156297</v>
+        <v>0.9965811677917655</v>
       </c>
       <c r="E11">
-        <v>0.8296776395738655</v>
+        <v>0.846891095555952</v>
       </c>
       <c r="F11">
-        <v>0.7959376530175188</v>
+        <v>0.9623416299923115</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022548909270475</v>
+        <v>1.03520625233885</v>
       </c>
       <c r="J11">
-        <v>0.835584528239429</v>
+        <v>0.8567135991628214</v>
       </c>
       <c r="K11">
-        <v>1.019258766634314</v>
+        <v>1.01156784757289</v>
       </c>
       <c r="L11">
-        <v>0.8463074493207041</v>
+        <v>0.8654213061136637</v>
       </c>
       <c r="M11">
-        <v>0.8135161953772386</v>
+        <v>0.9780104742634372</v>
       </c>
       <c r="N11">
-        <v>0.8367711541124141</v>
+        <v>0.8579302307400557</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8002858756794603</v>
+        <v>0.8079370850501587</v>
       </c>
       <c r="D12">
-        <v>1.006266548156297</v>
+        <v>0.9933949105333066</v>
       </c>
       <c r="E12">
-        <v>0.8296776395738655</v>
+        <v>0.8391176021402426</v>
       </c>
       <c r="F12">
-        <v>0.7959376530175188</v>
+        <v>0.9577743592226006</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022548909270475</v>
+        <v>1.033555886328994</v>
       </c>
       <c r="J12">
-        <v>0.835584528239429</v>
+        <v>0.8488751418605905</v>
       </c>
       <c r="K12">
-        <v>1.019258766634314</v>
+        <v>1.008649757191043</v>
       </c>
       <c r="L12">
-        <v>0.8463074493207041</v>
+        <v>0.858147626843492</v>
       </c>
       <c r="M12">
-        <v>0.8135161953772386</v>
+        <v>0.9737578545126855</v>
       </c>
       <c r="N12">
-        <v>0.8367711541124141</v>
+        <v>0.8500806419293724</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8002858756794603</v>
+        <v>0.8099551913032601</v>
       </c>
       <c r="D13">
-        <v>1.006266548156297</v>
+        <v>0.9940924945783468</v>
       </c>
       <c r="E13">
-        <v>0.8296776395738655</v>
+        <v>0.8408282469020353</v>
       </c>
       <c r="F13">
-        <v>0.7959376530175188</v>
+        <v>0.9587756645745898</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022548909270475</v>
+        <v>1.033917762606432</v>
       </c>
       <c r="J13">
-        <v>0.835584528239429</v>
+        <v>0.8506004904750328</v>
       </c>
       <c r="K13">
-        <v>1.019258766634314</v>
+        <v>1.009289337391975</v>
       </c>
       <c r="L13">
-        <v>0.8463074493207041</v>
+        <v>0.8597485714210429</v>
       </c>
       <c r="M13">
-        <v>0.8135161953772386</v>
+        <v>0.9746908388006346</v>
       </c>
       <c r="N13">
-        <v>0.8367711541124141</v>
+        <v>0.8518084407367473</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8002858756794603</v>
+        <v>0.8163663916131479</v>
       </c>
       <c r="D14">
-        <v>1.006266548156297</v>
+        <v>0.9963239037580025</v>
       </c>
       <c r="E14">
-        <v>0.8296776395738655</v>
+        <v>0.846267192907265</v>
       </c>
       <c r="F14">
-        <v>0.7959376530175188</v>
+        <v>0.961973446928796</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022548909270475</v>
+        <v>1.03507323883698</v>
       </c>
       <c r="J14">
-        <v>0.835584528239429</v>
+        <v>0.8560846570956757</v>
       </c>
       <c r="K14">
-        <v>1.019258766634314</v>
+        <v>1.01133254081287</v>
       </c>
       <c r="L14">
-        <v>0.8463074493207041</v>
+        <v>0.8648376439995239</v>
       </c>
       <c r="M14">
-        <v>0.8135161953772386</v>
+        <v>0.9776679408861911</v>
       </c>
       <c r="N14">
-        <v>0.8367711541124141</v>
+        <v>0.8573003955030343</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8002858756794603</v>
+        <v>0.8201747085960379</v>
       </c>
       <c r="D15">
-        <v>1.006266548156297</v>
+        <v>0.9976602839207678</v>
       </c>
       <c r="E15">
-        <v>0.8296776395738655</v>
+        <v>0.8495011467412764</v>
       </c>
       <c r="F15">
-        <v>0.7959376530175188</v>
+        <v>0.9638849106816365</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022548909270475</v>
+        <v>1.035763729619021</v>
       </c>
       <c r="J15">
-        <v>0.835584528239429</v>
+        <v>0.8593444046545381</v>
       </c>
       <c r="K15">
-        <v>1.019258766634314</v>
+        <v>1.012554285325805</v>
       </c>
       <c r="L15">
-        <v>0.8463074493207041</v>
+        <v>0.8678627738405061</v>
       </c>
       <c r="M15">
-        <v>0.8135161953772386</v>
+        <v>0.9794457045715513</v>
       </c>
       <c r="N15">
-        <v>0.8367711541124141</v>
+        <v>0.8605647722773284</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8002858756794603</v>
+        <v>0.8405659577847382</v>
       </c>
       <c r="D16">
-        <v>1.006266548156297</v>
+        <v>1.004950254634769</v>
       </c>
       <c r="E16">
-        <v>0.8296776395738655</v>
+        <v>0.8668548262392701</v>
       </c>
       <c r="F16">
-        <v>0.7959376530175188</v>
+        <v>0.9742664367979187</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.022548909270475</v>
+        <v>1.03951026514928</v>
       </c>
       <c r="J16">
-        <v>0.835584528239429</v>
+        <v>0.8768227822833816</v>
       </c>
       <c r="K16">
-        <v>1.019258766634314</v>
+        <v>1.019194285438525</v>
       </c>
       <c r="L16">
-        <v>0.8463074493207041</v>
+        <v>0.8840854421319753</v>
       </c>
       <c r="M16">
-        <v>0.8135161953772386</v>
+        <v>0.9890783037037111</v>
       </c>
       <c r="N16">
-        <v>0.8367711541124141</v>
+        <v>0.8780679712072027</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8002858756794603</v>
+        <v>0.8521035065653472</v>
       </c>
       <c r="D17">
-        <v>1.006266548156297</v>
+        <v>1.009171968009168</v>
       </c>
       <c r="E17">
-        <v>0.8296776395738655</v>
+        <v>0.8766999583244317</v>
       </c>
       <c r="F17">
-        <v>0.7959376530175188</v>
+        <v>0.9802457820436793</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022548909270475</v>
+        <v>1.04166422785493</v>
       </c>
       <c r="J17">
-        <v>0.835584528239429</v>
+        <v>0.8867284921082765</v>
       </c>
       <c r="K17">
-        <v>1.019258766634314</v>
+        <v>1.023021068135605</v>
       </c>
       <c r="L17">
-        <v>0.8463074493207041</v>
+        <v>0.8932807324530446</v>
       </c>
       <c r="M17">
-        <v>0.8135161953772386</v>
+        <v>0.9946092725497351</v>
       </c>
       <c r="N17">
-        <v>0.8367711541124141</v>
+        <v>0.8879877482762502</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8002858756794603</v>
+        <v>0.8584723230329439</v>
       </c>
       <c r="D18">
-        <v>1.006266548156297</v>
+        <v>1.011531243556004</v>
       </c>
       <c r="E18">
-        <v>0.8296776395738655</v>
+        <v>0.8821420577168035</v>
       </c>
       <c r="F18">
-        <v>0.7959376530175188</v>
+        <v>0.9835776324578468</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.022548909270475</v>
+        <v>1.042862845704811</v>
       </c>
       <c r="J18">
-        <v>0.835584528239429</v>
+        <v>0.8922009283314023</v>
       </c>
       <c r="K18">
-        <v>1.019258766634314</v>
+        <v>1.025153857650962</v>
       </c>
       <c r="L18">
-        <v>0.8463074493207041</v>
+        <v>0.8983609314262464</v>
       </c>
       <c r="M18">
-        <v>0.8135161953772386</v>
+        <v>0.9976859891484051</v>
       </c>
       <c r="N18">
-        <v>0.8367711541124141</v>
+        <v>0.89346795598651</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8002858756794603</v>
+        <v>0.860589244188495</v>
       </c>
       <c r="D19">
-        <v>1.006266548156297</v>
+        <v>1.012319885487247</v>
       </c>
       <c r="E19">
-        <v>0.8296776395738655</v>
+        <v>0.8839520824359689</v>
       </c>
       <c r="F19">
-        <v>0.7959376530175188</v>
+        <v>0.9846898971897002</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.022548909270475</v>
+        <v>1.043262683562469</v>
       </c>
       <c r="J19">
-        <v>0.835584528239429</v>
+        <v>0.8940205448094629</v>
       </c>
       <c r="K19">
-        <v>1.019258766634314</v>
+        <v>1.025865875478284</v>
       </c>
       <c r="L19">
-        <v>0.8463074493207041</v>
+        <v>0.9000501520056599</v>
       </c>
       <c r="M19">
-        <v>0.8135161953772386</v>
+        <v>0.9987122473974355</v>
       </c>
       <c r="N19">
-        <v>0.8367711541124141</v>
+        <v>0.8952901565286823</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8002858756794603</v>
+        <v>0.8509046134559692</v>
       </c>
       <c r="D20">
-        <v>1.006266548156297</v>
+        <v>1.008730117986094</v>
       </c>
       <c r="E20">
-        <v>0.8296776395738655</v>
+        <v>0.8756760988860628</v>
       </c>
       <c r="F20">
-        <v>0.7959376530175188</v>
+        <v>0.9796210319984631</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.022548909270475</v>
+        <v>1.041439338367747</v>
       </c>
       <c r="J20">
-        <v>0.835584528239429</v>
+        <v>0.8856986744125531</v>
       </c>
       <c r="K20">
-        <v>1.019258766634314</v>
+        <v>1.022621176361304</v>
       </c>
       <c r="L20">
-        <v>0.8463074493207041</v>
+        <v>0.8923247426501566</v>
       </c>
       <c r="M20">
-        <v>0.8135161953772386</v>
+        <v>0.9940319429021131</v>
       </c>
       <c r="N20">
-        <v>0.8367711541124141</v>
+        <v>0.8869564681212767</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8002858756794603</v>
+        <v>0.8145091448843848</v>
       </c>
       <c r="D21">
-        <v>1.006266548156297</v>
+        <v>0.9956751110776468</v>
       </c>
       <c r="E21">
-        <v>0.8296776395738655</v>
+        <v>0.8446909008582546</v>
       </c>
       <c r="F21">
-        <v>0.7959376530175188</v>
+        <v>0.961044476748224</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022548909270475</v>
+        <v>1.034737605672591</v>
       </c>
       <c r="J21">
-        <v>0.835584528239429</v>
+        <v>0.8544954978022692</v>
       </c>
       <c r="K21">
-        <v>1.019258766634314</v>
+        <v>1.010738885680897</v>
       </c>
       <c r="L21">
-        <v>0.8463074493207041</v>
+        <v>0.8633629217151435</v>
       </c>
       <c r="M21">
-        <v>0.8135161953772386</v>
+        <v>0.976803467512973</v>
       </c>
       <c r="N21">
-        <v>0.8367711541124141</v>
+        <v>0.8557089794211518</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8002858756794603</v>
+        <v>0.7855943742302518</v>
       </c>
       <c r="D22">
-        <v>1.006266548156297</v>
+        <v>0.9858298554234928</v>
       </c>
       <c r="E22">
-        <v>0.8296776395738655</v>
+        <v>0.8202269635667149</v>
       </c>
       <c r="F22">
-        <v>0.7959376530175188</v>
+        <v>0.9468630098087308</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022548909270475</v>
+        <v>1.02961144998117</v>
       </c>
       <c r="J22">
-        <v>0.835584528239429</v>
+        <v>0.8298064013198146</v>
       </c>
       <c r="K22">
-        <v>1.019258766634314</v>
+        <v>1.001687350935196</v>
       </c>
       <c r="L22">
-        <v>0.8463074493207041</v>
+        <v>0.8404578281101752</v>
       </c>
       <c r="M22">
-        <v>0.8135161953772386</v>
+        <v>0.963566102524275</v>
       </c>
       <c r="N22">
-        <v>0.8367711541124141</v>
+        <v>0.830984821589813</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8002858756794603</v>
+        <v>0.801724431708562</v>
       </c>
       <c r="D23">
-        <v>1.006266548156297</v>
+        <v>0.991262079676264</v>
       </c>
       <c r="E23">
-        <v>0.8296776395738655</v>
+        <v>0.8338558376156776</v>
       </c>
       <c r="F23">
-        <v>0.7959376530175188</v>
+        <v>0.9547080042747561</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022548909270475</v>
+        <v>1.03244754064995</v>
       </c>
       <c r="J23">
-        <v>0.835584528239429</v>
+        <v>0.8435666896854132</v>
       </c>
       <c r="K23">
-        <v>1.019258766634314</v>
+        <v>1.006691769913772</v>
       </c>
       <c r="L23">
-        <v>0.8463074493207041</v>
+        <v>0.8532222787970335</v>
       </c>
       <c r="M23">
-        <v>0.8135161953772386</v>
+        <v>0.970898375965826</v>
       </c>
       <c r="N23">
-        <v>0.8367711541124141</v>
+        <v>0.8447646511432181</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8002858756794603</v>
+        <v>0.8514474358713492</v>
       </c>
       <c r="D24">
-        <v>1.006266548156297</v>
+        <v>1.008930084470092</v>
       </c>
       <c r="E24">
-        <v>0.8296776395738655</v>
+        <v>0.8761396480814153</v>
       </c>
       <c r="F24">
-        <v>0.7959376530175188</v>
+        <v>0.9799038027957885</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.022548909270475</v>
+        <v>1.041541131741357</v>
       </c>
       <c r="J24">
-        <v>0.835584528239429</v>
+        <v>0.8861649310195254</v>
       </c>
       <c r="K24">
-        <v>1.019258766634314</v>
+        <v>1.022802171927944</v>
       </c>
       <c r="L24">
-        <v>0.8463074493207041</v>
+        <v>0.8927575725056024</v>
       </c>
       <c r="M24">
-        <v>0.8135161953772386</v>
+        <v>0.9942932670000402</v>
       </c>
       <c r="N24">
-        <v>0.8367711541124141</v>
+        <v>0.8874233868661114</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>0.8002858756794603</v>
+        <v>0.8947022784739844</v>
       </c>
       <c r="D25">
-        <v>1.006266548156297</v>
+        <v>1.025318996146855</v>
       </c>
       <c r="E25">
-        <v>0.8296776395738655</v>
+        <v>0.9131907279378304</v>
       </c>
       <c r="F25">
-        <v>0.7959376530175188</v>
+        <v>1.002925411251555</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.022548909270475</v>
+        <v>1.049791107139193</v>
       </c>
       <c r="J25">
-        <v>0.835584528239429</v>
+        <v>0.923379042171049</v>
       </c>
       <c r="K25">
-        <v>1.019258766634314</v>
+        <v>1.037536582238246</v>
       </c>
       <c r="L25">
-        <v>0.8463074493207041</v>
+        <v>0.9273048183693338</v>
       </c>
       <c r="M25">
-        <v>0.8135161953772386</v>
+        <v>1.01547848309032</v>
       </c>
       <c r="N25">
-        <v>0.8367711541124141</v>
+        <v>0.9246903463239882</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_17/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9231138489759388</v>
+        <v>1.011457588992804</v>
       </c>
       <c r="D2">
-        <v>1.03652730329292</v>
+        <v>1.044356239750494</v>
       </c>
       <c r="E2">
-        <v>0.9376303621282095</v>
+        <v>1.024923998171423</v>
       </c>
       <c r="F2">
-        <v>1.018520418972967</v>
+        <v>1.032596296195898</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055318625118205</v>
+        <v>1.056804736523621</v>
       </c>
       <c r="J2">
-        <v>0.9478654093005028</v>
+        <v>1.033300923908492</v>
       </c>
       <c r="K2">
-        <v>1.047500170982717</v>
+        <v>1.055230365064134</v>
       </c>
       <c r="L2">
-        <v>0.9500328766385953</v>
+        <v>1.03604668807603</v>
       </c>
       <c r="M2">
-        <v>1.029727626604574</v>
+        <v>1.043619449581277</v>
       </c>
       <c r="N2">
-        <v>0.9492114869033914</v>
+        <v>1.034768329741715</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9414395084133037</v>
+        <v>1.015934548412701</v>
       </c>
       <c r="D3">
-        <v>1.043917079688461</v>
+        <v>1.04723475756186</v>
       </c>
       <c r="E3">
-        <v>0.9534280685519666</v>
+        <v>1.028708138617928</v>
       </c>
       <c r="F3">
-        <v>1.028749176852024</v>
+        <v>1.036835595935257</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058904847627991</v>
+        <v>1.058284342389614</v>
       </c>
       <c r="J3">
-        <v>0.9636647076799143</v>
+        <v>1.036000050064179</v>
       </c>
       <c r="K3">
-        <v>1.054017255753628</v>
+        <v>1.057296931675939</v>
       </c>
       <c r="L3">
-        <v>0.9646936924931756</v>
+        <v>1.03898641179677</v>
       </c>
       <c r="M3">
-        <v>1.03902696068933</v>
+        <v>1.047017892221513</v>
       </c>
       <c r="N3">
-        <v>0.9650332220987067</v>
+        <v>1.037471288966137</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9524724535230975</v>
+        <v>1.018772891669731</v>
       </c>
       <c r="D4">
-        <v>1.04841950547536</v>
+        <v>1.049060080433295</v>
       </c>
       <c r="E4">
-        <v>0.9629497014349401</v>
+        <v>1.031112982460696</v>
       </c>
       <c r="F4">
-        <v>1.034963797037795</v>
+        <v>1.039529382093487</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.061064571568746</v>
+        <v>1.059211319701039</v>
       </c>
       <c r="J4">
-        <v>0.9731753351945363</v>
+        <v>1.037708277425656</v>
       </c>
       <c r="K4">
-        <v>1.057966666286033</v>
+        <v>1.05860036635604</v>
       </c>
       <c r="L4">
-        <v>0.973516861972042</v>
+        <v>1.040849860817923</v>
       </c>
       <c r="M4">
-        <v>1.044657787207417</v>
+        <v>1.049173029108485</v>
       </c>
       <c r="N4">
-        <v>0.9745573557952835</v>
+        <v>1.039181942206403</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.050000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9569397733135986</v>
+        <v>1.01995260366558</v>
       </c>
       <c r="D5">
-        <v>1.050252996963473</v>
+        <v>1.049818755175478</v>
       </c>
       <c r="E5">
-        <v>0.966807076491819</v>
+        <v>1.032113855653027</v>
       </c>
       <c r="F5">
-        <v>1.037491141534222</v>
+        <v>1.040650443319584</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061938155658763</v>
+        <v>1.059593895766373</v>
       </c>
       <c r="J5">
-        <v>0.9770255119442495</v>
+        <v>1.038417525321265</v>
       </c>
       <c r="K5">
-        <v>1.059570145405666</v>
+        <v>1.059140434873808</v>
       </c>
       <c r="L5">
-        <v>0.9770881970140312</v>
+        <v>1.041624265988656</v>
       </c>
       <c r="M5">
-        <v>1.046943396546972</v>
+        <v>1.050068873742227</v>
       </c>
       <c r="N5">
-        <v>0.9784130002376026</v>
+        <v>1.039892197315376</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9576804924956679</v>
+        <v>1.020149903017738</v>
       </c>
       <c r="D6">
-        <v>1.050557557967998</v>
+        <v>1.049945636896465</v>
       </c>
       <c r="E6">
-        <v>0.9674467654260488</v>
+        <v>1.032281322915924</v>
       </c>
       <c r="F6">
-        <v>1.037910779535046</v>
+        <v>1.040838016883409</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062082922697508</v>
+        <v>1.059657718622187</v>
       </c>
       <c r="J6">
-        <v>0.9776638489577679</v>
+        <v>1.03853609755272</v>
       </c>
       <c r="K6">
-        <v>1.059836223222685</v>
+        <v>1.059230657108888</v>
       </c>
       <c r="L6">
-        <v>0.977680271347099</v>
+        <v>1.041753773026667</v>
       </c>
       <c r="M6">
-        <v>1.047322649269296</v>
+        <v>1.050218702658583</v>
       </c>
       <c r="N6">
-        <v>0.9790522437628986</v>
+        <v>1.040010937933</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9525327871263329</v>
+        <v>1.01878870756238</v>
       </c>
       <c r="D7">
-        <v>1.048444229060821</v>
+        <v>1.049070251732064</v>
       </c>
       <c r="E7">
-        <v>0.9630017900864783</v>
+        <v>1.031126395502034</v>
       </c>
       <c r="F7">
-        <v>1.034997889364306</v>
+        <v>1.039544406069189</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.061076374674971</v>
+        <v>1.05921645949284</v>
       </c>
       <c r="J7">
-        <v>0.9732273374175407</v>
+        <v>1.037717789010563</v>
       </c>
       <c r="K7">
-        <v>1.057988307089385</v>
+        <v>1.058607613556269</v>
       </c>
       <c r="L7">
-        <v>0.9735651002109468</v>
+        <v>1.040860243406032</v>
       </c>
       <c r="M7">
-        <v>1.044688635568144</v>
+        <v>1.049185038981754</v>
       </c>
       <c r="N7">
-        <v>0.9746094318674098</v>
+        <v>1.039191467298852</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9294960870387952</v>
+        <v>1.01298302366128</v>
       </c>
       <c r="D8">
-        <v>1.03908764403866</v>
+        <v>1.045336908403504</v>
       </c>
       <c r="E8">
-        <v>0.9431294850727177</v>
+        <v>1.026212140678992</v>
       </c>
       <c r="F8">
-        <v>1.022068729495823</v>
+        <v>1.034039448390457</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056566709016985</v>
+        <v>1.057311174578204</v>
       </c>
       <c r="J8">
-        <v>0.9533677779308377</v>
+        <v>1.034221204043837</v>
       </c>
       <c r="K8">
-        <v>1.049762951824625</v>
+        <v>1.055935880826149</v>
       </c>
       <c r="L8">
-        <v>0.9551391908829703</v>
+        <v>1.037048382388664</v>
       </c>
       <c r="M8">
-        <v>1.032957838433988</v>
+        <v>1.044777259624082</v>
       </c>
       <c r="N8">
-        <v>0.9547216695283121</v>
+        <v>1.035689916780409</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8808907496905615</v>
+        <v>1.002280988827123</v>
       </c>
       <c r="D9">
-        <v>1.019991930728176</v>
+        <v>1.038461860961498</v>
       </c>
       <c r="E9">
-        <v>0.9013374012029931</v>
+        <v>1.017200930648905</v>
       </c>
       <c r="F9">
-        <v>0.995473708504325</v>
+        <v>1.023942186664976</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047130214779596</v>
+        <v>1.053713223942551</v>
       </c>
       <c r="J9">
-        <v>0.9114851975319258</v>
+        <v>1.027753455828549</v>
       </c>
       <c r="K9">
-        <v>1.032768771133297</v>
+        <v>1.050960287824993</v>
       </c>
       <c r="L9">
-        <v>0.9162634807203047</v>
+        <v>1.03002096571498</v>
       </c>
       <c r="M9">
-        <v>1.008640650993659</v>
+        <v>1.036658404624008</v>
       </c>
       <c r="N9">
-        <v>0.9127796110612346</v>
+        <v>1.029212983620795</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8392075325885993</v>
+        <v>0.9947945468056636</v>
       </c>
       <c r="D10">
-        <v>1.004457716641688</v>
+        <v>1.033662957694877</v>
       </c>
       <c r="E10">
-        <v>0.8656968661413728</v>
+        <v>1.010932382439791</v>
       </c>
       <c r="F10">
-        <v>0.97356733593942</v>
+        <v>1.016915602376583</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039258211190346</v>
+        <v>1.05114157486887</v>
       </c>
       <c r="J10">
-        <v>0.8756572151502875</v>
+        <v>1.023216226934651</v>
       </c>
       <c r="K10">
-        <v>1.018746949394182</v>
+        <v>1.047449901299001</v>
       </c>
       <c r="L10">
-        <v>0.883003514891324</v>
+        <v>1.025107015494254</v>
       </c>
       <c r="M10">
-        <v>0.9884308237265549</v>
+        <v>1.030986012471024</v>
       </c>
       <c r="N10">
-        <v>0.8769007488350873</v>
+        <v>1.02466931134144</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8171013152045004</v>
+        <v>0.9914610181321943</v>
       </c>
       <c r="D11">
-        <v>0.9965811677917655</v>
+        <v>1.031529953092002</v>
       </c>
       <c r="E11">
-        <v>0.846891095555952</v>
+        <v>1.008150168474574</v>
       </c>
       <c r="F11">
-        <v>0.9623416299923115</v>
+        <v>1.013796206393149</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03520625233885</v>
+        <v>1.049984264231861</v>
       </c>
       <c r="J11">
-        <v>0.8567135991628214</v>
+        <v>1.021193394452497</v>
       </c>
       <c r="K11">
-        <v>1.01156784757289</v>
+        <v>1.045880788264478</v>
       </c>
       <c r="L11">
-        <v>0.8654213061136637</v>
+        <v>1.022920004064599</v>
       </c>
       <c r="M11">
-        <v>0.9780104742634372</v>
+        <v>1.028462553437808</v>
       </c>
       <c r="N11">
-        <v>0.8579302307400557</v>
+        <v>1.022643606205139</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8079370850501587</v>
+        <v>0.9902082256692363</v>
       </c>
       <c r="D12">
-        <v>0.9933949105333066</v>
+        <v>1.030729032794361</v>
       </c>
       <c r="E12">
-        <v>0.8391176021402426</v>
+        <v>1.007105985560004</v>
       </c>
       <c r="F12">
-        <v>0.9577743592226006</v>
+        <v>1.012625354042561</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033555886328994</v>
+        <v>1.049547561456605</v>
       </c>
       <c r="J12">
-        <v>0.8488751418605905</v>
+        <v>1.020432850982831</v>
       </c>
       <c r="K12">
-        <v>1.008649757191043</v>
+        <v>1.045290278618709</v>
       </c>
       <c r="L12">
-        <v>0.858147626843492</v>
+        <v>1.022098300729765</v>
       </c>
       <c r="M12">
-        <v>0.9737578545126855</v>
+        <v>1.027514604632268</v>
       </c>
       <c r="N12">
-        <v>0.8500806419293724</v>
+        <v>1.02188198267651</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8099551913032601</v>
+        <v>0.9904776262939</v>
       </c>
       <c r="D13">
-        <v>0.9940924945783468</v>
+        <v>1.030901229312914</v>
       </c>
       <c r="E13">
-        <v>0.8408282469020353</v>
+        <v>1.007330461717278</v>
       </c>
       <c r="F13">
-        <v>0.9587756645745898</v>
+        <v>1.012877067067544</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033917762606432</v>
+        <v>1.049641548783127</v>
       </c>
       <c r="J13">
-        <v>0.8506004904750328</v>
+        <v>1.020596412522761</v>
       </c>
       <c r="K13">
-        <v>1.009289337391975</v>
+        <v>1.045417297042414</v>
       </c>
       <c r="L13">
-        <v>0.8597485714210429</v>
+        <v>1.022274989551464</v>
       </c>
       <c r="M13">
-        <v>0.9746908388006346</v>
+        <v>1.027718432293963</v>
       </c>
       <c r="N13">
-        <v>0.8518084407367473</v>
+        <v>1.022045776492588</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8163663916131479</v>
+        <v>0.9913577638276317</v>
       </c>
       <c r="D14">
-        <v>0.9963239037580025</v>
+        <v>1.031463926912814</v>
       </c>
       <c r="E14">
-        <v>0.846267192907265</v>
+        <v>1.00806407845958</v>
       </c>
       <c r="F14">
-        <v>0.961973446928796</v>
+        <v>1.013699675399854</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03507323883698</v>
+        <v>1.049948307000728</v>
       </c>
       <c r="J14">
-        <v>0.8560846570956757</v>
+        <v>1.021130717431143</v>
       </c>
       <c r="K14">
-        <v>1.01133254081287</v>
+        <v>1.045832134821383</v>
       </c>
       <c r="L14">
-        <v>0.8648376439995239</v>
+        <v>1.022852275256417</v>
       </c>
       <c r="M14">
-        <v>0.9776679408861911</v>
+        <v>1.028384415524878</v>
       </c>
       <c r="N14">
-        <v>0.8573003955030343</v>
+        <v>1.022580840175226</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8201747085960379</v>
+        <v>0.9918980907324175</v>
       </c>
       <c r="D15">
-        <v>0.9976602839207678</v>
+        <v>1.031809469191224</v>
       </c>
       <c r="E15">
-        <v>0.8495011467412764</v>
+        <v>1.008514643243217</v>
       </c>
       <c r="F15">
-        <v>0.9638849106816365</v>
+        <v>1.01420487949981</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035763729619021</v>
+        <v>1.050136398571866</v>
       </c>
       <c r="J15">
-        <v>0.8593444046545381</v>
+        <v>1.021458691323567</v>
       </c>
       <c r="K15">
-        <v>1.012554285325805</v>
+        <v>1.046086704388462</v>
       </c>
       <c r="L15">
-        <v>0.8678627738405061</v>
+        <v>1.023206707100469</v>
       </c>
       <c r="M15">
-        <v>0.9794457045715513</v>
+        <v>1.028793325986278</v>
       </c>
       <c r="N15">
-        <v>0.8605647722773284</v>
+        <v>1.022909279828196</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8405659577847382</v>
+        <v>0.9950137822774689</v>
       </c>
       <c r="D16">
-        <v>1.004950254634769</v>
+        <v>1.033803328426367</v>
       </c>
       <c r="E16">
-        <v>0.8668548262392701</v>
+        <v>1.011115552744439</v>
       </c>
       <c r="F16">
-        <v>0.9742664367979187</v>
+        <v>1.017120955060561</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03951026514928</v>
+        <v>1.05121743861618</v>
       </c>
       <c r="J16">
-        <v>0.8768227822833816</v>
+        <v>1.023349213608852</v>
       </c>
       <c r="K16">
-        <v>1.019194285438525</v>
+        <v>1.047552979048811</v>
       </c>
       <c r="L16">
-        <v>0.8840854421319753</v>
+        <v>1.02525087443246</v>
       </c>
       <c r="M16">
-        <v>0.9890783037037111</v>
+        <v>1.031152025428541</v>
       </c>
       <c r="N16">
-        <v>0.8780679712072027</v>
+        <v>1.024802486871972</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8521035065653472</v>
+        <v>0.9969430541531974</v>
       </c>
       <c r="D17">
-        <v>1.009171968009168</v>
+        <v>1.035039040748277</v>
       </c>
       <c r="E17">
-        <v>0.8766999583244317</v>
+        <v>1.012728484784548</v>
       </c>
       <c r="F17">
-        <v>0.9802457820436793</v>
+        <v>1.018929131661455</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04166422785493</v>
+        <v>1.05188365671668</v>
       </c>
       <c r="J17">
-        <v>0.8867284921082765</v>
+        <v>1.024519215268705</v>
       </c>
       <c r="K17">
-        <v>1.023021068135605</v>
+        <v>1.048459388283048</v>
       </c>
       <c r="L17">
-        <v>0.8932807324530446</v>
+        <v>1.026516958516182</v>
       </c>
       <c r="M17">
-        <v>0.9946092725497351</v>
+        <v>1.032613209906242</v>
       </c>
       <c r="N17">
-        <v>0.8879877482762502</v>
+        <v>1.025974150068384</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8584723230329439</v>
+        <v>0.9980595585512806</v>
       </c>
       <c r="D18">
-        <v>1.011531243556004</v>
+        <v>1.035754524817777</v>
       </c>
       <c r="E18">
-        <v>0.8821420577168035</v>
+        <v>1.013662768915123</v>
       </c>
       <c r="F18">
-        <v>0.9835776324578468</v>
+        <v>1.019976441087797</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042862845704811</v>
+        <v>1.052268045100986</v>
       </c>
       <c r="J18">
-        <v>0.8922009283314023</v>
+        <v>1.025196074394358</v>
       </c>
       <c r="K18">
-        <v>1.025153857650962</v>
+        <v>1.048983365709045</v>
       </c>
       <c r="L18">
-        <v>0.8983609314262464</v>
+        <v>1.027249760243057</v>
       </c>
       <c r="M18">
-        <v>0.9976859891484051</v>
+        <v>1.033459039619298</v>
       </c>
       <c r="N18">
-        <v>0.89346795598651</v>
+        <v>1.026651970411632</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.860589244188495</v>
+        <v>0.9984387864036295</v>
       </c>
       <c r="D19">
-        <v>1.012319885487247</v>
+        <v>1.035997600267757</v>
       </c>
       <c r="E19">
-        <v>0.8839520824359689</v>
+        <v>1.013980247092488</v>
       </c>
       <c r="F19">
-        <v>0.9846898971897002</v>
+        <v>1.020332314877395</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043262683562469</v>
+        <v>1.052398405626884</v>
       </c>
       <c r="J19">
-        <v>0.8940205448094629</v>
+        <v>1.025425931526229</v>
       </c>
       <c r="K19">
-        <v>1.025865875478284</v>
+        <v>1.049161237258775</v>
       </c>
       <c r="L19">
-        <v>0.9000501520056599</v>
+        <v>1.027498675810454</v>
       </c>
       <c r="M19">
-        <v>0.9987122473974355</v>
+        <v>1.033746366016755</v>
       </c>
       <c r="N19">
-        <v>0.8952901565286823</v>
+        <v>1.026882153966994</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8509046134559692</v>
+        <v>0.9967369779217502</v>
       </c>
       <c r="D20">
-        <v>1.008730117986094</v>
+        <v>1.034907009777459</v>
       </c>
       <c r="E20">
-        <v>0.8756760988860628</v>
+        <v>1.012556109813415</v>
       </c>
       <c r="F20">
-        <v>0.9796210319984631</v>
+        <v>1.018735898063621</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041439338367747</v>
+        <v>1.051812614554517</v>
       </c>
       <c r="J20">
-        <v>0.8856986744125531</v>
+        <v>1.024394265673567</v>
       </c>
       <c r="K20">
-        <v>1.022621176361304</v>
+        <v>1.048362628996905</v>
       </c>
       <c r="L20">
-        <v>0.8923247426501566</v>
+        <v>1.026381710723</v>
       </c>
       <c r="M20">
-        <v>0.9940319429021131</v>
+        <v>1.032457109877515</v>
       </c>
       <c r="N20">
-        <v>0.8869564681212767</v>
+        <v>1.025849023030488</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8145091448843848</v>
+        <v>0.9910989939803256</v>
       </c>
       <c r="D21">
-        <v>0.9956751110776468</v>
+        <v>1.031298467636855</v>
       </c>
       <c r="E21">
-        <v>0.8446909008582546</v>
+        <v>1.007848347782987</v>
       </c>
       <c r="F21">
-        <v>0.961044476748224</v>
+        <v>1.013457778932415</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034737605672591</v>
+        <v>1.049858164879256</v>
       </c>
       <c r="J21">
-        <v>0.8544954978022692</v>
+        <v>1.020973634804712</v>
       </c>
       <c r="K21">
-        <v>1.010738885680897</v>
+        <v>1.045710189670167</v>
       </c>
       <c r="L21">
-        <v>0.8633629217151435</v>
+        <v>1.022682540876525</v>
       </c>
       <c r="M21">
-        <v>0.976803467512973</v>
+        <v>1.028188597653678</v>
       </c>
       <c r="N21">
-        <v>0.8557089794211518</v>
+        <v>1.022423534473447</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7855943742302518</v>
+        <v>0.9874694405404852</v>
       </c>
       <c r="D22">
-        <v>0.9858298554234928</v>
+        <v>1.028979524518306</v>
       </c>
       <c r="E22">
-        <v>0.8202269635667149</v>
+        <v>1.004825927833655</v>
       </c>
       <c r="F22">
-        <v>0.9468630098087308</v>
+        <v>1.010068463943311</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02961144998117</v>
+        <v>1.048589694701459</v>
       </c>
       <c r="J22">
-        <v>0.8298064013198146</v>
+        <v>1.018769637645022</v>
       </c>
       <c r="K22">
-        <v>1.001687350935196</v>
+        <v>1.043997951674499</v>
       </c>
       <c r="L22">
-        <v>0.8404578281101752</v>
+        <v>1.020302384560813</v>
       </c>
       <c r="M22">
-        <v>0.963566102524275</v>
+        <v>1.025443066970723</v>
       </c>
       <c r="N22">
-        <v>0.830984821589813</v>
+        <v>1.020216407384988</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.801724431708562</v>
+        <v>0.9894018391748616</v>
       </c>
       <c r="D23">
-        <v>0.991262079676264</v>
+        <v>1.030213715270941</v>
       </c>
       <c r="E23">
-        <v>0.8338558376156776</v>
+        <v>1.006434282330459</v>
       </c>
       <c r="F23">
-        <v>0.9547080042747561</v>
+        <v>1.011872130591036</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03244754064995</v>
+        <v>1.049265979272868</v>
       </c>
       <c r="J23">
-        <v>0.8435666896854132</v>
+        <v>1.019943223714198</v>
       </c>
       <c r="K23">
-        <v>1.006691769913772</v>
+        <v>1.044909967600278</v>
       </c>
       <c r="L23">
-        <v>0.8532222787970335</v>
+        <v>1.021569459819258</v>
       </c>
       <c r="M23">
-        <v>0.970898375965826</v>
+        <v>1.026904559435427</v>
       </c>
       <c r="N23">
-        <v>0.8447646511432181</v>
+        <v>1.021391660080995</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8514474358713492</v>
+        <v>0.9968301220609957</v>
       </c>
       <c r="D24">
-        <v>1.008930084470092</v>
+        <v>1.034966685199742</v>
       </c>
       <c r="E24">
-        <v>0.8761396480814153</v>
+        <v>1.012634018727194</v>
       </c>
       <c r="F24">
-        <v>0.9799038027957885</v>
+        <v>1.01882323473715</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041541131741357</v>
+        <v>1.051844728427219</v>
       </c>
       <c r="J24">
-        <v>0.8861649310195254</v>
+        <v>1.024450742239084</v>
       </c>
       <c r="K24">
-        <v>1.022802171927944</v>
+        <v>1.048406364905051</v>
       </c>
       <c r="L24">
-        <v>0.8927575725056024</v>
+        <v>1.026442840910746</v>
       </c>
       <c r="M24">
-        <v>0.9942932670000402</v>
+        <v>1.032527664670046</v>
       </c>
       <c r="N24">
-        <v>0.8874233868661114</v>
+        <v>1.025905579799206</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8947022784739844</v>
+        <v>1.00510704448005</v>
       </c>
       <c r="D25">
-        <v>1.025318996146855</v>
+        <v>1.040275965327405</v>
       </c>
       <c r="E25">
-        <v>0.9131907279378304</v>
+        <v>1.019574661229836</v>
       </c>
       <c r="F25">
-        <v>1.002925411251555</v>
+        <v>1.026602399719519</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049791107139193</v>
+        <v>1.054673006632036</v>
       </c>
       <c r="J25">
-        <v>0.923379042171049</v>
+        <v>1.029463750149635</v>
       </c>
       <c r="K25">
-        <v>1.037536582238246</v>
+        <v>1.052279642067335</v>
       </c>
       <c r="L25">
-        <v>0.9273048183693338</v>
+        <v>1.031876519590292</v>
       </c>
       <c r="M25">
-        <v>1.01547848309032</v>
+        <v>1.038801321073918</v>
       </c>
       <c r="N25">
-        <v>0.9246903463239882</v>
+        <v>1.03092570675599</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_17/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.011457588992804</v>
+        <v>1.039051041329276</v>
       </c>
       <c r="D2">
-        <v>1.044356239750494</v>
+        <v>1.044324510941993</v>
       </c>
       <c r="E2">
-        <v>1.024923998171423</v>
+        <v>1.047167603258968</v>
       </c>
       <c r="F2">
-        <v>1.032596296195898</v>
+        <v>1.056942686806193</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056804736523621</v>
+        <v>1.043462659208072</v>
       </c>
       <c r="J2">
-        <v>1.033300923908492</v>
+        <v>1.044145154734633</v>
       </c>
       <c r="K2">
-        <v>1.055230365064134</v>
+        <v>1.047095880588599</v>
       </c>
       <c r="L2">
-        <v>1.03604668807603</v>
+        <v>1.049930997312892</v>
       </c>
       <c r="M2">
-        <v>1.043619449581277</v>
+        <v>1.059679013980852</v>
       </c>
       <c r="N2">
-        <v>1.034768329741715</v>
+        <v>1.04562796061948</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.015934548412701</v>
+        <v>1.039995381693004</v>
       </c>
       <c r="D3">
-        <v>1.04723475756186</v>
+        <v>1.044911987269564</v>
       </c>
       <c r="E3">
-        <v>1.028708138617928</v>
+        <v>1.048017288673664</v>
       </c>
       <c r="F3">
-        <v>1.036835595935257</v>
+        <v>1.057899958650401</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058284342389614</v>
+        <v>1.043701229512901</v>
       </c>
       <c r="J3">
-        <v>1.036000050064179</v>
+        <v>1.044734566968081</v>
       </c>
       <c r="K3">
-        <v>1.057296931675939</v>
+        <v>1.047495155965903</v>
       </c>
       <c r="L3">
-        <v>1.03898641179677</v>
+        <v>1.050592374062448</v>
       </c>
       <c r="M3">
-        <v>1.047017892221513</v>
+        <v>1.060449659374841</v>
       </c>
       <c r="N3">
-        <v>1.037471288966137</v>
+        <v>1.046218209885906</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.018772891669731</v>
+        <v>1.040606827416793</v>
       </c>
       <c r="D4">
-        <v>1.049060080433295</v>
+        <v>1.045292017208368</v>
       </c>
       <c r="E4">
-        <v>1.031112982460696</v>
+        <v>1.048567824946624</v>
       </c>
       <c r="F4">
-        <v>1.039529382093487</v>
+        <v>1.058520220700019</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059211319701039</v>
+        <v>1.043854303088766</v>
       </c>
       <c r="J4">
-        <v>1.037708277425656</v>
+        <v>1.045115726798075</v>
       </c>
       <c r="K4">
-        <v>1.05860036635604</v>
+        <v>1.047752708253473</v>
       </c>
       <c r="L4">
-        <v>1.040849860817923</v>
+        <v>1.05102041693274</v>
       </c>
       <c r="M4">
-        <v>1.049173029108485</v>
+        <v>1.060948537097056</v>
       </c>
       <c r="N4">
-        <v>1.039181942206403</v>
+        <v>1.046599911006578</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.01995260366558</v>
+        <v>1.040863972663084</v>
       </c>
       <c r="D5">
-        <v>1.049818755175478</v>
+        <v>1.045451754619064</v>
       </c>
       <c r="E5">
-        <v>1.032113855653027</v>
+        <v>1.048799444566519</v>
       </c>
       <c r="F5">
-        <v>1.040650443319584</v>
+        <v>1.05878117938034</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059593895766373</v>
+        <v>1.043918343901271</v>
       </c>
       <c r="J5">
-        <v>1.038417525321265</v>
+        <v>1.045275910565849</v>
       </c>
       <c r="K5">
-        <v>1.059140434873808</v>
+        <v>1.047860789186525</v>
       </c>
       <c r="L5">
-        <v>1.041624265988656</v>
+        <v>1.051200386156108</v>
       </c>
       <c r="M5">
-        <v>1.050068873742227</v>
+        <v>1.06115831645893</v>
       </c>
       <c r="N5">
-        <v>1.039892197315376</v>
+        <v>1.046760322253675</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.020149903017738</v>
+        <v>1.040907153934751</v>
       </c>
       <c r="D6">
-        <v>1.049945636896465</v>
+        <v>1.045478573590878</v>
       </c>
       <c r="E6">
-        <v>1.032281322915924</v>
+        <v>1.048838344695273</v>
       </c>
       <c r="F6">
-        <v>1.040838016883409</v>
+        <v>1.058825007210428</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059657718622187</v>
+        <v>1.043929078358453</v>
       </c>
       <c r="J6">
-        <v>1.03853609755272</v>
+        <v>1.045302802824674</v>
       </c>
       <c r="K6">
-        <v>1.059230657108888</v>
+        <v>1.047878925036971</v>
       </c>
       <c r="L6">
-        <v>1.041753773026667</v>
+        <v>1.051230604923241</v>
       </c>
       <c r="M6">
-        <v>1.050218702658583</v>
+        <v>1.061193542303325</v>
       </c>
       <c r="N6">
-        <v>1.040010937933</v>
+        <v>1.046787252702592</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.01878870756238</v>
+        <v>1.040610263038088</v>
       </c>
       <c r="D7">
-        <v>1.049070251732064</v>
+        <v>1.045294151736361</v>
       </c>
       <c r="E7">
-        <v>1.031126395502034</v>
+        <v>1.048570919176592</v>
       </c>
       <c r="F7">
-        <v>1.039544406069189</v>
+        <v>1.058523706856469</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05921645949284</v>
+        <v>1.043855160029418</v>
       </c>
       <c r="J7">
-        <v>1.037717789010563</v>
+        <v>1.04511786740194</v>
       </c>
       <c r="K7">
-        <v>1.058607613556269</v>
+        <v>1.04775415320017</v>
       </c>
       <c r="L7">
-        <v>1.040860243406032</v>
+        <v>1.051022821613026</v>
       </c>
       <c r="M7">
-        <v>1.049185038981754</v>
+        <v>1.060951339979571</v>
       </c>
       <c r="N7">
-        <v>1.039191467298852</v>
+        <v>1.046602054650345</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.01298302366128</v>
+        <v>1.039370103351027</v>
       </c>
       <c r="D8">
-        <v>1.045336908403504</v>
+        <v>1.04452307237101</v>
       </c>
       <c r="E8">
-        <v>1.026212140678992</v>
+        <v>1.047454605865056</v>
       </c>
       <c r="F8">
-        <v>1.034039448390457</v>
+        <v>1.057266025922091</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057311174578204</v>
+        <v>1.043543553350365</v>
       </c>
       <c r="J8">
-        <v>1.034221204043837</v>
+        <v>1.044344396276844</v>
       </c>
       <c r="K8">
-        <v>1.055935880826149</v>
+        <v>1.047230983657317</v>
       </c>
       <c r="L8">
-        <v>1.037048382388664</v>
+        <v>1.050154493858884</v>
       </c>
       <c r="M8">
-        <v>1.044777259624082</v>
+        <v>1.059939411229087</v>
       </c>
       <c r="N8">
-        <v>1.035689916780409</v>
+        <v>1.045827485107534</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.002280988827123</v>
+        <v>1.037187845622992</v>
       </c>
       <c r="D9">
-        <v>1.038461860961498</v>
+        <v>1.043163589810153</v>
       </c>
       <c r="E9">
-        <v>1.017200930648905</v>
+        <v>1.045493190770747</v>
       </c>
       <c r="F9">
-        <v>1.023942186664976</v>
+        <v>1.055056348027313</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053713223942551</v>
+        <v>1.042984558352082</v>
       </c>
       <c r="J9">
-        <v>1.027753455828549</v>
+        <v>1.042979726177853</v>
       </c>
       <c r="K9">
-        <v>1.050960287824993</v>
+        <v>1.04630297476448</v>
       </c>
       <c r="L9">
-        <v>1.03002096571498</v>
+        <v>1.048625108378085</v>
       </c>
       <c r="M9">
-        <v>1.036658404624008</v>
+        <v>1.058157989475196</v>
       </c>
       <c r="N9">
-        <v>1.029212983620795</v>
+        <v>1.044460877020472</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9947945468056636</v>
+        <v>1.035735120756845</v>
       </c>
       <c r="D10">
-        <v>1.033662957694877</v>
+        <v>1.042256868086695</v>
       </c>
       <c r="E10">
-        <v>1.010932382439791</v>
+        <v>1.044189470963001</v>
       </c>
       <c r="F10">
-        <v>1.016915602376583</v>
+        <v>1.053587689392306</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.05114157486887</v>
+        <v>1.042605278724324</v>
       </c>
       <c r="J10">
-        <v>1.023216226934651</v>
+        <v>1.042068847376143</v>
       </c>
       <c r="K10">
-        <v>1.047449901299001</v>
+        <v>1.045680259555176</v>
       </c>
       <c r="L10">
-        <v>1.025107015494254</v>
+        <v>1.047606062451701</v>
       </c>
       <c r="M10">
-        <v>1.030986012471024</v>
+        <v>1.056971604108349</v>
       </c>
       <c r="N10">
-        <v>1.02466931134144</v>
+        <v>1.043548704666384</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9914610181321943</v>
+        <v>1.035106587266124</v>
       </c>
       <c r="D11">
-        <v>1.031529953092002</v>
+        <v>1.041864173470877</v>
       </c>
       <c r="E11">
-        <v>1.008150168474574</v>
+        <v>1.043625884581509</v>
       </c>
       <c r="F11">
-        <v>1.013796206393149</v>
+        <v>1.052952818074108</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049984264231861</v>
+        <v>1.04243948601177</v>
       </c>
       <c r="J11">
-        <v>1.021193394452497</v>
+        <v>1.041674177398867</v>
       </c>
       <c r="K11">
-        <v>1.045880788264478</v>
+        <v>1.045409672834149</v>
       </c>
       <c r="L11">
-        <v>1.022920004064599</v>
+        <v>1.047164946040878</v>
       </c>
       <c r="M11">
-        <v>1.028462553437808</v>
+        <v>1.056458191864999</v>
       </c>
       <c r="N11">
-        <v>1.022643606205139</v>
+        <v>1.043153474212472</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9902082256692363</v>
+        <v>1.034873198792367</v>
       </c>
       <c r="D12">
-        <v>1.030729032794361</v>
+        <v>1.041718299132186</v>
       </c>
       <c r="E12">
-        <v>1.007105985560004</v>
+        <v>1.043416684923062</v>
       </c>
       <c r="F12">
-        <v>1.012625354042561</v>
+        <v>1.052717160262294</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049547561456605</v>
+        <v>1.042377669202586</v>
       </c>
       <c r="J12">
-        <v>1.020432850982831</v>
+        <v>1.041527542184363</v>
       </c>
       <c r="K12">
-        <v>1.045290278618709</v>
+        <v>1.045309023772943</v>
       </c>
       <c r="L12">
-        <v>1.022098300729765</v>
+        <v>1.047001117360228</v>
       </c>
       <c r="M12">
-        <v>1.027514604632268</v>
+        <v>1.056267533943309</v>
       </c>
       <c r="N12">
-        <v>1.02188198267651</v>
+        <v>1.043006630759144</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9904776262939</v>
+        <v>1.034923257921168</v>
       </c>
       <c r="D13">
-        <v>1.030901229312914</v>
+        <v>1.041749590102216</v>
       </c>
       <c r="E13">
-        <v>1.007330461717278</v>
+        <v>1.043461552540286</v>
       </c>
       <c r="F13">
-        <v>1.012877067067544</v>
+        <v>1.052767702326811</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049641548783127</v>
+        <v>1.042390939696721</v>
       </c>
       <c r="J13">
-        <v>1.020596412522761</v>
+        <v>1.041558997605679</v>
       </c>
       <c r="K13">
-        <v>1.045417297042414</v>
+        <v>1.045330619704948</v>
       </c>
       <c r="L13">
-        <v>1.022274989551464</v>
+        <v>1.047036258175361</v>
       </c>
       <c r="M13">
-        <v>1.027718432293963</v>
+        <v>1.056308428604259</v>
       </c>
       <c r="N13">
-        <v>1.022045776492588</v>
+        <v>1.043038130850766</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9913577638276317</v>
+        <v>1.035087293729513</v>
       </c>
       <c r="D14">
-        <v>1.031463926912814</v>
+        <v>1.041852115648433</v>
       </c>
       <c r="E14">
-        <v>1.00806407845958</v>
+        <v>1.043608589180326</v>
       </c>
       <c r="F14">
-        <v>1.013699675399854</v>
+        <v>1.052933335220613</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049948307000728</v>
+        <v>1.042434380984925</v>
       </c>
       <c r="J14">
-        <v>1.021130717431143</v>
+        <v>1.041662057240407</v>
       </c>
       <c r="K14">
-        <v>1.045832134821383</v>
+        <v>1.045401356023158</v>
       </c>
       <c r="L14">
-        <v>1.022852275256417</v>
+        <v>1.047151403464815</v>
       </c>
       <c r="M14">
-        <v>1.028384415524878</v>
+        <v>1.05644243107193</v>
       </c>
       <c r="N14">
-        <v>1.022580840175226</v>
+        <v>1.043141336841997</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9918980907324175</v>
+        <v>1.035188371813338</v>
       </c>
       <c r="D15">
-        <v>1.031809469191224</v>
+        <v>1.041915283736043</v>
       </c>
       <c r="E15">
-        <v>1.008514643243217</v>
+        <v>1.043699202083927</v>
       </c>
       <c r="F15">
-        <v>1.01420487949981</v>
+        <v>1.053035408573164</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050136398571866</v>
+        <v>1.042461115607531</v>
       </c>
       <c r="J15">
-        <v>1.021458691323567</v>
+        <v>1.041725550777662</v>
       </c>
       <c r="K15">
-        <v>1.046086704388462</v>
+        <v>1.045444920340242</v>
       </c>
       <c r="L15">
-        <v>1.023206707100469</v>
+        <v>1.047222351168865</v>
       </c>
       <c r="M15">
-        <v>1.028793325986278</v>
+        <v>1.056525000575933</v>
       </c>
       <c r="N15">
-        <v>1.022909279828196</v>
+        <v>1.043204920547357</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9950137822774689</v>
+        <v>1.035776845185836</v>
       </c>
       <c r="D16">
-        <v>1.033803328426367</v>
+        <v>1.042282928431173</v>
       </c>
       <c r="E16">
-        <v>1.011115552744439</v>
+        <v>1.044226894097657</v>
       </c>
       <c r="F16">
-        <v>1.017120955060561</v>
+        <v>1.053629846311855</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05121743861618</v>
+        <v>1.042616248986261</v>
       </c>
       <c r="J16">
-        <v>1.023349213608852</v>
+        <v>1.042095035056743</v>
       </c>
       <c r="K16">
-        <v>1.047552979048811</v>
+        <v>1.045698197653116</v>
       </c>
       <c r="L16">
-        <v>1.02525087443246</v>
+        <v>1.047635340869589</v>
       </c>
       <c r="M16">
-        <v>1.031152025428541</v>
+        <v>1.057005684012576</v>
       </c>
       <c r="N16">
-        <v>1.024802486871972</v>
+        <v>1.043574929536495</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9969430541531974</v>
+        <v>1.036146115034075</v>
       </c>
       <c r="D17">
-        <v>1.035039040748277</v>
+        <v>1.042513522495256</v>
       </c>
       <c r="E17">
-        <v>1.012728484784548</v>
+        <v>1.04455815200935</v>
       </c>
       <c r="F17">
-        <v>1.018929131661455</v>
+        <v>1.054003008116579</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.05188365671668</v>
+        <v>1.042713142308529</v>
       </c>
       <c r="J17">
-        <v>1.024519215268705</v>
+        <v>1.042326735539403</v>
       </c>
       <c r="K17">
-        <v>1.048459388283048</v>
+        <v>1.045856819120678</v>
       </c>
       <c r="L17">
-        <v>1.026516958516182</v>
+        <v>1.047894435823512</v>
       </c>
       <c r="M17">
-        <v>1.032613209906242</v>
+        <v>1.057307285252388</v>
       </c>
       <c r="N17">
-        <v>1.025974150068384</v>
+        <v>1.043806959060417</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9980595585512806</v>
+        <v>1.036361552650892</v>
       </c>
       <c r="D18">
-        <v>1.035754524817777</v>
+        <v>1.042648016462189</v>
       </c>
       <c r="E18">
-        <v>1.013662768915123</v>
+        <v>1.044751459071509</v>
       </c>
       <c r="F18">
-        <v>1.019976441087797</v>
+        <v>1.054220770002679</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052268045100986</v>
+        <v>1.042769507775618</v>
       </c>
       <c r="J18">
-        <v>1.025196074394358</v>
+        <v>1.042461857999051</v>
       </c>
       <c r="K18">
-        <v>1.048983365709045</v>
+        <v>1.045949248896794</v>
       </c>
       <c r="L18">
-        <v>1.027249760243057</v>
+        <v>1.048045574698515</v>
       </c>
       <c r="M18">
-        <v>1.033459039619298</v>
+        <v>1.057483233067693</v>
       </c>
       <c r="N18">
-        <v>1.026651970411632</v>
+        <v>1.043942273409456</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9984387864036295</v>
+        <v>1.036435019556334</v>
       </c>
       <c r="D19">
-        <v>1.035997600267757</v>
+        <v>1.042693874081116</v>
       </c>
       <c r="E19">
-        <v>1.013980247092488</v>
+        <v>1.044817386998998</v>
       </c>
       <c r="F19">
-        <v>1.020332314877395</v>
+        <v>1.054295038596427</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052398405626884</v>
+        <v>1.042788701349681</v>
       </c>
       <c r="J19">
-        <v>1.025425931526229</v>
+        <v>1.042507927081973</v>
       </c>
       <c r="K19">
-        <v>1.049161237258775</v>
+        <v>1.045980749516329</v>
       </c>
       <c r="L19">
-        <v>1.027498675810454</v>
+        <v>1.048097111353419</v>
       </c>
       <c r="M19">
-        <v>1.033746366016755</v>
+        <v>1.057543231596626</v>
       </c>
       <c r="N19">
-        <v>1.026882153966994</v>
+        <v>1.04398840791576</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9967369779217502</v>
+        <v>1.036106490824345</v>
       </c>
       <c r="D20">
-        <v>1.034907009777459</v>
+        <v>1.042488782713673</v>
       </c>
       <c r="E20">
-        <v>1.012556109813415</v>
+        <v>1.044522601859751</v>
       </c>
       <c r="F20">
-        <v>1.018735898063621</v>
+        <v>1.053962960731889</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051812614554517</v>
+        <v>1.042702762161814</v>
       </c>
       <c r="J20">
-        <v>1.024394265673567</v>
+        <v>1.042301878799502</v>
       </c>
       <c r="K20">
-        <v>1.048362628996905</v>
+        <v>1.045839809988298</v>
       </c>
       <c r="L20">
-        <v>1.026381710723</v>
+        <v>1.047866636017451</v>
       </c>
       <c r="M20">
-        <v>1.032457109877515</v>
+        <v>1.057274923294868</v>
       </c>
       <c r="N20">
-        <v>1.025849023030488</v>
+        <v>1.043782067021094</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9910989939803256</v>
+        <v>1.035038987144276</v>
       </c>
       <c r="D21">
-        <v>1.031298467636855</v>
+        <v>1.041821924695202</v>
       </c>
       <c r="E21">
-        <v>1.007848347782987</v>
+        <v>1.0435652866407</v>
       </c>
       <c r="F21">
-        <v>1.013457778932415</v>
+        <v>1.052884555988741</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049858164879256</v>
+        <v>1.042421595062772</v>
       </c>
       <c r="J21">
-        <v>1.020973634804712</v>
+        <v>1.041631709766966</v>
       </c>
       <c r="K21">
-        <v>1.045710189670167</v>
+        <v>1.045380529826395</v>
       </c>
       <c r="L21">
-        <v>1.022682540876525</v>
+        <v>1.047117495442973</v>
       </c>
       <c r="M21">
-        <v>1.028188597653678</v>
+        <v>1.056402969399646</v>
       </c>
       <c r="N21">
-        <v>1.022423534473447</v>
+        <v>1.043110946271661</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9874694405404852</v>
+        <v>1.034368250259032</v>
       </c>
       <c r="D22">
-        <v>1.028979524518306</v>
+        <v>1.041402587127963</v>
       </c>
       <c r="E22">
-        <v>1.004825927833655</v>
+        <v>1.042964203387352</v>
       </c>
       <c r="F22">
-        <v>1.010068463943311</v>
+        <v>1.0522074560911</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048589694701459</v>
+        <v>1.042243460552288</v>
       </c>
       <c r="J22">
-        <v>1.018769637645022</v>
+        <v>1.041210133027281</v>
       </c>
       <c r="K22">
-        <v>1.043997951674499</v>
+        <v>1.045090946340998</v>
       </c>
       <c r="L22">
-        <v>1.020302384560813</v>
+        <v>1.046646606459308</v>
       </c>
       <c r="M22">
-        <v>1.025443066970723</v>
+        <v>1.055855005486335</v>
       </c>
       <c r="N22">
-        <v>1.020216407384988</v>
+        <v>1.042688770844651</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9894018391748616</v>
+        <v>1.034723778107477</v>
       </c>
       <c r="D23">
-        <v>1.030213715270941</v>
+        <v>1.041624890799266</v>
       </c>
       <c r="E23">
-        <v>1.006434282330459</v>
+        <v>1.043282770957446</v>
       </c>
       <c r="F23">
-        <v>1.011872130591036</v>
+        <v>1.052566310413493</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049265979272868</v>
+        <v>1.042338021105343</v>
       </c>
       <c r="J23">
-        <v>1.019943223714198</v>
+        <v>1.041433638911681</v>
       </c>
       <c r="K23">
-        <v>1.044909967600278</v>
+        <v>1.045244536969406</v>
       </c>
       <c r="L23">
-        <v>1.021569459819258</v>
+        <v>1.046896221401758</v>
       </c>
       <c r="M23">
-        <v>1.026904559435427</v>
+        <v>1.056145465741526</v>
       </c>
       <c r="N23">
-        <v>1.021391660080995</v>
+        <v>1.042912594133043</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9968301220609957</v>
+        <v>1.036124395148485</v>
       </c>
       <c r="D24">
-        <v>1.034966685199742</v>
+        <v>1.042499961579888</v>
       </c>
       <c r="E24">
-        <v>1.012634018727194</v>
+        <v>1.044538665164376</v>
       </c>
       <c r="F24">
-        <v>1.01882323473715</v>
+        <v>1.053981056103319</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051844728427219</v>
+        <v>1.042707452969214</v>
       </c>
       <c r="J24">
-        <v>1.024450742239084</v>
+        <v>1.04231311056612</v>
       </c>
       <c r="K24">
-        <v>1.048406364905051</v>
+        <v>1.045847495965736</v>
       </c>
       <c r="L24">
-        <v>1.026442840910746</v>
+        <v>1.047879197512564</v>
       </c>
       <c r="M24">
-        <v>1.032527664670046</v>
+        <v>1.057289546181216</v>
       </c>
       <c r="N24">
-        <v>1.025905579799206</v>
+        <v>1.043793314738109</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.00510704448005</v>
+        <v>1.037751643041339</v>
       </c>
       <c r="D25">
-        <v>1.040275965327405</v>
+        <v>1.043515126371304</v>
       </c>
       <c r="E25">
-        <v>1.019574661229836</v>
+        <v>1.045999583539414</v>
       </c>
       <c r="F25">
-        <v>1.026602399719519</v>
+        <v>1.055626822384501</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054673006632036</v>
+        <v>1.04313024125352</v>
       </c>
       <c r="J25">
-        <v>1.029463750149635</v>
+        <v>1.043332723755322</v>
       </c>
       <c r="K25">
-        <v>1.052279642067335</v>
+        <v>1.046543604983117</v>
       </c>
       <c r="L25">
-        <v>1.031876519590292</v>
+        <v>1.049020399697364</v>
       </c>
       <c r="M25">
-        <v>1.038801321073918</v>
+        <v>1.058618318084539</v>
       </c>
       <c r="N25">
-        <v>1.03092570675599</v>
+        <v>1.044814375894991</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_17/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.039051041329276</v>
+        <v>1.011457588992803</v>
       </c>
       <c r="D2">
-        <v>1.044324510941993</v>
+        <v>1.044356239750494</v>
       </c>
       <c r="E2">
-        <v>1.047167603258968</v>
+        <v>1.024923998171422</v>
       </c>
       <c r="F2">
-        <v>1.056942686806193</v>
+        <v>1.032596296195897</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043462659208072</v>
+        <v>1.05680473652362</v>
       </c>
       <c r="J2">
-        <v>1.044145154734633</v>
+        <v>1.033300923908491</v>
       </c>
       <c r="K2">
-        <v>1.047095880588599</v>
+        <v>1.055230365064133</v>
       </c>
       <c r="L2">
-        <v>1.049930997312892</v>
+        <v>1.036046688076028</v>
       </c>
       <c r="M2">
-        <v>1.059679013980852</v>
+        <v>1.043619449581276</v>
       </c>
       <c r="N2">
-        <v>1.04562796061948</v>
+        <v>1.034768329741714</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039995381693004</v>
+        <v>1.0159345484127</v>
       </c>
       <c r="D3">
-        <v>1.044911987269564</v>
+        <v>1.047234757561859</v>
       </c>
       <c r="E3">
-        <v>1.048017288673664</v>
+        <v>1.028708138617927</v>
       </c>
       <c r="F3">
-        <v>1.057899958650401</v>
+        <v>1.036835595935256</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043701229512901</v>
+        <v>1.058284342389614</v>
       </c>
       <c r="J3">
-        <v>1.044734566968081</v>
+        <v>1.036000050064178</v>
       </c>
       <c r="K3">
-        <v>1.047495155965903</v>
+        <v>1.057296931675938</v>
       </c>
       <c r="L3">
-        <v>1.050592374062448</v>
+        <v>1.03898641179677</v>
       </c>
       <c r="M3">
-        <v>1.060449659374841</v>
+        <v>1.047017892221511</v>
       </c>
       <c r="N3">
-        <v>1.046218209885906</v>
+        <v>1.037471288966135</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.040606827416793</v>
+        <v>1.01877289166973</v>
       </c>
       <c r="D4">
-        <v>1.045292017208368</v>
+        <v>1.049060080433295</v>
       </c>
       <c r="E4">
-        <v>1.048567824946624</v>
+        <v>1.031112982460696</v>
       </c>
       <c r="F4">
-        <v>1.058520220700019</v>
+        <v>1.039529382093486</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043854303088766</v>
+        <v>1.059211319701039</v>
       </c>
       <c r="J4">
-        <v>1.045115726798075</v>
+        <v>1.037708277425656</v>
       </c>
       <c r="K4">
-        <v>1.047752708253473</v>
+        <v>1.05860036635604</v>
       </c>
       <c r="L4">
-        <v>1.05102041693274</v>
+        <v>1.040849860817923</v>
       </c>
       <c r="M4">
-        <v>1.060948537097056</v>
+        <v>1.049173029108485</v>
       </c>
       <c r="N4">
-        <v>1.046599911006578</v>
+        <v>1.039181942206403</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040863972663084</v>
+        <v>1.019952603665579</v>
       </c>
       <c r="D5">
-        <v>1.045451754619064</v>
+        <v>1.049818755175478</v>
       </c>
       <c r="E5">
-        <v>1.048799444566519</v>
+        <v>1.032113855653026</v>
       </c>
       <c r="F5">
-        <v>1.05878117938034</v>
+        <v>1.040650443319583</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043918343901271</v>
+        <v>1.059593895766373</v>
       </c>
       <c r="J5">
-        <v>1.045275910565849</v>
+        <v>1.038417525321264</v>
       </c>
       <c r="K5">
-        <v>1.047860789186525</v>
+        <v>1.059140434873808</v>
       </c>
       <c r="L5">
-        <v>1.051200386156108</v>
+        <v>1.041624265988656</v>
       </c>
       <c r="M5">
-        <v>1.06115831645893</v>
+        <v>1.050068873742227</v>
       </c>
       <c r="N5">
-        <v>1.046760322253675</v>
+        <v>1.039892197315376</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040907153934751</v>
+        <v>1.020149903017738</v>
       </c>
       <c r="D6">
-        <v>1.045478573590878</v>
+        <v>1.049945636896465</v>
       </c>
       <c r="E6">
-        <v>1.048838344695273</v>
+        <v>1.032281322915925</v>
       </c>
       <c r="F6">
-        <v>1.058825007210428</v>
+        <v>1.040838016883409</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043929078358453</v>
+        <v>1.059657718622187</v>
       </c>
       <c r="J6">
-        <v>1.045302802824674</v>
+        <v>1.038536097552719</v>
       </c>
       <c r="K6">
-        <v>1.047878925036971</v>
+        <v>1.059230657108889</v>
       </c>
       <c r="L6">
-        <v>1.051230604923241</v>
+        <v>1.041753773026667</v>
       </c>
       <c r="M6">
-        <v>1.061193542303325</v>
+        <v>1.050218702658583</v>
       </c>
       <c r="N6">
-        <v>1.046787252702592</v>
+        <v>1.040010937933</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.040610263038088</v>
+        <v>1.018788707562379</v>
       </c>
       <c r="D7">
-        <v>1.045294151736361</v>
+        <v>1.049070251732064</v>
       </c>
       <c r="E7">
-        <v>1.048570919176592</v>
+        <v>1.031126395502033</v>
       </c>
       <c r="F7">
-        <v>1.058523706856469</v>
+        <v>1.039544406069188</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043855160029418</v>
+        <v>1.05921645949284</v>
       </c>
       <c r="J7">
-        <v>1.04511786740194</v>
+        <v>1.037717789010562</v>
       </c>
       <c r="K7">
-        <v>1.04775415320017</v>
+        <v>1.058607613556268</v>
       </c>
       <c r="L7">
-        <v>1.051022821613026</v>
+        <v>1.040860243406031</v>
       </c>
       <c r="M7">
-        <v>1.060951339979571</v>
+        <v>1.049185038981754</v>
       </c>
       <c r="N7">
-        <v>1.046602054650345</v>
+        <v>1.039191467298851</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.039370103351027</v>
+        <v>1.012983023661279</v>
       </c>
       <c r="D8">
-        <v>1.04452307237101</v>
+        <v>1.045336908403504</v>
       </c>
       <c r="E8">
-        <v>1.047454605865056</v>
+        <v>1.026212140678991</v>
       </c>
       <c r="F8">
-        <v>1.057266025922091</v>
+        <v>1.034039448390457</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043543553350365</v>
+        <v>1.057311174578204</v>
       </c>
       <c r="J8">
-        <v>1.044344396276844</v>
+        <v>1.034221204043836</v>
       </c>
       <c r="K8">
-        <v>1.047230983657317</v>
+        <v>1.055935880826149</v>
       </c>
       <c r="L8">
-        <v>1.050154493858884</v>
+        <v>1.037048382388663</v>
       </c>
       <c r="M8">
-        <v>1.059939411229087</v>
+        <v>1.044777259624082</v>
       </c>
       <c r="N8">
-        <v>1.045827485107534</v>
+        <v>1.035689916780409</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.037187845622992</v>
+        <v>1.002280988827122</v>
       </c>
       <c r="D9">
-        <v>1.043163589810153</v>
+        <v>1.038461860961497</v>
       </c>
       <c r="E9">
-        <v>1.045493190770747</v>
+        <v>1.017200930648905</v>
       </c>
       <c r="F9">
-        <v>1.055056348027313</v>
+        <v>1.023942186664975</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042984558352082</v>
+        <v>1.05371322394255</v>
       </c>
       <c r="J9">
-        <v>1.042979726177853</v>
+        <v>1.027753455828548</v>
       </c>
       <c r="K9">
-        <v>1.04630297476448</v>
+        <v>1.050960287824992</v>
       </c>
       <c r="L9">
-        <v>1.048625108378085</v>
+        <v>1.030020965714979</v>
       </c>
       <c r="M9">
-        <v>1.058157989475196</v>
+        <v>1.036658404624008</v>
       </c>
       <c r="N9">
-        <v>1.044460877020472</v>
+        <v>1.029212983620794</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.035735120756845</v>
+        <v>0.9947945468056625</v>
       </c>
       <c r="D10">
-        <v>1.042256868086695</v>
+        <v>1.033662957694877</v>
       </c>
       <c r="E10">
-        <v>1.044189470963001</v>
+        <v>1.01093238243979</v>
       </c>
       <c r="F10">
-        <v>1.053587689392306</v>
+        <v>1.016915602376582</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042605278724324</v>
+        <v>1.051141574868869</v>
       </c>
       <c r="J10">
-        <v>1.042068847376143</v>
+        <v>1.023216226934651</v>
       </c>
       <c r="K10">
-        <v>1.045680259555176</v>
+        <v>1.047449901299</v>
       </c>
       <c r="L10">
-        <v>1.047606062451701</v>
+        <v>1.025107015494253</v>
       </c>
       <c r="M10">
-        <v>1.056971604108349</v>
+        <v>1.030986012471023</v>
       </c>
       <c r="N10">
-        <v>1.043548704666384</v>
+        <v>1.024669311341439</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.035106587266124</v>
+        <v>0.9914610181321936</v>
       </c>
       <c r="D11">
-        <v>1.041864173470877</v>
+        <v>1.031529953092001</v>
       </c>
       <c r="E11">
-        <v>1.043625884581509</v>
+        <v>1.008150168474574</v>
       </c>
       <c r="F11">
-        <v>1.052952818074108</v>
+        <v>1.013796206393149</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04243948601177</v>
+        <v>1.04998426423186</v>
       </c>
       <c r="J11">
-        <v>1.041674177398867</v>
+        <v>1.021193394452496</v>
       </c>
       <c r="K11">
-        <v>1.045409672834149</v>
+        <v>1.045880788264477</v>
       </c>
       <c r="L11">
-        <v>1.047164946040878</v>
+        <v>1.022920004064599</v>
       </c>
       <c r="M11">
-        <v>1.056458191864999</v>
+        <v>1.028462553437807</v>
       </c>
       <c r="N11">
-        <v>1.043153474212472</v>
+        <v>1.022643606205139</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.034873198792367</v>
+        <v>0.9902082256692357</v>
       </c>
       <c r="D12">
-        <v>1.041718299132186</v>
+        <v>1.030729032794361</v>
       </c>
       <c r="E12">
-        <v>1.043416684923062</v>
+        <v>1.007105985560004</v>
       </c>
       <c r="F12">
-        <v>1.052717160262294</v>
+        <v>1.012625354042561</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042377669202586</v>
+        <v>1.049547561456604</v>
       </c>
       <c r="J12">
-        <v>1.041527542184363</v>
+        <v>1.02043285098283</v>
       </c>
       <c r="K12">
-        <v>1.045309023772943</v>
+        <v>1.045290278618708</v>
       </c>
       <c r="L12">
-        <v>1.047001117360228</v>
+        <v>1.022098300729764</v>
       </c>
       <c r="M12">
-        <v>1.056267533943309</v>
+        <v>1.027514604632268</v>
       </c>
       <c r="N12">
-        <v>1.043006630759144</v>
+        <v>1.02188198267651</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.034923257921168</v>
+        <v>0.9904776262938988</v>
       </c>
       <c r="D13">
-        <v>1.041749590102216</v>
+        <v>1.030901229312914</v>
       </c>
       <c r="E13">
-        <v>1.043461552540286</v>
+        <v>1.007330461717277</v>
       </c>
       <c r="F13">
-        <v>1.052767702326811</v>
+        <v>1.012877067067542</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042390939696721</v>
+        <v>1.049641548783127</v>
       </c>
       <c r="J13">
-        <v>1.041558997605679</v>
+        <v>1.02059641252276</v>
       </c>
       <c r="K13">
-        <v>1.045330619704948</v>
+        <v>1.045417297042413</v>
       </c>
       <c r="L13">
-        <v>1.047036258175361</v>
+        <v>1.022274989551463</v>
       </c>
       <c r="M13">
-        <v>1.056308428604259</v>
+        <v>1.027718432293961</v>
       </c>
       <c r="N13">
-        <v>1.043038130850766</v>
+        <v>1.022045776492587</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.035087293729513</v>
+        <v>0.9913577638276316</v>
       </c>
       <c r="D14">
-        <v>1.041852115648433</v>
+        <v>1.031463926912815</v>
       </c>
       <c r="E14">
-        <v>1.043608589180326</v>
+        <v>1.00806407845958</v>
       </c>
       <c r="F14">
-        <v>1.052933335220613</v>
+        <v>1.013699675399855</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042434380984925</v>
+        <v>1.049948307000729</v>
       </c>
       <c r="J14">
-        <v>1.041662057240407</v>
+        <v>1.021130717431143</v>
       </c>
       <c r="K14">
-        <v>1.045401356023158</v>
+        <v>1.045832134821383</v>
       </c>
       <c r="L14">
-        <v>1.047151403464815</v>
+        <v>1.022852275256417</v>
       </c>
       <c r="M14">
-        <v>1.05644243107193</v>
+        <v>1.028384415524878</v>
       </c>
       <c r="N14">
-        <v>1.043141336841997</v>
+        <v>1.022580840175226</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.035188371813338</v>
+        <v>0.9918980907324172</v>
       </c>
       <c r="D15">
-        <v>1.041915283736043</v>
+        <v>1.031809469191224</v>
       </c>
       <c r="E15">
-        <v>1.043699202083927</v>
+        <v>1.008514643243216</v>
       </c>
       <c r="F15">
-        <v>1.053035408573164</v>
+        <v>1.014204879499809</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042461115607531</v>
+        <v>1.050136398571866</v>
       </c>
       <c r="J15">
-        <v>1.041725550777662</v>
+        <v>1.021458691323567</v>
       </c>
       <c r="K15">
-        <v>1.045444920340242</v>
+        <v>1.046086704388461</v>
       </c>
       <c r="L15">
-        <v>1.047222351168865</v>
+        <v>1.023206707100468</v>
       </c>
       <c r="M15">
-        <v>1.056525000575933</v>
+        <v>1.028793325986277</v>
       </c>
       <c r="N15">
-        <v>1.043204920547357</v>
+        <v>1.022909279828196</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.035776845185836</v>
+        <v>0.9950137822774685</v>
       </c>
       <c r="D16">
-        <v>1.042282928431173</v>
+        <v>1.033803328426366</v>
       </c>
       <c r="E16">
-        <v>1.044226894097657</v>
+        <v>1.011115552744438</v>
       </c>
       <c r="F16">
-        <v>1.053629846311855</v>
+        <v>1.01712095506056</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042616248986261</v>
+        <v>1.05121743861618</v>
       </c>
       <c r="J16">
-        <v>1.042095035056743</v>
+        <v>1.023349213608852</v>
       </c>
       <c r="K16">
-        <v>1.045698197653116</v>
+        <v>1.047552979048811</v>
       </c>
       <c r="L16">
-        <v>1.047635340869589</v>
+        <v>1.025250874432459</v>
       </c>
       <c r="M16">
-        <v>1.057005684012576</v>
+        <v>1.03115202542854</v>
       </c>
       <c r="N16">
-        <v>1.043574929536495</v>
+        <v>1.024802486871971</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.036146115034075</v>
+        <v>0.9969430541531973</v>
       </c>
       <c r="D17">
-        <v>1.042513522495256</v>
+        <v>1.035039040748277</v>
       </c>
       <c r="E17">
-        <v>1.04455815200935</v>
+        <v>1.012728484784548</v>
       </c>
       <c r="F17">
-        <v>1.054003008116579</v>
+        <v>1.018929131661455</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042713142308529</v>
+        <v>1.05188365671668</v>
       </c>
       <c r="J17">
-        <v>1.042326735539403</v>
+        <v>1.024519215268705</v>
       </c>
       <c r="K17">
-        <v>1.045856819120678</v>
+        <v>1.048459388283048</v>
       </c>
       <c r="L17">
-        <v>1.047894435823512</v>
+        <v>1.026516958516182</v>
       </c>
       <c r="M17">
-        <v>1.057307285252388</v>
+        <v>1.032613209906243</v>
       </c>
       <c r="N17">
-        <v>1.043806959060417</v>
+        <v>1.025974150068384</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.036361552650892</v>
+        <v>0.9980595585512793</v>
       </c>
       <c r="D18">
-        <v>1.042648016462189</v>
+        <v>1.035754524817776</v>
       </c>
       <c r="E18">
-        <v>1.044751459071509</v>
+        <v>1.013662768915121</v>
       </c>
       <c r="F18">
-        <v>1.054220770002679</v>
+        <v>1.019976441087795</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042769507775618</v>
+        <v>1.052268045100985</v>
       </c>
       <c r="J18">
-        <v>1.042461857999051</v>
+        <v>1.025196074394357</v>
       </c>
       <c r="K18">
-        <v>1.045949248896794</v>
+        <v>1.048983365709045</v>
       </c>
       <c r="L18">
-        <v>1.048045574698515</v>
+        <v>1.027249760243055</v>
       </c>
       <c r="M18">
-        <v>1.057483233067693</v>
+        <v>1.033459039619297</v>
       </c>
       <c r="N18">
-        <v>1.043942273409456</v>
+        <v>1.02665197041163</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.036435019556334</v>
+        <v>0.9984387864036284</v>
       </c>
       <c r="D19">
-        <v>1.042693874081116</v>
+        <v>1.035997600267757</v>
       </c>
       <c r="E19">
-        <v>1.044817386998998</v>
+        <v>1.013980247092487</v>
       </c>
       <c r="F19">
-        <v>1.054295038596427</v>
+        <v>1.020332314877395</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042788701349681</v>
+        <v>1.052398405626883</v>
       </c>
       <c r="J19">
-        <v>1.042507927081973</v>
+        <v>1.025425931526228</v>
       </c>
       <c r="K19">
-        <v>1.045980749516329</v>
+        <v>1.049161237258774</v>
       </c>
       <c r="L19">
-        <v>1.048097111353419</v>
+        <v>1.027498675810453</v>
       </c>
       <c r="M19">
-        <v>1.057543231596626</v>
+        <v>1.033746366016754</v>
       </c>
       <c r="N19">
-        <v>1.04398840791576</v>
+        <v>1.026882153966993</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.036106490824345</v>
+        <v>0.9967369779217489</v>
       </c>
       <c r="D20">
-        <v>1.042488782713673</v>
+        <v>1.034907009777458</v>
       </c>
       <c r="E20">
-        <v>1.044522601859751</v>
+        <v>1.012556109813414</v>
       </c>
       <c r="F20">
-        <v>1.053962960731889</v>
+        <v>1.018735898063619</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042702762161814</v>
+        <v>1.051812614554516</v>
       </c>
       <c r="J20">
-        <v>1.042301878799502</v>
+        <v>1.024394265673566</v>
       </c>
       <c r="K20">
-        <v>1.045839809988298</v>
+        <v>1.048362628996904</v>
       </c>
       <c r="L20">
-        <v>1.047866636017451</v>
+        <v>1.026381710722999</v>
       </c>
       <c r="M20">
-        <v>1.057274923294868</v>
+        <v>1.032457109877513</v>
       </c>
       <c r="N20">
-        <v>1.043782067021094</v>
+        <v>1.025849023030487</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.035038987144276</v>
+        <v>0.9910989939803256</v>
       </c>
       <c r="D21">
-        <v>1.041821924695202</v>
+        <v>1.031298467636855</v>
       </c>
       <c r="E21">
-        <v>1.0435652866407</v>
+        <v>1.007848347782987</v>
       </c>
       <c r="F21">
-        <v>1.052884555988741</v>
+        <v>1.013457778932415</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042421595062772</v>
+        <v>1.049858164879256</v>
       </c>
       <c r="J21">
-        <v>1.041631709766966</v>
+        <v>1.020973634804712</v>
       </c>
       <c r="K21">
-        <v>1.045380529826395</v>
+        <v>1.045710189670167</v>
       </c>
       <c r="L21">
-        <v>1.047117495442973</v>
+        <v>1.022682540876525</v>
       </c>
       <c r="M21">
-        <v>1.056402969399646</v>
+        <v>1.028188597653678</v>
       </c>
       <c r="N21">
-        <v>1.043110946271661</v>
+        <v>1.022423534473447</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.034368250259032</v>
+        <v>0.9874694405404837</v>
       </c>
       <c r="D22">
-        <v>1.041402587127963</v>
+        <v>1.028979524518306</v>
       </c>
       <c r="E22">
-        <v>1.042964203387352</v>
+        <v>1.004825927833654</v>
       </c>
       <c r="F22">
-        <v>1.0522074560911</v>
+        <v>1.010068463943309</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042243460552288</v>
+        <v>1.048589694701458</v>
       </c>
       <c r="J22">
-        <v>1.041210133027281</v>
+        <v>1.01876963764502</v>
       </c>
       <c r="K22">
-        <v>1.045090946340998</v>
+        <v>1.043997951674499</v>
       </c>
       <c r="L22">
-        <v>1.046646606459308</v>
+        <v>1.020302384560812</v>
       </c>
       <c r="M22">
-        <v>1.055855005486335</v>
+        <v>1.025443066970722</v>
       </c>
       <c r="N22">
-        <v>1.042688770844651</v>
+        <v>1.020216407384987</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.034723778107477</v>
+        <v>0.9894018391748608</v>
       </c>
       <c r="D23">
-        <v>1.041624890799266</v>
+        <v>1.030213715270941</v>
       </c>
       <c r="E23">
-        <v>1.043282770957446</v>
+        <v>1.006434282330459</v>
       </c>
       <c r="F23">
-        <v>1.052566310413493</v>
+        <v>1.011872130591035</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042338021105343</v>
+        <v>1.049265979272868</v>
       </c>
       <c r="J23">
-        <v>1.041433638911681</v>
+        <v>1.019943223714197</v>
       </c>
       <c r="K23">
-        <v>1.045244536969406</v>
+        <v>1.044909967600278</v>
       </c>
       <c r="L23">
-        <v>1.046896221401758</v>
+        <v>1.021569459819257</v>
       </c>
       <c r="M23">
-        <v>1.056145465741526</v>
+        <v>1.026904559435427</v>
       </c>
       <c r="N23">
-        <v>1.042912594133043</v>
+        <v>1.021391660080995</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.036124395148485</v>
+        <v>0.9968301220609949</v>
       </c>
       <c r="D24">
-        <v>1.042499961579888</v>
+        <v>1.034966685199741</v>
       </c>
       <c r="E24">
-        <v>1.044538665164376</v>
+        <v>1.012634018727193</v>
       </c>
       <c r="F24">
-        <v>1.053981056103319</v>
+        <v>1.018823234737149</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042707452969214</v>
+        <v>1.051844728427219</v>
       </c>
       <c r="J24">
-        <v>1.04231311056612</v>
+        <v>1.024450742239083</v>
       </c>
       <c r="K24">
-        <v>1.045847495965736</v>
+        <v>1.048406364905051</v>
       </c>
       <c r="L24">
-        <v>1.047879197512564</v>
+        <v>1.026442840910745</v>
       </c>
       <c r="M24">
-        <v>1.057289546181216</v>
+        <v>1.032527664670045</v>
       </c>
       <c r="N24">
-        <v>1.043793314738109</v>
+        <v>1.025905579799205</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.037751643041339</v>
+        <v>1.00510704448005</v>
       </c>
       <c r="D25">
-        <v>1.043515126371304</v>
+        <v>1.040275965327405</v>
       </c>
       <c r="E25">
-        <v>1.045999583539414</v>
+        <v>1.019574661229836</v>
       </c>
       <c r="F25">
-        <v>1.055626822384501</v>
+        <v>1.026602399719518</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04313024125352</v>
+        <v>1.054673006632036</v>
       </c>
       <c r="J25">
-        <v>1.043332723755322</v>
+        <v>1.029463750149635</v>
       </c>
       <c r="K25">
-        <v>1.046543604983117</v>
+        <v>1.052279642067335</v>
       </c>
       <c r="L25">
-        <v>1.049020399697364</v>
+        <v>1.031876519590293</v>
       </c>
       <c r="M25">
-        <v>1.058618318084539</v>
+        <v>1.038801321073918</v>
       </c>
       <c r="N25">
-        <v>1.044814375894991</v>
+        <v>1.030925706755989</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_17/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011457588992803</v>
+        <v>0.9620109610830633</v>
       </c>
       <c r="D2">
-        <v>1.044356239750494</v>
+        <v>1.044380374112519</v>
       </c>
       <c r="E2">
-        <v>1.024923998171422</v>
+        <v>0.973399469371188</v>
       </c>
       <c r="F2">
-        <v>1.032596296195897</v>
+        <v>1.036171065171712</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05680473652362</v>
+        <v>1.060036129016876</v>
       </c>
       <c r="J2">
-        <v>1.033300923908491</v>
+        <v>0.9853904869541705</v>
       </c>
       <c r="K2">
-        <v>1.055230365064133</v>
+        <v>1.055254197884807</v>
       </c>
       <c r="L2">
-        <v>1.036046688076028</v>
+        <v>0.9852422670115447</v>
       </c>
       <c r="M2">
-        <v>1.043619449581276</v>
+        <v>1.047148470242825</v>
       </c>
       <c r="N2">
-        <v>1.034768329741714</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>0.9985305720130826</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.045887222305063</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.050139677531983</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.0159345484127</v>
+        <v>0.9689034891860279</v>
       </c>
       <c r="D3">
-        <v>1.047234757561859</v>
+        <v>1.046744726661882</v>
       </c>
       <c r="E3">
-        <v>1.028708138617927</v>
+        <v>0.9790507197157843</v>
       </c>
       <c r="F3">
-        <v>1.036835595935256</v>
+        <v>1.039333958824606</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058284342389614</v>
+        <v>1.060833437576212</v>
       </c>
       <c r="J3">
-        <v>1.036000050064178</v>
+        <v>0.9902793322402607</v>
       </c>
       <c r="K3">
-        <v>1.057296931675938</v>
+        <v>1.056812495068422</v>
       </c>
       <c r="L3">
-        <v>1.03898641179677</v>
+        <v>0.9899588588512584</v>
       </c>
       <c r="M3">
-        <v>1.047017892221511</v>
+        <v>1.049487124980215</v>
       </c>
       <c r="N3">
-        <v>1.037471288966135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.000242964803117</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.04773809470362</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.051238871121806</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01877289166973</v>
+        <v>0.9732367429982232</v>
       </c>
       <c r="D4">
-        <v>1.049060080433295</v>
+        <v>1.048238799405962</v>
       </c>
       <c r="E4">
-        <v>1.031112982460696</v>
+        <v>0.9826112796096874</v>
       </c>
       <c r="F4">
-        <v>1.039529382093486</v>
+        <v>1.041331580445337</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059211319701039</v>
+        <v>1.061321355490687</v>
       </c>
       <c r="J4">
-        <v>1.037708277425656</v>
+        <v>0.9933507486770974</v>
       </c>
       <c r="K4">
-        <v>1.05860036635604</v>
+        <v>1.057787901483152</v>
       </c>
       <c r="L4">
-        <v>1.040849860817923</v>
+        <v>0.9929242028171326</v>
       </c>
       <c r="M4">
-        <v>1.049173029108485</v>
+        <v>1.050955504430812</v>
       </c>
       <c r="N4">
-        <v>1.039181942206403</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.001317708948449</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.04890020615799</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.051929427078068</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019952603665579</v>
+        <v>0.9750293010654659</v>
       </c>
       <c r="D5">
-        <v>1.049818755175478</v>
+        <v>1.048860360391025</v>
       </c>
       <c r="E5">
-        <v>1.032113855653026</v>
+        <v>0.9840863024880431</v>
       </c>
       <c r="F5">
-        <v>1.040650443319583</v>
+        <v>1.042158912457744</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059593895766373</v>
+        <v>1.061520650985926</v>
       </c>
       <c r="J5">
-        <v>1.038417525321264</v>
+        <v>0.9946206072808402</v>
       </c>
       <c r="K5">
-        <v>1.059140434873808</v>
+        <v>1.058192057036574</v>
       </c>
       <c r="L5">
-        <v>1.041624265988656</v>
+        <v>0.9941511335382476</v>
       </c>
       <c r="M5">
-        <v>1.050068873742227</v>
+        <v>1.051561281224813</v>
       </c>
       <c r="N5">
-        <v>1.039892197315376</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.001762643132805</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.049379632216839</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.052222244399852</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020149903017738</v>
+        <v>0.9753280760792858</v>
       </c>
       <c r="D6">
-        <v>1.049945636896465</v>
+        <v>1.048966395015844</v>
       </c>
       <c r="E6">
-        <v>1.032281322915925</v>
+        <v>0.9843327024457994</v>
       </c>
       <c r="F6">
-        <v>1.040838016883409</v>
+        <v>1.042295741947394</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059657718622187</v>
+        <v>1.06155463457262</v>
       </c>
       <c r="J6">
-        <v>1.038536097552719</v>
+        <v>0.994832074213178</v>
       </c>
       <c r="K6">
-        <v>1.059230657108889</v>
+        <v>1.058261603744785</v>
       </c>
       <c r="L6">
-        <v>1.041753773026667</v>
+        <v>0.9943559989228253</v>
       </c>
       <c r="M6">
-        <v>1.050218702658583</v>
+        <v>1.051660978455965</v>
       </c>
       <c r="N6">
-        <v>1.040010937933</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.001837775534401</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.049458534930097</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.052280021080086</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018788707562379</v>
+        <v>0.9732591410936148</v>
       </c>
       <c r="D7">
-        <v>1.049070251732064</v>
+        <v>1.048252626718853</v>
       </c>
       <c r="E7">
-        <v>1.031126395502033</v>
+        <v>0.982630938100762</v>
       </c>
       <c r="F7">
-        <v>1.039544406069188</v>
+        <v>1.041338494025819</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05921645949284</v>
+        <v>1.061326306167162</v>
       </c>
       <c r="J7">
-        <v>1.037717789010562</v>
+        <v>0.9933661784303681</v>
       </c>
       <c r="K7">
-        <v>1.058607613556268</v>
+        <v>1.057798762293332</v>
       </c>
       <c r="L7">
-        <v>1.040860243406031</v>
+        <v>0.9929405397923683</v>
       </c>
       <c r="M7">
-        <v>1.049185038981754</v>
+        <v>1.050959499704956</v>
       </c>
       <c r="N7">
-        <v>1.039191467298851</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.001326000865019</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.048903368113299</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.051956893861276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012983023661279</v>
+        <v>0.964364795546779</v>
       </c>
       <c r="D8">
-        <v>1.045336908403504</v>
+        <v>1.045192460196712</v>
       </c>
       <c r="E8">
-        <v>1.026212140678991</v>
+        <v>0.9753293504255368</v>
       </c>
       <c r="F8">
-        <v>1.034039448390457</v>
+        <v>1.037243602304331</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057311174578204</v>
+        <v>1.060313520788462</v>
       </c>
       <c r="J8">
-        <v>1.034221204043836</v>
+        <v>0.9870597379911008</v>
       </c>
       <c r="K8">
-        <v>1.055935880826149</v>
+        <v>1.055793184265224</v>
       </c>
       <c r="L8">
-        <v>1.037048382388663</v>
+        <v>0.9868542067178605</v>
       </c>
       <c r="M8">
-        <v>1.044777259624082</v>
+        <v>1.047941654004422</v>
       </c>
       <c r="N8">
-        <v>1.035689916780409</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>0.9991192840508314</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.046514969156986</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.050543323237238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.002280988827122</v>
+        <v>0.9476445674018681</v>
       </c>
       <c r="D9">
-        <v>1.038461860961497</v>
+        <v>1.039507691560508</v>
       </c>
       <c r="E9">
-        <v>1.017200930648905</v>
+        <v>0.9616687246617359</v>
       </c>
       <c r="F9">
-        <v>1.023942186664975</v>
+        <v>1.029642179745854</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05371322394255</v>
+        <v>1.058306111151393</v>
       </c>
       <c r="J9">
-        <v>1.027753455828548</v>
+        <v>0.9751919580737347</v>
       </c>
       <c r="K9">
-        <v>1.050960287824992</v>
+        <v>1.051990729536366</v>
       </c>
       <c r="L9">
-        <v>1.030020965714979</v>
+        <v>0.9754159017204145</v>
       </c>
       <c r="M9">
-        <v>1.036658404624008</v>
+        <v>1.042271966942292</v>
       </c>
       <c r="N9">
-        <v>1.029212983620794</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>0.9949537860325692</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.042027815287613</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.047851687983885</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9947945468056625</v>
+        <v>0.9356773218951369</v>
       </c>
       <c r="D10">
-        <v>1.033662957694877</v>
+        <v>1.035530935567753</v>
       </c>
       <c r="E10">
-        <v>1.01093238243979</v>
+        <v>0.9519550522758986</v>
       </c>
       <c r="F10">
-        <v>1.016915602376582</v>
+        <v>1.024330764012813</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051141574868869</v>
+        <v>1.05682489323205</v>
       </c>
       <c r="J10">
-        <v>1.023216226934651</v>
+        <v>0.9666977512052969</v>
       </c>
       <c r="K10">
-        <v>1.047449901299</v>
+        <v>1.04928699303834</v>
       </c>
       <c r="L10">
-        <v>1.025107015494253</v>
+        <v>0.9672495605352236</v>
       </c>
       <c r="M10">
-        <v>1.030986012471023</v>
+        <v>1.038274188766455</v>
       </c>
       <c r="N10">
-        <v>1.024669311341439</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0.9919859096270747</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.038915252785614</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.04595659953714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9914610181321936</v>
+        <v>0.9302805936998861</v>
       </c>
       <c r="D11">
-        <v>1.031529953092001</v>
+        <v>1.033870005087815</v>
       </c>
       <c r="E11">
-        <v>1.008150168474574</v>
+        <v>0.9476616855933369</v>
       </c>
       <c r="F11">
-        <v>1.013796206393149</v>
+        <v>1.02228925404431</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04998426423186</v>
+        <v>1.056223703032668</v>
       </c>
       <c r="J11">
-        <v>1.021193394452496</v>
+        <v>0.9628716965020222</v>
       </c>
       <c r="K11">
-        <v>1.045880788264477</v>
+        <v>1.048180252730682</v>
       </c>
       <c r="L11">
-        <v>1.022920004064599</v>
+        <v>0.963643059548557</v>
       </c>
       <c r="M11">
-        <v>1.028462553437807</v>
+        <v>1.036802723208221</v>
       </c>
       <c r="N11">
-        <v>1.022643606205139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.9907928999993112</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.038187109923382</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.045206496478985</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9902082256692357</v>
+        <v>0.9281234906875979</v>
       </c>
       <c r="D12">
-        <v>1.030729032794361</v>
+        <v>1.03320125825464</v>
       </c>
       <c r="E12">
-        <v>1.007105985560004</v>
+        <v>0.9459719412072972</v>
       </c>
       <c r="F12">
-        <v>1.012625354042561</v>
+        <v>1.021535764065277</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049547561456604</v>
+        <v>1.055977932848307</v>
       </c>
       <c r="J12">
-        <v>1.02043285098283</v>
+        <v>0.9613152502895184</v>
       </c>
       <c r="K12">
-        <v>1.045290278618708</v>
+        <v>1.047718868248813</v>
       </c>
       <c r="L12">
-        <v>1.022098300729764</v>
+        <v>0.9622129818281144</v>
       </c>
       <c r="M12">
-        <v>1.027514604632268</v>
+        <v>1.036261685066413</v>
       </c>
       <c r="N12">
-        <v>1.02188198267651</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.9903676996699089</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.03808577931132</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.044880290863914</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9904776262938988</v>
+        <v>0.9283640609269869</v>
       </c>
       <c r="D13">
-        <v>1.030901229312914</v>
+        <v>1.033272746961748</v>
       </c>
       <c r="E13">
-        <v>1.007330461717277</v>
+        <v>0.9462083788459495</v>
       </c>
       <c r="F13">
-        <v>1.012877067067542</v>
+        <v>1.021747789899309</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049641548783127</v>
+        <v>1.05600576179947</v>
       </c>
       <c r="J13">
-        <v>1.02059641252276</v>
+        <v>0.9614381145955899</v>
       </c>
       <c r="K13">
-        <v>1.045417297042413</v>
+        <v>1.047747108552964</v>
       </c>
       <c r="L13">
-        <v>1.022274989551463</v>
+        <v>0.9623963845140183</v>
       </c>
       <c r="M13">
-        <v>1.027718432293961</v>
+        <v>1.03642719300001</v>
       </c>
       <c r="N13">
-        <v>1.022045776492587</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.9905205125403679</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.038493517665527</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.044897797138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9913577638276316</v>
+        <v>0.9296104872233402</v>
       </c>
       <c r="D14">
-        <v>1.031463926912815</v>
+        <v>1.033653390851752</v>
       </c>
       <c r="E14">
-        <v>1.00806407845958</v>
+        <v>0.9472391548945007</v>
       </c>
       <c r="F14">
-        <v>1.013699675399855</v>
+        <v>1.022325533432427</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049948307000729</v>
+        <v>1.056146014585275</v>
       </c>
       <c r="J14">
-        <v>1.021130717431143</v>
+        <v>0.9622762840826602</v>
       </c>
       <c r="K14">
-        <v>1.045832134821383</v>
+        <v>1.047983560295784</v>
       </c>
       <c r="L14">
-        <v>1.022852275256417</v>
+        <v>0.9632480982480337</v>
       </c>
       <c r="M14">
-        <v>1.028384415524878</v>
+        <v>1.036854790184973</v>
       </c>
       <c r="N14">
-        <v>1.022580840175226</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>0.9908865114961236</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.039004951971979</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.045066378148328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9918980907324172</v>
+        <v>0.9304408145522735</v>
       </c>
       <c r="D15">
-        <v>1.031809469191224</v>
+        <v>1.033918193418057</v>
       </c>
       <c r="E15">
-        <v>1.008514643243216</v>
+        <v>0.9479148043695188</v>
       </c>
       <c r="F15">
-        <v>1.014204879499809</v>
+        <v>1.022692201639389</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050136398571866</v>
+        <v>1.05624579460644</v>
       </c>
       <c r="J15">
-        <v>1.021458691323567</v>
+        <v>0.962853004276351</v>
       </c>
       <c r="K15">
-        <v>1.046086704388461</v>
+        <v>1.048159069810181</v>
       </c>
       <c r="L15">
-        <v>1.023206707100468</v>
+        <v>0.9638128437604526</v>
       </c>
       <c r="M15">
-        <v>1.028793325986277</v>
+        <v>1.037128875645507</v>
       </c>
       <c r="N15">
-        <v>1.022909279828196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>0.9911045696696517</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.039259144114728</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.045196260819778</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9950137822774685</v>
+        <v>0.9355771281484755</v>
       </c>
       <c r="D16">
-        <v>1.033803328426366</v>
+        <v>1.035635314442242</v>
       </c>
       <c r="E16">
-        <v>1.011115552744438</v>
+        <v>0.9520611171277326</v>
       </c>
       <c r="F16">
-        <v>1.01712095506056</v>
+        <v>1.024983178548203</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05121743861618</v>
+        <v>1.056910884632467</v>
       </c>
       <c r="J16">
-        <v>1.023349213608852</v>
+        <v>0.9665164935499109</v>
       </c>
       <c r="K16">
-        <v>1.047552979048811</v>
+        <v>1.049354771407285</v>
       </c>
       <c r="L16">
-        <v>1.025250874432459</v>
+        <v>0.9673140347727547</v>
       </c>
       <c r="M16">
-        <v>1.03115202542854</v>
+        <v>1.038880146378737</v>
       </c>
       <c r="N16">
-        <v>1.024802486871971</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>0.9923612725493255</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.040604620543402</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.04604476701921</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9969430541531973</v>
+        <v>0.9388462493302286</v>
       </c>
       <c r="D17">
-        <v>1.035039040748277</v>
+        <v>1.036750430819353</v>
       </c>
       <c r="E17">
-        <v>1.012728484784548</v>
+        <v>0.9546911359075769</v>
       </c>
       <c r="F17">
-        <v>1.018929131661455</v>
+        <v>1.026428503824825</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.05188365671668</v>
+        <v>1.05734217200615</v>
       </c>
       <c r="J17">
-        <v>1.024519215268705</v>
+        <v>0.9688757539342373</v>
       </c>
       <c r="K17">
-        <v>1.048459388283048</v>
+        <v>1.050143379094434</v>
       </c>
       <c r="L17">
-        <v>1.026516958516182</v>
+        <v>0.9695431393382076</v>
       </c>
       <c r="M17">
-        <v>1.032613209906243</v>
+        <v>1.039988487836413</v>
       </c>
       <c r="N17">
-        <v>1.025974150068384</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>0.9931294362783806</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.041351676716926</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.046604877683401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9980595585512793</v>
+        <v>0.9408354168152858</v>
       </c>
       <c r="D18">
-        <v>1.035754524817776</v>
+        <v>1.037425620081257</v>
       </c>
       <c r="E18">
-        <v>1.013662768915121</v>
+        <v>0.9562707095113533</v>
       </c>
       <c r="F18">
-        <v>1.019976441087795</v>
+        <v>1.027241948050349</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052268045100985</v>
+        <v>1.057600375380604</v>
       </c>
       <c r="J18">
-        <v>1.025196074394357</v>
+        <v>0.9703362501611952</v>
       </c>
       <c r="K18">
-        <v>1.048983365709045</v>
+        <v>1.050628163284709</v>
       </c>
       <c r="L18">
-        <v>1.027249760243055</v>
+        <v>0.9708895187564018</v>
       </c>
       <c r="M18">
-        <v>1.033459039619297</v>
+        <v>1.040606453547977</v>
       </c>
       <c r="N18">
-        <v>1.02665197041163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>0.9935468482199057</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.041602658486349</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.046936149647814</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9984387864036284</v>
+        <v>0.9415603245175773</v>
       </c>
       <c r="D19">
-        <v>1.035997600267757</v>
+        <v>1.03763292094893</v>
       </c>
       <c r="E19">
-        <v>1.013980247092487</v>
+        <v>0.9568121453876895</v>
       </c>
       <c r="F19">
-        <v>1.020332314877395</v>
+        <v>1.027371550277557</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052398405626883</v>
+        <v>1.057665257185124</v>
       </c>
       <c r="J19">
-        <v>1.025425931526228</v>
+        <v>0.9708798112493134</v>
       </c>
       <c r="K19">
-        <v>1.049161237258774</v>
+        <v>1.050770974172441</v>
       </c>
       <c r="L19">
-        <v>1.027498675810453</v>
+        <v>0.971351651138649</v>
       </c>
       <c r="M19">
-        <v>1.033746366016754</v>
+        <v>1.040671865711259</v>
       </c>
       <c r="N19">
-        <v>1.026882153966993</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>0.9936257625331444</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.041329229170914</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.047043422653772</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9967369779217489</v>
+        <v>0.9387971430652305</v>
       </c>
       <c r="D20">
-        <v>1.034907009777458</v>
+        <v>1.036569380884475</v>
       </c>
       <c r="E20">
-        <v>1.012556109813414</v>
+        <v>0.9544870871584389</v>
       </c>
       <c r="F20">
-        <v>1.018735898063619</v>
+        <v>1.02569302726142</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051812614554516</v>
+        <v>1.057216701765456</v>
       </c>
       <c r="J20">
-        <v>1.024394265673566</v>
+        <v>0.9689097441877527</v>
       </c>
       <c r="K20">
-        <v>1.048362628996904</v>
+        <v>1.049998299922776</v>
       </c>
       <c r="L20">
-        <v>1.026381710722999</v>
+        <v>0.9693803935382085</v>
       </c>
       <c r="M20">
-        <v>1.032457109877513</v>
+        <v>1.039298655509733</v>
       </c>
       <c r="N20">
-        <v>1.025849023030487</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>0.9927686034450048</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.039715466438236</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.046500988078574</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9910989939803256</v>
+        <v>0.9296430394645898</v>
       </c>
       <c r="D21">
-        <v>1.031298467636855</v>
+        <v>1.033528517193291</v>
       </c>
       <c r="E21">
-        <v>1.007848347782987</v>
+        <v>0.9470645755006347</v>
       </c>
       <c r="F21">
-        <v>1.013457778932415</v>
+        <v>1.021592621862269</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049858164879256</v>
+        <v>1.056046229602444</v>
       </c>
       <c r="J21">
-        <v>1.020973634804712</v>
+        <v>0.962408209760149</v>
       </c>
       <c r="K21">
-        <v>1.045710189670167</v>
+        <v>1.047901355469387</v>
       </c>
       <c r="L21">
-        <v>1.022682540876525</v>
+        <v>0.9631233657091504</v>
       </c>
       <c r="M21">
-        <v>1.028188597653678</v>
+        <v>1.0361761460474</v>
       </c>
       <c r="N21">
-        <v>1.022423534473447</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9904695683064577</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.037203375809472</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.045021593127899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9874694405404837</v>
+        <v>0.9236781188598329</v>
       </c>
       <c r="D22">
-        <v>1.028979524518306</v>
+        <v>1.031578089846109</v>
       </c>
       <c r="E22">
-        <v>1.004825927833654</v>
+        <v>0.9422453948620134</v>
       </c>
       <c r="F22">
-        <v>1.010068463943309</v>
+        <v>1.018980403758387</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048589694701458</v>
+        <v>1.055282409094531</v>
       </c>
       <c r="J22">
-        <v>1.01876963764502</v>
+        <v>0.9581763069395425</v>
       </c>
       <c r="K22">
-        <v>1.043997951674499</v>
+        <v>1.046548903355228</v>
       </c>
       <c r="L22">
-        <v>1.020302384560812</v>
+        <v>0.9590548950788949</v>
       </c>
       <c r="M22">
-        <v>1.025443066970722</v>
+        <v>1.034185004943609</v>
       </c>
       <c r="N22">
-        <v>1.020216407384987</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9889771362385583</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.035627512130288</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.04405205198787</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9894018391748608</v>
+        <v>0.9268666646743136</v>
       </c>
       <c r="D23">
-        <v>1.030213715270941</v>
+        <v>1.032616556068446</v>
       </c>
       <c r="E23">
-        <v>1.006434282330459</v>
+        <v>0.9448185853675254</v>
       </c>
       <c r="F23">
-        <v>1.011872130591035</v>
+        <v>1.020381586594311</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049265979272868</v>
+        <v>1.055691313623003</v>
       </c>
       <c r="J23">
-        <v>1.019943223714197</v>
+        <v>0.9604392793108562</v>
       </c>
       <c r="K23">
-        <v>1.044909967600278</v>
+        <v>1.047269915884207</v>
       </c>
       <c r="L23">
-        <v>1.021569459819257</v>
+        <v>0.9612282449286078</v>
       </c>
       <c r="M23">
-        <v>1.026904559435427</v>
+        <v>1.035256091044098</v>
       </c>
       <c r="N23">
-        <v>1.021391660080995</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9897717929214087</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.036475210239252</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.044552318779734</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9968301220609949</v>
+        <v>0.9389416029259938</v>
       </c>
       <c r="D24">
-        <v>1.034966685199741</v>
+        <v>1.03659922070926</v>
       </c>
       <c r="E24">
-        <v>1.012634018727193</v>
+        <v>0.9545954301289467</v>
       </c>
       <c r="F24">
-        <v>1.018823234737149</v>
+        <v>1.025728966893568</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051844728427219</v>
+        <v>1.057223950058887</v>
       </c>
       <c r="J24">
-        <v>1.024450742239083</v>
+        <v>0.9690110188727722</v>
       </c>
       <c r="K24">
-        <v>1.048406364905051</v>
+        <v>1.050012715802978</v>
       </c>
       <c r="L24">
-        <v>1.026442840910745</v>
+        <v>0.969469750086951</v>
       </c>
       <c r="M24">
-        <v>1.032527664670045</v>
+        <v>1.03931883195745</v>
       </c>
       <c r="N24">
-        <v>1.025905579799205</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>0.9927865648563508</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.039690608110374</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.0464841606614</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.00510704448005</v>
+        <v>0.9520989537770919</v>
       </c>
       <c r="D25">
-        <v>1.040275965327405</v>
+        <v>1.041017426078225</v>
       </c>
       <c r="E25">
-        <v>1.019574661229836</v>
+        <v>0.9653016111302611</v>
       </c>
       <c r="F25">
-        <v>1.026602399719518</v>
+        <v>1.03164559828611</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054673006632036</v>
+        <v>1.058853349334549</v>
       </c>
       <c r="J25">
-        <v>1.029463750149635</v>
+        <v>0.9783533744164509</v>
       </c>
       <c r="K25">
-        <v>1.052279642067335</v>
+        <v>1.053010700669723</v>
       </c>
       <c r="L25">
-        <v>1.031876519590293</v>
+        <v>0.9784635675294208</v>
       </c>
       <c r="M25">
-        <v>1.038801321073918</v>
+        <v>1.04377174516187</v>
       </c>
       <c r="N25">
-        <v>1.030925706755989</v>
+        <v>0.9960694116035943</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.043214785711766</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.048601010014773</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_17/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9620109610830633</v>
+        <v>0.9647550112071863</v>
       </c>
       <c r="D2">
-        <v>1.044380374112519</v>
+        <v>1.04131681757785</v>
       </c>
       <c r="E2">
-        <v>0.973399469371188</v>
+        <v>0.9757209653970261</v>
       </c>
       <c r="F2">
-        <v>1.036171065171712</v>
+        <v>1.035005394510608</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.060036129016876</v>
+        <v>1.058502990917914</v>
       </c>
       <c r="J2">
-        <v>0.9853904869541705</v>
+        <v>0.9880435419485699</v>
       </c>
       <c r="K2">
-        <v>1.055254197884807</v>
+        <v>1.052229057623065</v>
       </c>
       <c r="L2">
-        <v>0.9852422670115447</v>
+        <v>0.9875292390428501</v>
       </c>
       <c r="M2">
-        <v>1.047148470242825</v>
+        <v>1.045997673930881</v>
       </c>
       <c r="N2">
-        <v>0.9985305720130826</v>
+        <v>1.003521330702156</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.045887222305063</v>
+        <v>1.044976450358769</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.050139677531983</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.048009348666197</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025875686729434</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9689034891860279</v>
+        <v>0.9713005439010554</v>
       </c>
       <c r="D3">
-        <v>1.046744726661882</v>
+        <v>1.0434347576303</v>
       </c>
       <c r="E3">
-        <v>0.9790507197157843</v>
+        <v>0.9810801705722698</v>
       </c>
       <c r="F3">
-        <v>1.039333958824606</v>
+        <v>1.037951980879179</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.060833437576212</v>
+        <v>1.05916824597575</v>
       </c>
       <c r="J3">
-        <v>0.9902793322402607</v>
+        <v>0.9926053825635021</v>
       </c>
       <c r="K3">
-        <v>1.056812495068422</v>
+        <v>1.053540483241656</v>
       </c>
       <c r="L3">
-        <v>0.9899588588512584</v>
+        <v>0.9919609981300014</v>
       </c>
       <c r="M3">
-        <v>1.049487124980215</v>
+        <v>1.048121239032233</v>
       </c>
       <c r="N3">
-        <v>1.000242964803117</v>
+        <v>1.004805257311346</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.04773809470362</v>
+        <v>1.046657097478795</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.051238871121806</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.04893371384127</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.026133204068374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9732367429982232</v>
+        <v>0.9754209570433174</v>
       </c>
       <c r="D4">
-        <v>1.048238799405962</v>
+        <v>1.044775180862898</v>
       </c>
       <c r="E4">
-        <v>0.9826112796096874</v>
+        <v>0.9844611600299455</v>
       </c>
       <c r="F4">
-        <v>1.041331580445337</v>
+        <v>1.039815478136783</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.061321355490687</v>
+        <v>1.059573674644591</v>
       </c>
       <c r="J4">
-        <v>0.9933507486770974</v>
+        <v>0.995475002522006</v>
       </c>
       <c r="K4">
-        <v>1.057787901483152</v>
+        <v>1.054361650639108</v>
       </c>
       <c r="L4">
-        <v>0.9929242028171326</v>
+        <v>0.9947508150104215</v>
       </c>
       <c r="M4">
-        <v>1.050955504430812</v>
+        <v>1.049455988546614</v>
       </c>
       <c r="N4">
-        <v>1.001317708948449</v>
+        <v>1.005612014922792</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.04890020615799</v>
+        <v>1.047713452547877</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.051929427078068</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.049515298621175</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.026290702951602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9750293010654659</v>
+        <v>0.9771272203437826</v>
       </c>
       <c r="D5">
-        <v>1.048860360391025</v>
+        <v>1.045334284696248</v>
       </c>
       <c r="E5">
-        <v>0.9840863024880431</v>
+        <v>0.9858632270094744</v>
       </c>
       <c r="F5">
-        <v>1.042158912457744</v>
+        <v>1.040588912810522</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.061520650985926</v>
+        <v>1.059739432733199</v>
       </c>
       <c r="J5">
-        <v>0.9946206072808402</v>
+        <v>0.9966627925135806</v>
       </c>
       <c r="K5">
-        <v>1.058192057036574</v>
+        <v>1.054703028490392</v>
       </c>
       <c r="L5">
-        <v>0.9941511335382476</v>
+        <v>0.9959063502401463</v>
       </c>
       <c r="M5">
-        <v>1.051561281224813</v>
+        <v>1.050007999598953</v>
       </c>
       <c r="N5">
-        <v>1.001762643132805</v>
+        <v>1.005946269545726</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.049379632216839</v>
+        <v>1.048150327840363</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.052222244399852</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.049764446434412</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.026355060655703</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9753280760792858</v>
+        <v>0.9774123945938616</v>
       </c>
       <c r="D6">
-        <v>1.048966395015844</v>
+        <v>1.04543089937086</v>
       </c>
       <c r="E6">
-        <v>0.9843327024457994</v>
+        <v>0.9860980531365346</v>
       </c>
       <c r="F6">
-        <v>1.042295741947394</v>
+        <v>1.040718195349464</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.06155463457262</v>
+        <v>1.059768392462149</v>
       </c>
       <c r="J6">
-        <v>0.994832074213178</v>
+        <v>0.9968613266022681</v>
       </c>
       <c r="K6">
-        <v>1.058261603744785</v>
+        <v>1.054763087293531</v>
       </c>
       <c r="L6">
-        <v>0.9943559989228253</v>
+        <v>0.9960998896165123</v>
       </c>
       <c r="M6">
-        <v>1.051660978455965</v>
+        <v>1.05010015337332</v>
       </c>
       <c r="N6">
-        <v>1.001837775534401</v>
+        <v>1.006002800484193</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.049458534930097</v>
+        <v>1.048223260607027</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.052280021080086</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.049816391030177</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026366081879484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9732591410936148</v>
+        <v>0.975467434196672</v>
       </c>
       <c r="D7">
-        <v>1.048252626718853</v>
+        <v>1.044793925935131</v>
       </c>
       <c r="E7">
-        <v>0.982630938100762</v>
+        <v>0.984502848617948</v>
       </c>
       <c r="F7">
-        <v>1.041338494025819</v>
+        <v>1.039832652368155</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.061326306167162</v>
+        <v>1.059581605936425</v>
       </c>
       <c r="J7">
-        <v>0.9933661784303681</v>
+        <v>0.9955138785285436</v>
       </c>
       <c r="K7">
-        <v>1.057798762293332</v>
+        <v>1.054377362341225</v>
       </c>
       <c r="L7">
-        <v>0.9929405397923683</v>
+        <v>0.9947889147659313</v>
       </c>
       <c r="M7">
-        <v>1.050959499704956</v>
+        <v>1.049470126272447</v>
       </c>
       <c r="N7">
-        <v>1.001326000865019</v>
+        <v>1.005652569875266</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.048903368113299</v>
+        <v>1.047724641499362</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.051956893861276</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.049548210784219</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.026292960346596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.964364795546779</v>
+        <v>0.9670645968082981</v>
       </c>
       <c r="D8">
-        <v>1.045192460196712</v>
+        <v>1.042057782113414</v>
       </c>
       <c r="E8">
-        <v>0.9753293504255368</v>
+        <v>0.9776198030313509</v>
       </c>
       <c r="F8">
-        <v>1.037243602304331</v>
+        <v>1.036031470780311</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.060313520788462</v>
+        <v>1.058743209030371</v>
       </c>
       <c r="J8">
-        <v>0.9870597379911008</v>
+        <v>0.9896733198673827</v>
       </c>
       <c r="K8">
-        <v>1.055793184265224</v>
+        <v>1.052696667441675</v>
       </c>
       <c r="L8">
-        <v>0.9868542067178605</v>
+        <v>0.9891117118475794</v>
       </c>
       <c r="M8">
-        <v>1.047941654004422</v>
+        <v>1.046744527499387</v>
       </c>
       <c r="N8">
-        <v>0.9991192840508314</v>
+        <v>1.00406771569243</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.046514969156986</v>
+        <v>1.045567531003769</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.050543323237238</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.048364811650245</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025966904668548</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9476445674018681</v>
+        <v>0.9512340698120525</v>
       </c>
       <c r="D9">
-        <v>1.039507691560508</v>
+        <v>1.036976878207875</v>
       </c>
       <c r="E9">
-        <v>0.9616687246617359</v>
+        <v>0.9647064885831792</v>
       </c>
       <c r="F9">
-        <v>1.029642179745854</v>
+        <v>1.028966834469289</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.058306111151393</v>
+        <v>1.057058619581559</v>
       </c>
       <c r="J9">
-        <v>0.9751919580737347</v>
+        <v>0.9786347372216097</v>
       </c>
       <c r="K9">
-        <v>1.051990729536366</v>
+        <v>1.049497223625885</v>
       </c>
       <c r="L9">
-        <v>0.9754159017204145</v>
+        <v>0.9783993665793754</v>
       </c>
       <c r="M9">
-        <v>1.042271966942292</v>
+        <v>1.041606798452178</v>
       </c>
       <c r="N9">
-        <v>0.9949537860325692</v>
+        <v>1.00096589794941</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.042027815287613</v>
+        <v>1.041501379947384</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.047851687983885</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.046099243958072</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.025318117198376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9356773218951369</v>
+        <v>0.9400712475599486</v>
       </c>
       <c r="D10">
-        <v>1.035530935567753</v>
+        <v>1.03346391036754</v>
       </c>
       <c r="E10">
-        <v>0.9519550522758986</v>
+        <v>0.9556737594189859</v>
       </c>
       <c r="F10">
-        <v>1.024330764012813</v>
+        <v>1.024107319360513</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.05682489323205</v>
+        <v>1.055826495503593</v>
       </c>
       <c r="J10">
-        <v>0.9666977512052969</v>
+        <v>0.9708822889710724</v>
       </c>
       <c r="K10">
-        <v>1.04928699303834</v>
+        <v>1.047254153599946</v>
       </c>
       <c r="L10">
-        <v>0.9672495605352236</v>
+        <v>0.9708922742680195</v>
       </c>
       <c r="M10">
-        <v>1.038274188766455</v>
+        <v>1.038054535936263</v>
       </c>
       <c r="N10">
-        <v>0.9919859096270747</v>
+        <v>0.9989175355547543</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.038915252785614</v>
+        <v>1.03874142272145</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.04595659953714</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.044531549991012</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024837482557713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9302805936998861</v>
+        <v>0.9353599219244562</v>
       </c>
       <c r="D11">
-        <v>1.033870005087815</v>
+        <v>1.032130576902895</v>
       </c>
       <c r="E11">
-        <v>0.9476616855933369</v>
+        <v>0.9519633297808709</v>
       </c>
       <c r="F11">
-        <v>1.02228925404431</v>
+        <v>1.022509285638862</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.056223703032668</v>
+        <v>1.055408301980099</v>
       </c>
       <c r="J11">
-        <v>0.9628716965020222</v>
+        <v>0.9676930125741874</v>
       </c>
       <c r="K11">
-        <v>1.048180252730682</v>
+        <v>1.046470971704198</v>
       </c>
       <c r="L11">
-        <v>0.963643059548557</v>
+        <v>0.9678517996343191</v>
       </c>
       <c r="M11">
-        <v>1.036802723208221</v>
+        <v>1.037018837960206</v>
       </c>
       <c r="N11">
-        <v>0.9907928999993112</v>
+        <v>0.9983667841843306</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.038187109923382</v>
+        <v>1.038358054101244</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.045206496478985</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.044013437535999</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024597337507356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9281234906875979</v>
+        <v>0.9335823933591769</v>
       </c>
       <c r="D12">
-        <v>1.03320125825464</v>
+        <v>1.031650126066354</v>
       </c>
       <c r="E12">
-        <v>0.9459719412072972</v>
+        <v>0.9505921221679909</v>
       </c>
       <c r="F12">
-        <v>1.021535764065277</v>
+        <v>1.022036299848976</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.055977932848307</v>
+        <v>1.055268845490961</v>
       </c>
       <c r="J12">
-        <v>0.9613152502895184</v>
+        <v>0.9664902315724933</v>
       </c>
       <c r="K12">
-        <v>1.047718868248813</v>
+        <v>1.046195082503412</v>
       </c>
       <c r="L12">
-        <v>0.9622129818281144</v>
+        <v>0.9667313315945384</v>
       </c>
       <c r="M12">
-        <v>1.036261685066413</v>
+        <v>1.036753155793358</v>
       </c>
       <c r="N12">
-        <v>0.9903676996699089</v>
+        <v>0.9982172891618624</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.03808577931132</v>
+        <v>1.038474395044665</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.044880290863914</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.043818383261083</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024461514666807</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9283640609269869</v>
+        <v>0.933938853652912</v>
       </c>
       <c r="D13">
-        <v>1.033272746961748</v>
+        <v>1.031808795650554</v>
       </c>
       <c r="E13">
-        <v>0.9462083788459495</v>
+        <v>0.9509168445780704</v>
       </c>
       <c r="F13">
-        <v>1.021747789899309</v>
+        <v>1.022405117502304</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.05600576179947</v>
+        <v>1.055347212166056</v>
       </c>
       <c r="J13">
-        <v>0.9614381145955899</v>
+        <v>0.9667243076499732</v>
       </c>
       <c r="K13">
-        <v>1.047747108552964</v>
+        <v>1.046308873323513</v>
       </c>
       <c r="L13">
-        <v>0.9623963845140183</v>
+        <v>0.9670015088926123</v>
       </c>
       <c r="M13">
-        <v>1.03642719300001</v>
+        <v>1.037072664455982</v>
       </c>
       <c r="N13">
-        <v>0.9905205125403679</v>
+        <v>0.9983271414768827</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.038493517665527</v>
+        <v>1.039003776339892</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.044897797138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.043896131186151</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02440499279163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9296104872233402</v>
+        <v>0.9351513589021073</v>
       </c>
       <c r="D14">
-        <v>1.033653390851752</v>
+        <v>1.032207762295436</v>
       </c>
       <c r="E14">
-        <v>0.9472391548945007</v>
+        <v>0.9519097247960701</v>
       </c>
       <c r="F14">
-        <v>1.022325533432427</v>
+        <v>1.023040099155978</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.056146014585275</v>
+        <v>1.055499279751166</v>
       </c>
       <c r="J14">
-        <v>0.9622762840826602</v>
+        <v>0.9675349031991002</v>
       </c>
       <c r="K14">
-        <v>1.047983560295784</v>
+        <v>1.046563023815062</v>
       </c>
       <c r="L14">
-        <v>0.9632480982480337</v>
+        <v>0.9678175943518784</v>
       </c>
       <c r="M14">
-        <v>1.036854790184973</v>
+        <v>1.037556628303478</v>
       </c>
       <c r="N14">
-        <v>0.9908865114961236</v>
+        <v>0.9985223374982867</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.039004951971979</v>
+        <v>1.039559694631531</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.045066378148328</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.044077360830477</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024399369240719</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9304408145522735</v>
+        <v>0.9359150430398507</v>
       </c>
       <c r="D15">
-        <v>1.033918193418057</v>
+        <v>1.032454038628579</v>
       </c>
       <c r="E15">
-        <v>0.9479148043695188</v>
+        <v>0.9525256137267178</v>
       </c>
       <c r="F15">
-        <v>1.022692201639389</v>
+        <v>1.023393004248179</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.05624579460644</v>
+        <v>1.055589344303161</v>
       </c>
       <c r="J15">
-        <v>0.962853004276351</v>
+        <v>0.9680511813420982</v>
       </c>
       <c r="K15">
-        <v>1.048159069810181</v>
+        <v>1.046720139719624</v>
       </c>
       <c r="L15">
-        <v>0.9638128437604526</v>
+        <v>0.9683247467669551</v>
       </c>
       <c r="M15">
-        <v>1.037128875645507</v>
+        <v>1.03781729222435</v>
       </c>
       <c r="N15">
-        <v>0.9911045696696517</v>
+        <v>0.9986317908054642</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.039259144114728</v>
+        <v>1.039803263877717</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.045196260819778</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.04419480755533</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024419133580719</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9355771281484755</v>
+        <v>0.9404803967486154</v>
       </c>
       <c r="D16">
-        <v>1.035635314442242</v>
+        <v>1.033923080151211</v>
       </c>
       <c r="E16">
-        <v>0.9520611171277326</v>
+        <v>0.9561795545307705</v>
       </c>
       <c r="F16">
-        <v>1.024983178548203</v>
+        <v>1.02538757062216</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.056910884632467</v>
+        <v>1.056118702446926</v>
       </c>
       <c r="J16">
-        <v>0.9665164935499109</v>
+        <v>0.9711869730780878</v>
       </c>
       <c r="K16">
-        <v>1.049354771407285</v>
+        <v>1.047670752894014</v>
       </c>
       <c r="L16">
-        <v>0.9673140347727547</v>
+        <v>0.9713486318838292</v>
       </c>
       <c r="M16">
-        <v>1.038880146378737</v>
+        <v>1.039277712646532</v>
       </c>
       <c r="N16">
-        <v>0.9923612725493255</v>
+        <v>0.9992700389254801</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.040604620543402</v>
+        <v>1.040918863341584</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.04604476701921</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.044870330713201</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024653412444845</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9388462493302286</v>
+        <v>0.9433653142742373</v>
       </c>
       <c r="D17">
-        <v>1.036750430819353</v>
+        <v>1.034842660246857</v>
       </c>
       <c r="E17">
-        <v>0.9546911359075769</v>
+        <v>0.9584834519365275</v>
       </c>
       <c r="F17">
-        <v>1.026428503824825</v>
+        <v>1.026587303889372</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.05734217200615</v>
+        <v>1.056442327309599</v>
       </c>
       <c r="J17">
-        <v>0.9688757539342373</v>
+        <v>0.97318840131409</v>
       </c>
       <c r="K17">
-        <v>1.050143379094434</v>
+        <v>1.048266159256772</v>
       </c>
       <c r="L17">
-        <v>0.9695431393382076</v>
+        <v>0.9732607998595451</v>
       </c>
       <c r="M17">
-        <v>1.039988487836413</v>
+        <v>1.040144685393936</v>
       </c>
       <c r="N17">
-        <v>0.9931294362783806</v>
+        <v>0.9996927068114595</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.041351676716926</v>
+        <v>1.041475150141712</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.046604877683401</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.045294092220896</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024834194784409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9408354168152858</v>
+        <v>0.9450592626604444</v>
       </c>
       <c r="D18">
-        <v>1.037425620081257</v>
+        <v>1.035347109573078</v>
       </c>
       <c r="E18">
-        <v>0.9562707095113533</v>
+        <v>0.9598168057080407</v>
       </c>
       <c r="F18">
-        <v>1.027241948050349</v>
+        <v>1.027164678544764</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.057600375380604</v>
+        <v>1.056605230437129</v>
       </c>
       <c r="J18">
-        <v>0.9703362501611952</v>
+        <v>0.9743715384372522</v>
       </c>
       <c r="K18">
-        <v>1.050628163284709</v>
+        <v>1.048582378352653</v>
       </c>
       <c r="L18">
-        <v>0.9708895187564018</v>
+        <v>0.9743671785555346</v>
       </c>
       <c r="M18">
-        <v>1.040606453547977</v>
+        <v>1.040530428697215</v>
       </c>
       <c r="N18">
-        <v>0.9935468482199057</v>
+        <v>0.9999198936083169</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.041602658486349</v>
+        <v>1.041542548665103</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.046936149647814</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.045505048176936</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024976483836485</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9415603245175773</v>
+        <v>0.9455975689764705</v>
       </c>
       <c r="D19">
-        <v>1.03763292094893</v>
+        <v>1.035436004153391</v>
       </c>
       <c r="E19">
-        <v>0.9568121453876895</v>
+        <v>0.9602068389802884</v>
       </c>
       <c r="F19">
-        <v>1.027371550277557</v>
+        <v>1.027105260732148</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.057665257185124</v>
+        <v>1.056602434521076</v>
       </c>
       <c r="J19">
-        <v>0.9708798112493134</v>
+        <v>0.9747382425034277</v>
       </c>
       <c r="K19">
-        <v>1.050770974172441</v>
+        <v>1.04860845088087</v>
       </c>
       <c r="L19">
-        <v>0.971351651138649</v>
+        <v>0.97468126944533</v>
       </c>
       <c r="M19">
-        <v>1.040671865711259</v>
+        <v>1.040409842326327</v>
       </c>
       <c r="N19">
-        <v>0.9936257625331444</v>
+        <v>0.9999384819743771</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.041329229170914</v>
+        <v>1.04112199009432</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.047043422653772</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.045530410812015</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.025051845198421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9387971430652305</v>
+        <v>0.9429146114873577</v>
       </c>
       <c r="D20">
-        <v>1.036569380884475</v>
+        <v>1.034380315267252</v>
       </c>
       <c r="E20">
-        <v>0.9544870871584389</v>
+        <v>0.9579651888729442</v>
       </c>
       <c r="F20">
-        <v>1.02569302726142</v>
+        <v>1.025341117219186</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.057216701765456</v>
+        <v>1.056152353663589</v>
       </c>
       <c r="J20">
-        <v>0.9689097441877527</v>
+        <v>0.9728383991550862</v>
       </c>
       <c r="K20">
-        <v>1.049998299922776</v>
+        <v>1.047844416966036</v>
       </c>
       <c r="L20">
-        <v>0.9693803935382085</v>
+        <v>0.9727897587414708</v>
       </c>
       <c r="M20">
-        <v>1.039298655509733</v>
+        <v>1.038952543534479</v>
       </c>
       <c r="N20">
-        <v>0.9927686034450048</v>
+        <v>0.9993643251693124</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.039715466438236</v>
+        <v>1.039441555215853</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.046500988078574</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.044994476030031</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024960805909124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9296430394645898</v>
+        <v>0.9347262004101644</v>
       </c>
       <c r="D21">
-        <v>1.033528517193291</v>
+        <v>1.031731787453924</v>
       </c>
       <c r="E21">
-        <v>0.9470645755006347</v>
+        <v>0.9513924595420966</v>
       </c>
       <c r="F21">
-        <v>1.021592621862269</v>
+        <v>1.0216793408611</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.056046229602444</v>
+        <v>1.055195314023909</v>
       </c>
       <c r="J21">
-        <v>0.962408209760149</v>
+        <v>0.9672313328723212</v>
       </c>
       <c r="K21">
-        <v>1.047901355469387</v>
+        <v>1.046135936962852</v>
       </c>
       <c r="L21">
-        <v>0.9631233657091504</v>
+        <v>0.9673571886497532</v>
       </c>
       <c r="M21">
-        <v>1.0361761460474</v>
+        <v>1.036261311270334</v>
       </c>
       <c r="N21">
-        <v>0.9904695683064577</v>
+        <v>0.9982375934474048</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.037203375809472</v>
+        <v>1.037270778680205</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.045021593127899</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.043790060572017</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.024594257589773</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9236781188598329</v>
+        <v>0.9294083806371611</v>
       </c>
       <c r="D22">
-        <v>1.031578089846109</v>
+        <v>1.030040512630533</v>
       </c>
       <c r="E22">
-        <v>0.9422453948620134</v>
+        <v>0.9471423346672772</v>
       </c>
       <c r="F22">
-        <v>1.018980403758387</v>
+        <v>1.019363848492369</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.055282409094531</v>
+        <v>1.054572640705179</v>
       </c>
       <c r="J22">
-        <v>0.9581763069395425</v>
+        <v>0.9635930591346843</v>
       </c>
       <c r="K22">
-        <v>1.046548903355228</v>
+        <v>1.045039461452636</v>
       </c>
       <c r="L22">
-        <v>0.9590548950788949</v>
+        <v>0.9638390351127412</v>
       </c>
       <c r="M22">
-        <v>1.034185004943609</v>
+        <v>1.034561222321028</v>
       </c>
       <c r="N22">
-        <v>0.9889771362385583</v>
+        <v>0.9974997451558052</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.035627512130288</v>
+        <v>1.035925264928057</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.04405205198787</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.043000196258611</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.024354028902823</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9268666646743136</v>
+        <v>0.9322041892428911</v>
       </c>
       <c r="D23">
-        <v>1.032616556068446</v>
+        <v>1.030930576048764</v>
       </c>
       <c r="E23">
-        <v>0.9448185853675254</v>
+        <v>0.949367847678214</v>
       </c>
       <c r="F23">
-        <v>1.020381586594311</v>
+        <v>1.020586153337006</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.055691313623003</v>
+        <v>1.054900184749656</v>
       </c>
       <c r="J23">
-        <v>0.9604392793108562</v>
+        <v>0.9654949432957924</v>
       </c>
       <c r="K23">
-        <v>1.047269915884207</v>
+        <v>1.045614004699211</v>
       </c>
       <c r="L23">
-        <v>0.9612282449286078</v>
+        <v>0.9656758766962777</v>
       </c>
       <c r="M23">
-        <v>1.035256091044098</v>
+        <v>1.035456903514628</v>
       </c>
       <c r="N23">
-        <v>0.9897717929214087</v>
+        <v>0.9978362317695358</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.036475210239252</v>
+        <v>1.036634140721796</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.044552318779734</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.043395960323811</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.024482769439697</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9389416029259938</v>
+        <v>0.9430352481593239</v>
       </c>
       <c r="D24">
-        <v>1.03659922070926</v>
+        <v>1.034392894692342</v>
       </c>
       <c r="E24">
-        <v>0.9545954301289467</v>
+        <v>0.9580546437742214</v>
       </c>
       <c r="F24">
-        <v>1.025728966893568</v>
+        <v>1.025350657770788</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.057223950058887</v>
+        <v>1.056149706707073</v>
       </c>
       <c r="J24">
-        <v>0.9690110188727722</v>
+        <v>0.9729172869815182</v>
       </c>
       <c r="K24">
-        <v>1.050012715802978</v>
+        <v>1.047841802740752</v>
       </c>
       <c r="L24">
-        <v>0.969469750086951</v>
+        <v>0.9728607083866148</v>
       </c>
       <c r="M24">
-        <v>1.03931883195745</v>
+        <v>1.038946747520165</v>
       </c>
       <c r="N24">
-        <v>0.9927865648563508</v>
+        <v>0.9993710697806195</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.039690608110374</v>
+        <v>1.039396127834285</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.0464841606614</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.04496292363974</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024967151879361</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9520989537770919</v>
+        <v>0.9554190090882766</v>
       </c>
       <c r="D25">
-        <v>1.041017426078225</v>
+        <v>1.038325595080758</v>
       </c>
       <c r="E25">
-        <v>0.9653016111302611</v>
+        <v>0.9681105382670055</v>
       </c>
       <c r="F25">
-        <v>1.03164559828611</v>
+        <v>1.030823048222863</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.058853349334549</v>
+        <v>1.057519764240338</v>
       </c>
       <c r="J25">
-        <v>0.9783533744164509</v>
+        <v>0.9815458327971449</v>
       </c>
       <c r="K25">
-        <v>1.053010700669723</v>
+        <v>1.050356723722712</v>
       </c>
       <c r="L25">
-        <v>0.9784635675294208</v>
+        <v>0.9812249278038093</v>
       </c>
       <c r="M25">
-        <v>1.04377174516187</v>
+        <v>1.04296100312986</v>
       </c>
       <c r="N25">
-        <v>0.9960694116035943</v>
+        <v>1.001754621223008</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.043214785711766</v>
+        <v>1.042573139873864</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.048601010014773</v>
+        <v>1.046737927772858</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.025493543050496</v>
       </c>
     </row>
   </sheetData>
